--- a/config_12.21/shoping_config_cjj.xlsx
+++ b/config_12.21/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6159" uniqueCount="2188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6159" uniqueCount="2182">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7359,10 +7359,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>重阳礼包</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>一键礼包类型</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7391,22 +7387,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"340万金币","稀有宝箱*6","狂暴*6","子弹加速*6","20万鱼币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>3400000,6,6,6,200000,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"300万金币","稀有宝箱*1","狂暴*4","子弹加速*4",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>3000000,1,4,4,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7415,26 +7399,14 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,2,5,5,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"960万金币","稀有宝箱*4","狂暴*12","子弹加速*12","30万鱼币",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"480万金币","史诗宝箱*1","狂暴*5","子弹加速*5",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,1,5,5,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"980万金币","史诗宝箱*2","狂暴*6","子弹加速*6",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7459,54 +7431,14 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>1000000,2,2,2,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳礼包</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","稀有宝箱*1","狂暴*3","子弹加速*3",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,1,3,3,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>9600000,4,12,12,300000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"1980万金币","史诗宝箱*3","狂暴*7","子弹加速*7",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>19800000,3,7,7,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳礼包</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"3440万金币","史诗宝箱*6","狂暴*18","子弹加速*18","100万鱼币",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7519,10 +7451,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7531,38 +7459,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>重阳礼包</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"1980万金币","传说宝箱*2","狂暴*9","子弹加速*9",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>19800000,2,9,9,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","传说宝箱*5","狂暴*10","子弹加速*10",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,5,10,10,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳礼包</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"7940万金币","传说宝箱*8","狂暴*27","子弹加速*27","200万鱼币",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7572,10 +7472,6 @@
   </si>
   <si>
     <t>79400000,8,27,27,2000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -8473,6 +8369,86 @@
   </si>
   <si>
     <t>79400000,2630000,7,2000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,2,2,2,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"340万金币","稀有宝箱*6","狂暴*6","子弹加速*6","20万鱼币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","稀有宝箱*1","狂暴*3","子弹加速*3",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,1,3,3,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","稀有宝箱*1","狂暴*4","子弹加速*4",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,2,5,5,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>9600000,4,12,12,300000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","史诗宝箱*1","狂暴*5","子弹加速*5",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,1,5,5,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,3,7,7,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,2,9,9,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","传说宝箱*5","狂暴*10","子弹加速*10",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,5,10,10,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -8970,10 +8946,10 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11459,10 +11435,10 @@
   <dimension ref="A1:AIG788"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Z772" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Z703" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A773" sqref="A773:XFD788"/>
+      <selection pane="bottomRight" activeCell="A709" sqref="A709:XFD724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -62601,855 +62577,855 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A671" s="87">
+    <row r="671" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A671" s="86">
         <v>670</v>
       </c>
-      <c r="B671" s="87">
+      <c r="B671" s="86">
         <v>10587</v>
       </c>
-      <c r="F671" s="87">
-        <v>1</v>
-      </c>
-      <c r="G671" s="87" t="s">
-        <v>2145</v>
-      </c>
-      <c r="H671" s="87" t="s">
+      <c r="F671" s="86">
+        <v>1</v>
+      </c>
+      <c r="G671" s="86" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H671" s="86" t="s">
         <v>1872</v>
       </c>
-      <c r="J671" s="87" t="s">
+      <c r="J671" s="86" t="s">
         <v>1538</v>
       </c>
-      <c r="K671" s="87" t="s">
-        <v>2098</v>
-      </c>
-      <c r="M671" s="87">
+      <c r="K671" s="86" t="s">
+        <v>2072</v>
+      </c>
+      <c r="M671" s="86">
         <v>-31</v>
       </c>
-      <c r="N671" s="87">
-        <v>0</v>
-      </c>
-      <c r="O671" s="87">
-        <v>0</v>
-      </c>
-      <c r="P671" s="87" t="s">
+      <c r="N671" s="86">
+        <v>0</v>
+      </c>
+      <c r="O671" s="86">
+        <v>0</v>
+      </c>
+      <c r="P671" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="Q671" s="87">
+      <c r="Q671" s="86">
         <v>600</v>
       </c>
-      <c r="R671" s="87" t="s">
-        <v>2099</v>
+      <c r="R671" s="86" t="s">
+        <v>2073</v>
       </c>
       <c r="S671" s="75" t="s">
         <v>1560</v>
       </c>
-      <c r="X671" s="87" t="s">
+      <c r="X671" s="86" t="s">
         <v>479</v>
       </c>
-      <c r="Y671" s="87">
+      <c r="Y671" s="86">
         <v>99999999</v>
       </c>
-      <c r="Z671" s="87">
+      <c r="Z671" s="86">
         <v>1638835200</v>
       </c>
-      <c r="AA671" s="87">
+      <c r="AA671" s="86">
         <v>1639411199</v>
       </c>
-      <c r="AB671" s="87">
+      <c r="AB671" s="86">
         <v>76</v>
       </c>
-      <c r="AI671" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ671" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM671" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN671" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="672" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A672" s="87">
+      <c r="AI671" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ671" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM671" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN671" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A672" s="86">
         <v>671</v>
       </c>
-      <c r="B672" s="87">
+      <c r="B672" s="86">
         <v>10588</v>
       </c>
-      <c r="F672" s="87">
-        <v>1</v>
-      </c>
-      <c r="G672" s="87" t="s">
-        <v>2145</v>
-      </c>
-      <c r="H672" s="87" t="s">
+      <c r="F672" s="86">
+        <v>1</v>
+      </c>
+      <c r="G672" s="86" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H672" s="86" t="s">
         <v>1872</v>
       </c>
-      <c r="J672" s="87" t="s">
+      <c r="J672" s="86" t="s">
         <v>1538</v>
       </c>
-      <c r="K672" s="87" t="s">
-        <v>2100</v>
-      </c>
-      <c r="M672" s="87">
+      <c r="K672" s="86" t="s">
+        <v>2074</v>
+      </c>
+      <c r="M672" s="86">
         <v>-31</v>
       </c>
-      <c r="N672" s="87">
-        <v>0</v>
-      </c>
-      <c r="O672" s="87">
-        <v>0</v>
-      </c>
-      <c r="P672" s="87" t="s">
+      <c r="N672" s="86">
+        <v>0</v>
+      </c>
+      <c r="O672" s="86">
+        <v>0</v>
+      </c>
+      <c r="P672" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="Q672" s="87">
+      <c r="Q672" s="86">
         <v>1000</v>
       </c>
-      <c r="R672" s="87" t="s">
-        <v>2099</v>
+      <c r="R672" s="86" t="s">
+        <v>2073</v>
       </c>
       <c r="S672" s="75" t="s">
         <v>1562</v>
       </c>
-      <c r="X672" s="87" t="s">
+      <c r="X672" s="86" t="s">
         <v>479</v>
       </c>
-      <c r="Y672" s="87">
+      <c r="Y672" s="86">
         <v>99999999</v>
       </c>
-      <c r="Z672" s="87">
+      <c r="Z672" s="86">
         <v>1638835200</v>
       </c>
-      <c r="AA672" s="87">
+      <c r="AA672" s="86">
         <v>1639411199</v>
       </c>
-      <c r="AB672" s="87">
+      <c r="AB672" s="86">
         <v>76</v>
       </c>
-      <c r="AI672" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ672" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM672" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN672" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="673" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A673" s="87">
+      <c r="AI672" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ672" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM672" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN672" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A673" s="86">
         <v>672</v>
       </c>
-      <c r="B673" s="87">
+      <c r="B673" s="86">
         <v>10589</v>
       </c>
-      <c r="F673" s="87">
-        <v>1</v>
-      </c>
-      <c r="G673" s="87" t="s">
-        <v>2145</v>
-      </c>
-      <c r="H673" s="87" t="s">
+      <c r="F673" s="86">
+        <v>1</v>
+      </c>
+      <c r="G673" s="86" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H673" s="86" t="s">
         <v>1872</v>
       </c>
-      <c r="J673" s="87" t="s">
+      <c r="J673" s="86" t="s">
         <v>1538</v>
       </c>
-      <c r="K673" s="87" t="s">
-        <v>2101</v>
-      </c>
-      <c r="M673" s="87">
+      <c r="K673" s="86" t="s">
+        <v>2075</v>
+      </c>
+      <c r="M673" s="86">
         <v>-31</v>
       </c>
-      <c r="N673" s="87">
-        <v>0</v>
-      </c>
-      <c r="O673" s="87">
-        <v>0</v>
-      </c>
-      <c r="P673" s="87" t="s">
+      <c r="N673" s="86">
+        <v>0</v>
+      </c>
+      <c r="O673" s="86">
+        <v>0</v>
+      </c>
+      <c r="P673" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="Q673" s="87">
+      <c r="Q673" s="86">
         <v>1800</v>
       </c>
-      <c r="R673" s="87" t="s">
-        <v>2099</v>
+      <c r="R673" s="86" t="s">
+        <v>2073</v>
       </c>
       <c r="S673" s="75" t="s">
         <v>1564</v>
       </c>
-      <c r="X673" s="87" t="s">
+      <c r="X673" s="86" t="s">
         <v>479</v>
       </c>
-      <c r="Y673" s="87">
+      <c r="Y673" s="86">
         <v>99999999</v>
       </c>
-      <c r="Z673" s="87">
+      <c r="Z673" s="86">
         <v>1638835200</v>
       </c>
-      <c r="AA673" s="87">
+      <c r="AA673" s="86">
         <v>1639411199</v>
       </c>
-      <c r="AB673" s="87">
+      <c r="AB673" s="86">
         <v>76</v>
       </c>
-      <c r="AI673" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ673" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM673" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN673" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="674" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A674" s="87">
+      <c r="AI673" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ673" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM673" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN673" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A674" s="86">
         <v>673</v>
       </c>
-      <c r="B674" s="87">
+      <c r="B674" s="86">
         <v>10590</v>
       </c>
-      <c r="F674" s="87">
-        <v>1</v>
-      </c>
-      <c r="G674" s="87" t="s">
-        <v>2145</v>
-      </c>
-      <c r="H674" s="87" t="s">
+      <c r="F674" s="86">
+        <v>1</v>
+      </c>
+      <c r="G674" s="86" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H674" s="86" t="s">
         <v>1872</v>
       </c>
-      <c r="J674" s="87" t="s">
+      <c r="J674" s="86" t="s">
         <v>1545</v>
       </c>
-      <c r="K674" s="87" t="s">
+      <c r="K674" s="86" t="s">
         <v>1546</v>
       </c>
-      <c r="M674" s="87">
+      <c r="M674" s="86">
         <v>-31</v>
       </c>
-      <c r="N674" s="87">
-        <v>0</v>
-      </c>
-      <c r="O674" s="87">
-        <v>0</v>
-      </c>
-      <c r="P674" s="87" t="s">
+      <c r="N674" s="86">
+        <v>0</v>
+      </c>
+      <c r="O674" s="86">
+        <v>0</v>
+      </c>
+      <c r="P674" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="Q674" s="87">
+      <c r="Q674" s="86">
         <v>1800</v>
       </c>
-      <c r="R674" s="87" t="s">
-        <v>2099</v>
+      <c r="R674" s="86" t="s">
+        <v>2073</v>
       </c>
       <c r="S674" s="75" t="s">
         <v>1547</v>
       </c>
-      <c r="X674" s="87" t="s">
+      <c r="X674" s="86" t="s">
         <v>479</v>
       </c>
-      <c r="Y674" s="87">
+      <c r="Y674" s="86">
         <v>99999999</v>
       </c>
-      <c r="Z674" s="87">
+      <c r="Z674" s="86">
         <v>1638835200</v>
       </c>
-      <c r="AA674" s="87">
+      <c r="AA674" s="86">
         <v>1639411199</v>
       </c>
-      <c r="AB674" s="87">
+      <c r="AB674" s="86">
         <v>77</v>
       </c>
-      <c r="AI674" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ674" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM674" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN674" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="675" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A675" s="87">
+      <c r="AI674" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ674" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM674" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN674" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A675" s="86">
         <v>674</v>
       </c>
-      <c r="B675" s="87">
+      <c r="B675" s="86">
         <v>10591</v>
       </c>
-      <c r="F675" s="87">
-        <v>1</v>
-      </c>
-      <c r="G675" s="87" t="s">
-        <v>2145</v>
-      </c>
-      <c r="H675" s="87" t="s">
+      <c r="F675" s="86">
+        <v>1</v>
+      </c>
+      <c r="G675" s="86" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H675" s="86" t="s">
         <v>1872</v>
       </c>
-      <c r="J675" s="87" t="s">
+      <c r="J675" s="86" t="s">
         <v>1545</v>
       </c>
-      <c r="K675" s="87" t="s">
+      <c r="K675" s="86" t="s">
         <v>1548</v>
       </c>
-      <c r="M675" s="87">
+      <c r="M675" s="86">
         <v>-31</v>
       </c>
-      <c r="N675" s="87">
-        <v>0</v>
-      </c>
-      <c r="O675" s="87">
-        <v>0</v>
-      </c>
-      <c r="P675" s="87" t="s">
+      <c r="N675" s="86">
+        <v>0</v>
+      </c>
+      <c r="O675" s="86">
+        <v>0</v>
+      </c>
+      <c r="P675" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="Q675" s="87">
+      <c r="Q675" s="86">
         <v>3000</v>
       </c>
-      <c r="R675" s="87" t="s">
-        <v>2099</v>
+      <c r="R675" s="86" t="s">
+        <v>2073</v>
       </c>
       <c r="S675" s="75" t="s">
         <v>1549</v>
       </c>
-      <c r="X675" s="87" t="s">
+      <c r="X675" s="86" t="s">
         <v>479</v>
       </c>
-      <c r="Y675" s="87">
+      <c r="Y675" s="86">
         <v>99999999</v>
       </c>
-      <c r="Z675" s="87">
+      <c r="Z675" s="86">
         <v>1638835200</v>
       </c>
-      <c r="AA675" s="87">
+      <c r="AA675" s="86">
         <v>1639411199</v>
       </c>
-      <c r="AB675" s="87">
+      <c r="AB675" s="86">
         <v>77</v>
       </c>
-      <c r="AI675" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ675" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM675" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN675" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="676" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A676" s="87">
+      <c r="AI675" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ675" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM675" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN675" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A676" s="86">
         <v>675</v>
       </c>
-      <c r="B676" s="87">
+      <c r="B676" s="86">
         <v>10592</v>
       </c>
-      <c r="F676" s="87">
-        <v>1</v>
-      </c>
-      <c r="G676" s="87" t="s">
-        <v>2145</v>
-      </c>
-      <c r="H676" s="87" t="s">
+      <c r="F676" s="86">
+        <v>1</v>
+      </c>
+      <c r="G676" s="86" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H676" s="86" t="s">
         <v>1872</v>
       </c>
-      <c r="J676" s="87" t="s">
+      <c r="J676" s="86" t="s">
         <v>1545</v>
       </c>
-      <c r="K676" s="87" t="s">
+      <c r="K676" s="86" t="s">
         <v>1550</v>
       </c>
-      <c r="M676" s="87">
+      <c r="M676" s="86">
         <v>-31</v>
       </c>
-      <c r="N676" s="87">
-        <v>0</v>
-      </c>
-      <c r="O676" s="87">
-        <v>0</v>
-      </c>
-      <c r="P676" s="87" t="s">
+      <c r="N676" s="86">
+        <v>0</v>
+      </c>
+      <c r="O676" s="86">
+        <v>0</v>
+      </c>
+      <c r="P676" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="Q676" s="87">
+      <c r="Q676" s="86">
         <v>4800</v>
       </c>
-      <c r="R676" s="87" t="s">
-        <v>2099</v>
+      <c r="R676" s="86" t="s">
+        <v>2073</v>
       </c>
       <c r="S676" s="75" t="s">
         <v>1551</v>
       </c>
-      <c r="X676" s="87" t="s">
+      <c r="X676" s="86" t="s">
         <v>479</v>
       </c>
-      <c r="Y676" s="87">
+      <c r="Y676" s="86">
         <v>99999999</v>
       </c>
-      <c r="Z676" s="87">
+      <c r="Z676" s="86">
         <v>1638835200</v>
       </c>
-      <c r="AA676" s="87">
+      <c r="AA676" s="86">
         <v>1639411199</v>
       </c>
-      <c r="AB676" s="87">
+      <c r="AB676" s="86">
         <v>77</v>
       </c>
-      <c r="AI676" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ676" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM676" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN676" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="677" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A677" s="87">
+      <c r="AI676" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ676" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM676" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN676" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A677" s="86">
         <v>676</v>
       </c>
-      <c r="B677" s="87">
+      <c r="B677" s="86">
         <v>10593</v>
       </c>
-      <c r="F677" s="87">
-        <v>1</v>
-      </c>
-      <c r="G677" s="87" t="s">
-        <v>2145</v>
-      </c>
-      <c r="H677" s="87" t="s">
+      <c r="F677" s="86">
+        <v>1</v>
+      </c>
+      <c r="G677" s="86" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H677" s="86" t="s">
         <v>1872</v>
       </c>
-      <c r="J677" s="87" t="s">
+      <c r="J677" s="86" t="s">
         <v>1552</v>
       </c>
-      <c r="K677" s="87" t="s">
+      <c r="K677" s="86" t="s">
         <v>1550</v>
       </c>
-      <c r="M677" s="87">
+      <c r="M677" s="86">
         <v>-31</v>
       </c>
-      <c r="N677" s="87">
-        <v>0</v>
-      </c>
-      <c r="O677" s="87">
-        <v>0</v>
-      </c>
-      <c r="P677" s="87" t="s">
+      <c r="N677" s="86">
+        <v>0</v>
+      </c>
+      <c r="O677" s="86">
+        <v>0</v>
+      </c>
+      <c r="P677" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="Q677" s="87">
+      <c r="Q677" s="86">
         <v>4800</v>
       </c>
-      <c r="R677" s="87" t="s">
-        <v>2099</v>
+      <c r="R677" s="86" t="s">
+        <v>2073</v>
       </c>
       <c r="S677" s="75" t="s">
         <v>1551</v>
       </c>
-      <c r="X677" s="87" t="s">
+      <c r="X677" s="86" t="s">
         <v>479</v>
       </c>
-      <c r="Y677" s="87">
+      <c r="Y677" s="86">
         <v>99999999</v>
       </c>
-      <c r="Z677" s="87">
+      <c r="Z677" s="86">
         <v>1638835200</v>
       </c>
-      <c r="AA677" s="87">
+      <c r="AA677" s="86">
         <v>1639411199</v>
       </c>
-      <c r="AB677" s="87">
+      <c r="AB677" s="86">
         <v>78</v>
       </c>
-      <c r="AI677" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ677" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM677" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN677" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="678" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A678" s="87">
+      <c r="AI677" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ677" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM677" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN677" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A678" s="86">
         <v>677</v>
       </c>
-      <c r="B678" s="87">
+      <c r="B678" s="86">
         <v>10594</v>
       </c>
-      <c r="F678" s="87">
-        <v>1</v>
-      </c>
-      <c r="G678" s="87" t="s">
-        <v>2145</v>
-      </c>
-      <c r="H678" s="87" t="s">
+      <c r="F678" s="86">
+        <v>1</v>
+      </c>
+      <c r="G678" s="86" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H678" s="86" t="s">
         <v>1872</v>
       </c>
-      <c r="J678" s="87" t="s">
+      <c r="J678" s="86" t="s">
         <v>1552</v>
       </c>
-      <c r="K678" s="87" t="s">
+      <c r="K678" s="86" t="s">
         <v>1553</v>
       </c>
-      <c r="M678" s="87">
+      <c r="M678" s="86">
         <v>-31</v>
       </c>
-      <c r="N678" s="87">
-        <v>0</v>
-      </c>
-      <c r="O678" s="87">
-        <v>0</v>
-      </c>
-      <c r="P678" s="87" t="s">
+      <c r="N678" s="86">
+        <v>0</v>
+      </c>
+      <c r="O678" s="86">
+        <v>0</v>
+      </c>
+      <c r="P678" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="Q678" s="87">
+      <c r="Q678" s="86">
         <v>9800</v>
       </c>
-      <c r="R678" s="87" t="s">
-        <v>2099</v>
+      <c r="R678" s="86" t="s">
+        <v>2073</v>
       </c>
       <c r="S678" s="75" t="s">
         <v>1554</v>
       </c>
-      <c r="X678" s="87" t="s">
+      <c r="X678" s="86" t="s">
         <v>479</v>
       </c>
-      <c r="Y678" s="87">
+      <c r="Y678" s="86">
         <v>99999999</v>
       </c>
-      <c r="Z678" s="87">
+      <c r="Z678" s="86">
         <v>1638835200</v>
       </c>
-      <c r="AA678" s="87">
+      <c r="AA678" s="86">
         <v>1639411199</v>
       </c>
-      <c r="AB678" s="87">
+      <c r="AB678" s="86">
         <v>78</v>
       </c>
-      <c r="AI678" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ678" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM678" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN678" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="679" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A679" s="87">
+      <c r="AI678" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ678" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM678" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN678" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A679" s="86">
         <v>678</v>
       </c>
-      <c r="B679" s="87">
+      <c r="B679" s="86">
         <v>10595</v>
       </c>
-      <c r="F679" s="87">
-        <v>1</v>
-      </c>
-      <c r="G679" s="87" t="s">
-        <v>2145</v>
-      </c>
-      <c r="H679" s="87" t="s">
+      <c r="F679" s="86">
+        <v>1</v>
+      </c>
+      <c r="G679" s="86" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H679" s="86" t="s">
         <v>1872</v>
       </c>
-      <c r="J679" s="87" t="s">
+      <c r="J679" s="86" t="s">
         <v>1552</v>
       </c>
-      <c r="K679" s="87" t="s">
+      <c r="K679" s="86" t="s">
         <v>1555</v>
       </c>
-      <c r="M679" s="87">
+      <c r="M679" s="86">
         <v>-31</v>
       </c>
-      <c r="N679" s="87">
-        <v>0</v>
-      </c>
-      <c r="O679" s="87">
-        <v>0</v>
-      </c>
-      <c r="P679" s="87" t="s">
+      <c r="N679" s="86">
+        <v>0</v>
+      </c>
+      <c r="O679" s="86">
+        <v>0</v>
+      </c>
+      <c r="P679" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="Q679" s="87">
+      <c r="Q679" s="86">
         <v>19800</v>
       </c>
-      <c r="R679" s="87" t="s">
-        <v>2099</v>
+      <c r="R679" s="86" t="s">
+        <v>2073</v>
       </c>
       <c r="S679" s="75" t="s">
         <v>1556</v>
       </c>
-      <c r="X679" s="87" t="s">
+      <c r="X679" s="86" t="s">
         <v>479</v>
       </c>
-      <c r="Y679" s="87">
+      <c r="Y679" s="86">
         <v>99999999</v>
       </c>
-      <c r="Z679" s="87">
+      <c r="Z679" s="86">
         <v>1638835200</v>
       </c>
-      <c r="AA679" s="87">
+      <c r="AA679" s="86">
         <v>1639411199</v>
       </c>
-      <c r="AB679" s="87">
+      <c r="AB679" s="86">
         <v>78</v>
       </c>
-      <c r="AI679" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ679" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM679" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN679" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="680" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A680" s="87">
+      <c r="AI679" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ679" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM679" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN679" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A680" s="86">
         <v>679</v>
       </c>
-      <c r="B680" s="87">
+      <c r="B680" s="86">
         <v>10596</v>
       </c>
-      <c r="F680" s="87">
-        <v>1</v>
-      </c>
-      <c r="G680" s="87" t="s">
-        <v>2145</v>
-      </c>
-      <c r="H680" s="87" t="s">
+      <c r="F680" s="86">
+        <v>1</v>
+      </c>
+      <c r="G680" s="86" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H680" s="86" t="s">
         <v>1872</v>
       </c>
-      <c r="J680" s="87" t="s">
+      <c r="J680" s="86" t="s">
         <v>1441</v>
       </c>
-      <c r="K680" s="87" t="s">
+      <c r="K680" s="86" t="s">
         <v>1553</v>
       </c>
-      <c r="M680" s="87">
+      <c r="M680" s="86">
         <v>-31</v>
       </c>
-      <c r="N680" s="87">
-        <v>0</v>
-      </c>
-      <c r="O680" s="87">
-        <v>0</v>
-      </c>
-      <c r="P680" s="87" t="s">
+      <c r="N680" s="86">
+        <v>0</v>
+      </c>
+      <c r="O680" s="86">
+        <v>0</v>
+      </c>
+      <c r="P680" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="Q680" s="87">
+      <c r="Q680" s="86">
         <v>9800</v>
       </c>
-      <c r="R680" s="87" t="s">
-        <v>2099</v>
+      <c r="R680" s="86" t="s">
+        <v>2073</v>
       </c>
       <c r="S680" s="75" t="s">
         <v>1554</v>
       </c>
-      <c r="X680" s="87" t="s">
+      <c r="X680" s="86" t="s">
         <v>479</v>
       </c>
-      <c r="Y680" s="87">
+      <c r="Y680" s="86">
         <v>99999999</v>
       </c>
-      <c r="Z680" s="87">
+      <c r="Z680" s="86">
         <v>1638835200</v>
       </c>
-      <c r="AA680" s="87">
+      <c r="AA680" s="86">
         <v>1639411199</v>
       </c>
-      <c r="AB680" s="87">
+      <c r="AB680" s="86">
         <v>79</v>
       </c>
-      <c r="AI680" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ680" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM680" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN680" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="681" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A681" s="87">
+      <c r="AI680" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ680" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM680" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN680" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A681" s="86">
         <v>680</v>
       </c>
-      <c r="B681" s="87">
+      <c r="B681" s="86">
         <v>10597</v>
       </c>
-      <c r="F681" s="87">
-        <v>1</v>
-      </c>
-      <c r="G681" s="87" t="s">
-        <v>2145</v>
-      </c>
-      <c r="H681" s="87" t="s">
+      <c r="F681" s="86">
+        <v>1</v>
+      </c>
+      <c r="G681" s="86" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H681" s="86" t="s">
         <v>1872</v>
       </c>
-      <c r="J681" s="87" t="s">
+      <c r="J681" s="86" t="s">
         <v>1441</v>
       </c>
-      <c r="K681" s="87" t="s">
+      <c r="K681" s="86" t="s">
         <v>1555</v>
       </c>
-      <c r="M681" s="87">
+      <c r="M681" s="86">
         <v>-31</v>
       </c>
-      <c r="N681" s="87">
-        <v>0</v>
-      </c>
-      <c r="O681" s="87">
-        <v>0</v>
-      </c>
-      <c r="P681" s="87" t="s">
+      <c r="N681" s="86">
+        <v>0</v>
+      </c>
+      <c r="O681" s="86">
+        <v>0</v>
+      </c>
+      <c r="P681" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="Q681" s="87">
+      <c r="Q681" s="86">
         <v>19800</v>
       </c>
-      <c r="R681" s="87" t="s">
-        <v>2099</v>
+      <c r="R681" s="86" t="s">
+        <v>2073</v>
       </c>
       <c r="S681" s="75" t="s">
         <v>1556</v>
       </c>
-      <c r="X681" s="87" t="s">
+      <c r="X681" s="86" t="s">
         <v>479</v>
       </c>
-      <c r="Y681" s="87">
+      <c r="Y681" s="86">
         <v>99999999</v>
       </c>
-      <c r="Z681" s="87">
+      <c r="Z681" s="86">
         <v>1638835200</v>
       </c>
-      <c r="AA681" s="87">
+      <c r="AA681" s="86">
         <v>1639411199</v>
       </c>
-      <c r="AB681" s="87">
+      <c r="AB681" s="86">
         <v>79</v>
       </c>
-      <c r="AI681" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ681" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM681" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN681" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="682" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A682" s="87">
+      <c r="AI681" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ681" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM681" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN681" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A682" s="86">
         <v>681</v>
       </c>
-      <c r="B682" s="87">
+      <c r="B682" s="86">
         <v>10598</v>
       </c>
-      <c r="F682" s="87">
-        <v>1</v>
-      </c>
-      <c r="G682" s="87" t="s">
-        <v>2145</v>
-      </c>
-      <c r="H682" s="87" t="s">
+      <c r="F682" s="86">
+        <v>1</v>
+      </c>
+      <c r="G682" s="86" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H682" s="86" t="s">
         <v>1872</v>
       </c>
-      <c r="J682" s="87" t="s">
+      <c r="J682" s="86" t="s">
         <v>1441</v>
       </c>
-      <c r="K682" s="87" t="s">
+      <c r="K682" s="86" t="s">
         <v>1557</v>
       </c>
-      <c r="M682" s="87">
+      <c r="M682" s="86">
         <v>-31</v>
       </c>
-      <c r="N682" s="87">
-        <v>0</v>
-      </c>
-      <c r="O682" s="87">
-        <v>0</v>
-      </c>
-      <c r="P682" s="87" t="s">
+      <c r="N682" s="86">
+        <v>0</v>
+      </c>
+      <c r="O682" s="86">
+        <v>0</v>
+      </c>
+      <c r="P682" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="Q682" s="87">
+      <c r="Q682" s="86">
         <v>49800</v>
       </c>
-      <c r="R682" s="87" t="s">
-        <v>2099</v>
+      <c r="R682" s="86" t="s">
+        <v>2073</v>
       </c>
       <c r="S682" s="75" t="s">
         <v>1558</v>
       </c>
-      <c r="X682" s="87" t="s">
+      <c r="X682" s="86" t="s">
         <v>479</v>
       </c>
-      <c r="Y682" s="87">
+      <c r="Y682" s="86">
         <v>99999999</v>
       </c>
-      <c r="Z682" s="87">
+      <c r="Z682" s="86">
         <v>1638835200</v>
       </c>
-      <c r="AA682" s="87">
+      <c r="AA682" s="86">
         <v>1639411199</v>
       </c>
-      <c r="AB682" s="87">
+      <c r="AB682" s="86">
         <v>79</v>
       </c>
-      <c r="AI682" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ682" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM682" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN682" s="87">
+      <c r="AI682" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ682" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM682" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN682" s="86">
         <v>1</v>
       </c>
     </row>
@@ -65232,1109 +65208,1109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A709" s="83">
+    <row r="709" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A709" s="88">
         <v>708</v>
       </c>
-      <c r="B709" s="83">
+      <c r="B709" s="88">
         <v>10625</v>
       </c>
-      <c r="F709" s="83">
-        <v>1</v>
-      </c>
-      <c r="G709" s="83" t="s">
+      <c r="F709" s="88">
+        <v>1</v>
+      </c>
+      <c r="G709" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H709" s="89" t="s">
         <v>1911</v>
       </c>
-      <c r="H709" s="89" t="s">
+      <c r="J709" s="88" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K709" s="88" t="s">
         <v>1912</v>
       </c>
-      <c r="J709" s="83" t="s">
+      <c r="M709" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N709" s="88">
+        <v>0</v>
+      </c>
+      <c r="O709" s="88">
+        <v>0</v>
+      </c>
+      <c r="P709" s="88" t="s">
+        <v>1866</v>
+      </c>
+      <c r="Q709" s="88">
+        <v>600</v>
+      </c>
+      <c r="R709" s="88" t="s">
+        <v>2162</v>
+      </c>
+      <c r="S709" s="75" t="s">
+        <v>1914</v>
+      </c>
+      <c r="X709" s="88" t="s">
+        <v>2163</v>
+      </c>
+      <c r="Y709" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z709" s="88">
+        <v>1636416000</v>
+      </c>
+      <c r="AA709" s="88">
+        <v>1636991999</v>
+      </c>
+      <c r="AB709" s="88">
+        <v>80</v>
+      </c>
+      <c r="AI709" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ709" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM709" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN709" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A710" s="88">
+        <v>709</v>
+      </c>
+      <c r="B710" s="88">
+        <v>10626</v>
+      </c>
+      <c r="F710" s="88">
+        <v>1</v>
+      </c>
+      <c r="G710" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H710" s="89"/>
+      <c r="J710" s="88" t="s">
         <v>1538</v>
       </c>
-      <c r="K709" s="83" t="s">
+      <c r="K710" s="88" t="s">
+        <v>1915</v>
+      </c>
+      <c r="M710" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N710" s="88">
+        <v>0</v>
+      </c>
+      <c r="O710" s="88">
+        <v>0</v>
+      </c>
+      <c r="P710" s="88" t="s">
+        <v>2164</v>
+      </c>
+      <c r="Q710" s="88">
+        <v>1000</v>
+      </c>
+      <c r="R710" s="88" t="s">
         <v>1913</v>
       </c>
-      <c r="M709" s="83">
+      <c r="S710" s="75" t="s">
+        <v>2165</v>
+      </c>
+      <c r="X710" s="88" t="s">
+        <v>2163</v>
+      </c>
+      <c r="Y710" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z710" s="88">
+        <v>1636416000</v>
+      </c>
+      <c r="AA710" s="88">
+        <v>1636991999</v>
+      </c>
+      <c r="AB710" s="88">
+        <v>80</v>
+      </c>
+      <c r="AI710" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ710" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM710" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN710" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A711" s="88">
+        <v>710</v>
+      </c>
+      <c r="B711" s="88">
+        <v>10627</v>
+      </c>
+      <c r="F711" s="88">
+        <v>1</v>
+      </c>
+      <c r="G711" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H711" s="89"/>
+      <c r="J711" s="88" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K711" s="88" t="s">
+        <v>1916</v>
+      </c>
+      <c r="M711" s="88">
         <v>-31</v>
       </c>
-      <c r="N709" s="83">
-        <v>0</v>
-      </c>
-      <c r="O709" s="83">
-        <v>0</v>
-      </c>
-      <c r="P709" s="83" t="s">
-        <v>1848</v>
-      </c>
-      <c r="Q709" s="83">
-        <v>600</v>
-      </c>
-      <c r="R709" s="83" t="s">
-        <v>1914</v>
-      </c>
-      <c r="S709" s="75" t="s">
-        <v>1915</v>
-      </c>
-      <c r="X709" s="83" t="s">
+      <c r="N711" s="88">
+        <v>0</v>
+      </c>
+      <c r="O711" s="88">
+        <v>0</v>
+      </c>
+      <c r="P711" s="88" t="s">
+        <v>2164</v>
+      </c>
+      <c r="Q711" s="88">
+        <v>1800</v>
+      </c>
+      <c r="R711" s="88" t="s">
+        <v>1913</v>
+      </c>
+      <c r="S711" s="75" t="s">
+        <v>1917</v>
+      </c>
+      <c r="X711" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y711" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z711" s="88">
+        <v>1636416000</v>
+      </c>
+      <c r="AA711" s="88">
+        <v>1636991999</v>
+      </c>
+      <c r="AB711" s="88">
+        <v>80</v>
+      </c>
+      <c r="AI711" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ711" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM711" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN711" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A712" s="88">
+        <v>711</v>
+      </c>
+      <c r="B712" s="88">
+        <v>10628</v>
+      </c>
+      <c r="F712" s="88">
+        <v>1</v>
+      </c>
+      <c r="G712" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H712" s="89"/>
+      <c r="J712" s="88" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K712" s="88" t="s">
+        <v>2166</v>
+      </c>
+      <c r="M712" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N712" s="88">
+        <v>0</v>
+      </c>
+      <c r="O712" s="88">
+        <v>0</v>
+      </c>
+      <c r="P712" s="88" t="s">
+        <v>2164</v>
+      </c>
+      <c r="Q712" s="88">
+        <v>3400</v>
+      </c>
+      <c r="R712" s="88" t="s">
+        <v>2167</v>
+      </c>
+      <c r="S712" s="75" t="s">
+        <v>1918</v>
+      </c>
+      <c r="X712" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y712" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z712" s="88">
+        <v>1636416000</v>
+      </c>
+      <c r="AA712" s="88">
+        <v>1636991999</v>
+      </c>
+      <c r="AB712" s="88">
+        <v>80</v>
+      </c>
+      <c r="AI712" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ712" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM712" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN712" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A713" s="88">
+        <v>712</v>
+      </c>
+      <c r="B713" s="88">
+        <v>10629</v>
+      </c>
+      <c r="F713" s="88">
+        <v>1</v>
+      </c>
+      <c r="G713" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H713" s="89"/>
+      <c r="J713" s="88" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K713" s="88" t="s">
+        <v>2168</v>
+      </c>
+      <c r="M713" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N713" s="88">
+        <v>0</v>
+      </c>
+      <c r="O713" s="88">
+        <v>0</v>
+      </c>
+      <c r="P713" s="88" t="s">
+        <v>1866</v>
+      </c>
+      <c r="Q713" s="88">
+        <v>1800</v>
+      </c>
+      <c r="R713" s="88" t="s">
+        <v>2169</v>
+      </c>
+      <c r="S713" s="75" t="s">
+        <v>2170</v>
+      </c>
+      <c r="X713" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y713" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z713" s="88">
+        <v>1636416000</v>
+      </c>
+      <c r="AA713" s="88">
+        <v>1636991999</v>
+      </c>
+      <c r="AB713" s="88">
+        <v>81</v>
+      </c>
+      <c r="AI713" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ713" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM713" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN713" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A714" s="88">
+        <v>713</v>
+      </c>
+      <c r="B714" s="88">
+        <v>10630</v>
+      </c>
+      <c r="F714" s="88">
+        <v>1</v>
+      </c>
+      <c r="G714" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H714" s="89"/>
+      <c r="J714" s="88" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K714" s="88" t="s">
+        <v>2171</v>
+      </c>
+      <c r="M714" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N714" s="88">
+        <v>0</v>
+      </c>
+      <c r="O714" s="88">
+        <v>0</v>
+      </c>
+      <c r="P714" s="88" t="s">
+        <v>2172</v>
+      </c>
+      <c r="Q714" s="88">
+        <v>3000</v>
+      </c>
+      <c r="R714" s="88" t="s">
+        <v>2169</v>
+      </c>
+      <c r="S714" s="75" t="s">
+        <v>1919</v>
+      </c>
+      <c r="X714" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y714" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z714" s="88">
+        <v>1636416000</v>
+      </c>
+      <c r="AA714" s="88">
+        <v>1636991999</v>
+      </c>
+      <c r="AB714" s="88">
+        <v>81</v>
+      </c>
+      <c r="AI714" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ714" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM714" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN714" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A715" s="88">
+        <v>714</v>
+      </c>
+      <c r="B715" s="88">
+        <v>10631</v>
+      </c>
+      <c r="F715" s="88">
+        <v>1</v>
+      </c>
+      <c r="G715" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H715" s="89"/>
+      <c r="J715" s="88" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K715" s="88" t="s">
+        <v>1920</v>
+      </c>
+      <c r="M715" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N715" s="88">
+        <v>0</v>
+      </c>
+      <c r="O715" s="88">
+        <v>0</v>
+      </c>
+      <c r="P715" s="88" t="s">
+        <v>1866</v>
+      </c>
+      <c r="Q715" s="88">
+        <v>4800</v>
+      </c>
+      <c r="R715" s="88" t="s">
+        <v>1913</v>
+      </c>
+      <c r="S715" s="75" t="s">
+        <v>2173</v>
+      </c>
+      <c r="X715" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y715" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z715" s="88">
+        <v>1636416000</v>
+      </c>
+      <c r="AA715" s="88">
+        <v>1636991999</v>
+      </c>
+      <c r="AB715" s="88">
+        <v>81</v>
+      </c>
+      <c r="AI715" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ715" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM715" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN715" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A716" s="88">
+        <v>715</v>
+      </c>
+      <c r="B716" s="88">
+        <v>10632</v>
+      </c>
+      <c r="F716" s="88">
+        <v>1</v>
+      </c>
+      <c r="G716" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H716" s="89"/>
+      <c r="J716" s="88" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K716" s="88" t="s">
+        <v>1921</v>
+      </c>
+      <c r="M716" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N716" s="88">
+        <v>0</v>
+      </c>
+      <c r="O716" s="88">
+        <v>0</v>
+      </c>
+      <c r="P716" s="88" t="s">
+        <v>2164</v>
+      </c>
+      <c r="Q716" s="88">
+        <v>9600</v>
+      </c>
+      <c r="R716" s="88" t="s">
+        <v>2167</v>
+      </c>
+      <c r="S716" s="75" t="s">
+        <v>2174</v>
+      </c>
+      <c r="X716" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y716" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z716" s="88">
+        <v>1636416000</v>
+      </c>
+      <c r="AA716" s="88">
+        <v>1636991999</v>
+      </c>
+      <c r="AB716" s="88">
+        <v>81</v>
+      </c>
+      <c r="AI716" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ716" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM716" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN716" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A717" s="88">
+        <v>716</v>
+      </c>
+      <c r="B717" s="88">
+        <v>10633</v>
+      </c>
+      <c r="F717" s="88">
+        <v>1</v>
+      </c>
+      <c r="G717" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H717" s="89"/>
+      <c r="J717" s="88" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K717" s="88" t="s">
+        <v>2175</v>
+      </c>
+      <c r="M717" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N717" s="88">
+        <v>0</v>
+      </c>
+      <c r="O717" s="88">
+        <v>0</v>
+      </c>
+      <c r="P717" s="88" t="s">
+        <v>1866</v>
+      </c>
+      <c r="Q717" s="88">
+        <v>4800</v>
+      </c>
+      <c r="R717" s="88" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S717" s="75" t="s">
+        <v>2176</v>
+      </c>
+      <c r="X717" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y717" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z717" s="88">
+        <v>1636416000</v>
+      </c>
+      <c r="AA717" s="88">
+        <v>1636991999</v>
+      </c>
+      <c r="AB717" s="88">
+        <v>82</v>
+      </c>
+      <c r="AI717" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ717" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM717" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN717" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A718" s="88">
+        <v>717</v>
+      </c>
+      <c r="B718" s="88">
+        <v>10634</v>
+      </c>
+      <c r="F718" s="88">
+        <v>1</v>
+      </c>
+      <c r="G718" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H718" s="89"/>
+      <c r="J718" s="88" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K718" s="88" t="s">
+        <v>1923</v>
+      </c>
+      <c r="M718" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N718" s="88">
+        <v>0</v>
+      </c>
+      <c r="O718" s="88">
+        <v>0</v>
+      </c>
+      <c r="P718" s="88" t="s">
+        <v>1866</v>
+      </c>
+      <c r="Q718" s="88">
+        <v>9800</v>
+      </c>
+      <c r="R718" s="88" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S718" s="75" t="s">
+        <v>1924</v>
+      </c>
+      <c r="X718" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y718" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z718" s="88">
+        <v>1636416000</v>
+      </c>
+      <c r="AA718" s="88">
+        <v>1636991999</v>
+      </c>
+      <c r="AB718" s="88">
+        <v>82</v>
+      </c>
+      <c r="AI718" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ718" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM718" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN718" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A719" s="88">
+        <v>718</v>
+      </c>
+      <c r="B719" s="88">
+        <v>10635</v>
+      </c>
+      <c r="F719" s="88">
+        <v>1</v>
+      </c>
+      <c r="G719" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H719" s="89"/>
+      <c r="J719" s="88" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K719" s="88" t="s">
+        <v>1929</v>
+      </c>
+      <c r="M719" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N719" s="88">
+        <v>0</v>
+      </c>
+      <c r="O719" s="88">
+        <v>0</v>
+      </c>
+      <c r="P719" s="88" t="s">
+        <v>1866</v>
+      </c>
+      <c r="Q719" s="88">
+        <v>19800</v>
+      </c>
+      <c r="R719" s="88" t="s">
+        <v>2177</v>
+      </c>
+      <c r="S719" s="75" t="s">
+        <v>2178</v>
+      </c>
+      <c r="X719" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y719" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z719" s="88">
+        <v>1636416000</v>
+      </c>
+      <c r="AA719" s="88">
+        <v>1636991999</v>
+      </c>
+      <c r="AB719" s="88">
+        <v>82</v>
+      </c>
+      <c r="AI719" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ719" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM719" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN719" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A720" s="88">
+        <v>719</v>
+      </c>
+      <c r="B720" s="88">
+        <v>10636</v>
+      </c>
+      <c r="F720" s="88">
+        <v>1</v>
+      </c>
+      <c r="G720" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H720" s="89"/>
+      <c r="J720" s="88" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K720" s="88" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M720" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N720" s="88">
+        <v>0</v>
+      </c>
+      <c r="O720" s="88">
+        <v>0</v>
+      </c>
+      <c r="P720" s="88" t="s">
+        <v>1866</v>
+      </c>
+      <c r="Q720" s="88">
+        <v>34400</v>
+      </c>
+      <c r="R720" s="88" t="s">
+        <v>1931</v>
+      </c>
+      <c r="S720" s="75" t="s">
+        <v>1932</v>
+      </c>
+      <c r="X720" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y720" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z720" s="88">
+        <v>1636416000</v>
+      </c>
+      <c r="AA720" s="88">
+        <v>1636991999</v>
+      </c>
+      <c r="AB720" s="88">
+        <v>82</v>
+      </c>
+      <c r="AI720" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ720" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM720" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN720" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A721" s="88">
+        <v>720</v>
+      </c>
+      <c r="B721" s="88">
+        <v>10637</v>
+      </c>
+      <c r="F721" s="88">
+        <v>1</v>
+      </c>
+      <c r="G721" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H721" s="89"/>
+      <c r="J721" s="88" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K721" s="88" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M721" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N721" s="88">
+        <v>0</v>
+      </c>
+      <c r="O721" s="88">
+        <v>0</v>
+      </c>
+      <c r="P721" s="88" t="s">
+        <v>2164</v>
+      </c>
+      <c r="Q721" s="88">
+        <v>9800</v>
+      </c>
+      <c r="R721" s="88" t="s">
+        <v>1934</v>
+      </c>
+      <c r="S721" s="75" t="s">
         <v>1935</v>
       </c>
-      <c r="Y709" s="83">
+      <c r="X721" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y721" s="88">
         <v>99999999</v>
       </c>
-      <c r="Z709" s="83">
+      <c r="Z721" s="88">
         <v>1636416000</v>
       </c>
-      <c r="AA709" s="83">
+      <c r="AA721" s="88">
         <v>1636991999</v>
       </c>
-      <c r="AB709" s="83">
-        <v>80</v>
-      </c>
-      <c r="AI709" s="83">
-        <v>1</v>
-      </c>
-      <c r="AJ709" s="83">
-        <v>1</v>
-      </c>
-      <c r="AM709" s="83">
-        <v>1</v>
-      </c>
-      <c r="AN709" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="710" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A710" s="83">
-        <v>709</v>
-      </c>
-      <c r="B710" s="83">
-        <v>10626</v>
-      </c>
-      <c r="F710" s="83">
-        <v>1</v>
-      </c>
-      <c r="G710" s="83" t="s">
-        <v>1911</v>
-      </c>
-      <c r="H710" s="89"/>
-      <c r="J710" s="83" t="s">
-        <v>1538</v>
-      </c>
-      <c r="K710" s="83" t="s">
-        <v>1916</v>
-      </c>
-      <c r="M710" s="83">
+      <c r="AB721" s="88">
+        <v>83</v>
+      </c>
+      <c r="AI721" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ721" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM721" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN721" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A722" s="88">
+        <v>721</v>
+      </c>
+      <c r="B722" s="88">
+        <v>10638</v>
+      </c>
+      <c r="F722" s="88">
+        <v>1</v>
+      </c>
+      <c r="G722" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H722" s="89"/>
+      <c r="J722" s="88" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K722" s="88" t="s">
+        <v>1936</v>
+      </c>
+      <c r="M722" s="88">
         <v>-31</v>
       </c>
-      <c r="N710" s="83">
-        <v>0</v>
-      </c>
-      <c r="O710" s="83">
-        <v>0</v>
-      </c>
-      <c r="P710" s="83" t="s">
-        <v>1848</v>
-      </c>
-      <c r="Q710" s="83">
-        <v>1000</v>
-      </c>
-      <c r="R710" s="83" t="s">
-        <v>1914</v>
-      </c>
-      <c r="S710" s="75" t="s">
-        <v>1936</v>
-      </c>
-      <c r="X710" s="83" t="s">
-        <v>1935</v>
-      </c>
-      <c r="Y710" s="83">
+      <c r="N722" s="88">
+        <v>0</v>
+      </c>
+      <c r="O722" s="88">
+        <v>0</v>
+      </c>
+      <c r="P722" s="88" t="s">
+        <v>1866</v>
+      </c>
+      <c r="Q722" s="88">
+        <v>19800</v>
+      </c>
+      <c r="R722" s="88" t="s">
+        <v>1934</v>
+      </c>
+      <c r="S722" s="75" t="s">
+        <v>2179</v>
+      </c>
+      <c r="X722" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y722" s="88">
         <v>99999999</v>
       </c>
-      <c r="Z710" s="83">
+      <c r="Z722" s="88">
         <v>1636416000</v>
       </c>
-      <c r="AA710" s="83">
+      <c r="AA722" s="88">
         <v>1636991999</v>
       </c>
-      <c r="AB710" s="83">
-        <v>80</v>
-      </c>
-      <c r="AI710" s="83">
-        <v>1</v>
-      </c>
-      <c r="AJ710" s="83">
-        <v>1</v>
-      </c>
-      <c r="AM710" s="83">
-        <v>1</v>
-      </c>
-      <c r="AN710" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="711" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A711" s="83">
-        <v>710</v>
-      </c>
-      <c r="B711" s="83">
-        <v>10627</v>
-      </c>
-      <c r="F711" s="83">
-        <v>1</v>
-      </c>
-      <c r="G711" s="83" t="s">
-        <v>1911</v>
-      </c>
-      <c r="H711" s="89"/>
-      <c r="J711" s="83" t="s">
-        <v>1538</v>
-      </c>
-      <c r="K711" s="83" t="s">
-        <v>1917</v>
-      </c>
-      <c r="M711" s="83">
+      <c r="AB722" s="88">
+        <v>83</v>
+      </c>
+      <c r="AI722" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ722" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM722" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN722" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A723" s="88">
+        <v>722</v>
+      </c>
+      <c r="B723" s="88">
+        <v>10639</v>
+      </c>
+      <c r="F723" s="88">
+        <v>1</v>
+      </c>
+      <c r="G723" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H723" s="89"/>
+      <c r="J723" s="88" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K723" s="88" t="s">
+        <v>2180</v>
+      </c>
+      <c r="M723" s="88">
         <v>-31</v>
       </c>
-      <c r="N711" s="83">
-        <v>0</v>
-      </c>
-      <c r="O711" s="83">
-        <v>0</v>
-      </c>
-      <c r="P711" s="83" t="s">
-        <v>1848</v>
-      </c>
-      <c r="Q711" s="83">
-        <v>1800</v>
-      </c>
-      <c r="R711" s="83" t="s">
+      <c r="N723" s="88">
+        <v>0</v>
+      </c>
+      <c r="O723" s="88">
+        <v>0</v>
+      </c>
+      <c r="P723" s="88" t="s">
+        <v>1866</v>
+      </c>
+      <c r="Q723" s="88">
+        <v>49800</v>
+      </c>
+      <c r="R723" s="88" t="s">
+        <v>1934</v>
+      </c>
+      <c r="S723" s="75" t="s">
+        <v>2181</v>
+      </c>
+      <c r="X723" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y723" s="88">
+        <v>99999999</v>
+      </c>
+      <c r="Z723" s="88">
+        <v>1636416000</v>
+      </c>
+      <c r="AA723" s="88">
+        <v>1636991999</v>
+      </c>
+      <c r="AB723" s="88">
+        <v>83</v>
+      </c>
+      <c r="AI723" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ723" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM723" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN723" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A724" s="88">
+        <v>723</v>
+      </c>
+      <c r="B724" s="88">
+        <v>10640</v>
+      </c>
+      <c r="F724" s="88">
+        <v>1</v>
+      </c>
+      <c r="G724" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H724" s="89"/>
+      <c r="J724" s="88" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K724" s="88" t="s">
         <v>1937</v>
       </c>
-      <c r="S711" s="75" t="s">
-        <v>1918</v>
-      </c>
-      <c r="X711" s="83" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y711" s="83">
+      <c r="M724" s="88">
+        <v>-31</v>
+      </c>
+      <c r="N724" s="88">
+        <v>0</v>
+      </c>
+      <c r="O724" s="88">
+        <v>0</v>
+      </c>
+      <c r="P724" s="88" t="s">
+        <v>2164</v>
+      </c>
+      <c r="Q724" s="88">
+        <v>79400</v>
+      </c>
+      <c r="R724" s="88" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S724" s="75" t="s">
+        <v>1939</v>
+      </c>
+      <c r="X724" s="88" t="s">
+        <v>1928</v>
+      </c>
+      <c r="Y724" s="88">
         <v>99999999</v>
       </c>
-      <c r="Z711" s="83">
+      <c r="Z724" s="88">
         <v>1636416000</v>
       </c>
-      <c r="AA711" s="83">
+      <c r="AA724" s="88">
         <v>1636991999</v>
       </c>
-      <c r="AB711" s="83">
-        <v>80</v>
-      </c>
-      <c r="AI711" s="83">
-        <v>1</v>
-      </c>
-      <c r="AJ711" s="83">
-        <v>1</v>
-      </c>
-      <c r="AM711" s="83">
-        <v>1</v>
-      </c>
-      <c r="AN711" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="712" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A712" s="83">
-        <v>711</v>
-      </c>
-      <c r="B712" s="83">
-        <v>10628</v>
-      </c>
-      <c r="F712" s="83">
-        <v>1</v>
-      </c>
-      <c r="G712" s="83" t="s">
-        <v>1938</v>
-      </c>
-      <c r="H712" s="89"/>
-      <c r="J712" s="83" t="s">
-        <v>1538</v>
-      </c>
-      <c r="K712" s="83" t="s">
-        <v>1919</v>
-      </c>
-      <c r="M712" s="83">
-        <v>-31</v>
-      </c>
-      <c r="N712" s="83">
-        <v>0</v>
-      </c>
-      <c r="O712" s="83">
-        <v>0</v>
-      </c>
-      <c r="P712" s="83" t="s">
-        <v>1848</v>
-      </c>
-      <c r="Q712" s="83">
-        <v>3400</v>
-      </c>
-      <c r="R712" s="83" t="s">
-        <v>1920</v>
-      </c>
-      <c r="S712" s="75" t="s">
-        <v>1921</v>
-      </c>
-      <c r="X712" s="83" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y712" s="83">
-        <v>99999999</v>
-      </c>
-      <c r="Z712" s="83">
-        <v>1636416000</v>
-      </c>
-      <c r="AA712" s="83">
-        <v>1636991999</v>
-      </c>
-      <c r="AB712" s="83">
-        <v>80</v>
-      </c>
-      <c r="AI712" s="83">
-        <v>1</v>
-      </c>
-      <c r="AJ712" s="83">
-        <v>1</v>
-      </c>
-      <c r="AM712" s="83">
-        <v>1</v>
-      </c>
-      <c r="AN712" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="713" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A713" s="83">
-        <v>712</v>
-      </c>
-      <c r="B713" s="83">
-        <v>10629</v>
-      </c>
-      <c r="F713" s="83">
-        <v>1</v>
-      </c>
-      <c r="G713" s="83" t="s">
-        <v>1911</v>
-      </c>
-      <c r="H713" s="89"/>
-      <c r="J713" s="83" t="s">
-        <v>1545</v>
-      </c>
-      <c r="K713" s="83" t="s">
-        <v>1939</v>
-      </c>
-      <c r="M713" s="83">
-        <v>-31</v>
-      </c>
-      <c r="N713" s="83">
-        <v>0</v>
-      </c>
-      <c r="O713" s="83">
-        <v>0</v>
-      </c>
-      <c r="P713" s="83" t="s">
-        <v>1848</v>
-      </c>
-      <c r="Q713" s="83">
-        <v>1800</v>
-      </c>
-      <c r="R713" s="83" t="s">
-        <v>1914</v>
-      </c>
-      <c r="S713" s="75" t="s">
-        <v>1940</v>
-      </c>
-      <c r="X713" s="83" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y713" s="83">
-        <v>99999999</v>
-      </c>
-      <c r="Z713" s="83">
-        <v>1636416000</v>
-      </c>
-      <c r="AA713" s="83">
-        <v>1636991999</v>
-      </c>
-      <c r="AB713" s="83">
-        <v>81</v>
-      </c>
-      <c r="AI713" s="83">
-        <v>1</v>
-      </c>
-      <c r="AJ713" s="83">
-        <v>1</v>
-      </c>
-      <c r="AM713" s="83">
-        <v>1</v>
-      </c>
-      <c r="AN713" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="714" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A714" s="83">
-        <v>713</v>
-      </c>
-      <c r="B714" s="83">
-        <v>10630</v>
-      </c>
-      <c r="F714" s="83">
-        <v>1</v>
-      </c>
-      <c r="G714" s="83" t="s">
-        <v>1911</v>
-      </c>
-      <c r="H714" s="89"/>
-      <c r="J714" s="83" t="s">
-        <v>1545</v>
-      </c>
-      <c r="K714" s="83" t="s">
-        <v>1922</v>
-      </c>
-      <c r="M714" s="83">
-        <v>-31</v>
-      </c>
-      <c r="N714" s="83">
-        <v>0</v>
-      </c>
-      <c r="O714" s="83">
-        <v>0</v>
-      </c>
-      <c r="P714" s="83" t="s">
-        <v>1848</v>
-      </c>
-      <c r="Q714" s="83">
-        <v>3000</v>
-      </c>
-      <c r="R714" s="83" t="s">
-        <v>1914</v>
-      </c>
-      <c r="S714" s="75" t="s">
-        <v>1923</v>
-      </c>
-      <c r="X714" s="83" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y714" s="83">
-        <v>99999999</v>
-      </c>
-      <c r="Z714" s="83">
-        <v>1636416000</v>
-      </c>
-      <c r="AA714" s="83">
-        <v>1636991999</v>
-      </c>
-      <c r="AB714" s="83">
-        <v>81</v>
-      </c>
-      <c r="AI714" s="83">
-        <v>1</v>
-      </c>
-      <c r="AJ714" s="83">
-        <v>1</v>
-      </c>
-      <c r="AM714" s="83">
-        <v>1</v>
-      </c>
-      <c r="AN714" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="715" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A715" s="83">
-        <v>714</v>
-      </c>
-      <c r="B715" s="83">
-        <v>10631</v>
-      </c>
-      <c r="F715" s="83">
-        <v>1</v>
-      </c>
-      <c r="G715" s="83" t="s">
-        <v>1911</v>
-      </c>
-      <c r="H715" s="89"/>
-      <c r="J715" s="83" t="s">
-        <v>1545</v>
-      </c>
-      <c r="K715" s="83" t="s">
-        <v>1924</v>
-      </c>
-      <c r="M715" s="83">
-        <v>-31</v>
-      </c>
-      <c r="N715" s="83">
-        <v>0</v>
-      </c>
-      <c r="O715" s="83">
-        <v>0</v>
-      </c>
-      <c r="P715" s="83" t="s">
-        <v>1848</v>
-      </c>
-      <c r="Q715" s="83">
-        <v>4800</v>
-      </c>
-      <c r="R715" s="83" t="s">
-        <v>1914</v>
-      </c>
-      <c r="S715" s="75" t="s">
-        <v>1925</v>
-      </c>
-      <c r="X715" s="83" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y715" s="83">
-        <v>99999999</v>
-      </c>
-      <c r="Z715" s="83">
-        <v>1636416000</v>
-      </c>
-      <c r="AA715" s="83">
-        <v>1636991999</v>
-      </c>
-      <c r="AB715" s="83">
-        <v>81</v>
-      </c>
-      <c r="AI715" s="83">
-        <v>1</v>
-      </c>
-      <c r="AJ715" s="83">
-        <v>1</v>
-      </c>
-      <c r="AM715" s="83">
-        <v>1</v>
-      </c>
-      <c r="AN715" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="716" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A716" s="83">
-        <v>715</v>
-      </c>
-      <c r="B716" s="83">
-        <v>10632</v>
-      </c>
-      <c r="F716" s="83">
-        <v>1</v>
-      </c>
-      <c r="G716" s="83" t="s">
-        <v>1911</v>
-      </c>
-      <c r="H716" s="89"/>
-      <c r="J716" s="83" t="s">
-        <v>1545</v>
-      </c>
-      <c r="K716" s="83" t="s">
-        <v>1926</v>
-      </c>
-      <c r="M716" s="83">
-        <v>-31</v>
-      </c>
-      <c r="N716" s="83">
-        <v>0</v>
-      </c>
-      <c r="O716" s="83">
-        <v>0</v>
-      </c>
-      <c r="P716" s="83" t="s">
-        <v>1848</v>
-      </c>
-      <c r="Q716" s="83">
-        <v>9600</v>
-      </c>
-      <c r="R716" s="83" t="s">
-        <v>1920</v>
-      </c>
-      <c r="S716" s="75" t="s">
-        <v>1941</v>
-      </c>
-      <c r="X716" s="83" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y716" s="83">
-        <v>99999999</v>
-      </c>
-      <c r="Z716" s="83">
-        <v>1636416000</v>
-      </c>
-      <c r="AA716" s="83">
-        <v>1636991999</v>
-      </c>
-      <c r="AB716" s="83">
-        <v>81</v>
-      </c>
-      <c r="AI716" s="83">
-        <v>1</v>
-      </c>
-      <c r="AJ716" s="83">
-        <v>1</v>
-      </c>
-      <c r="AM716" s="83">
-        <v>1</v>
-      </c>
-      <c r="AN716" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="717" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A717" s="83">
-        <v>716</v>
-      </c>
-      <c r="B717" s="83">
-        <v>10633</v>
-      </c>
-      <c r="F717" s="83">
-        <v>1</v>
-      </c>
-      <c r="G717" s="83" t="s">
-        <v>1911</v>
-      </c>
-      <c r="H717" s="89"/>
-      <c r="J717" s="83" t="s">
-        <v>1552</v>
-      </c>
-      <c r="K717" s="83" t="s">
-        <v>1927</v>
-      </c>
-      <c r="M717" s="83">
-        <v>-31</v>
-      </c>
-      <c r="N717" s="83">
-        <v>0</v>
-      </c>
-      <c r="O717" s="83">
-        <v>0</v>
-      </c>
-      <c r="P717" s="83" t="s">
-        <v>1848</v>
-      </c>
-      <c r="Q717" s="83">
-        <v>4800</v>
-      </c>
-      <c r="R717" s="83" t="s">
-        <v>1928</v>
-      </c>
-      <c r="S717" s="75" t="s">
-        <v>1929</v>
-      </c>
-      <c r="X717" s="83" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y717" s="83">
-        <v>99999999</v>
-      </c>
-      <c r="Z717" s="83">
-        <v>1636416000</v>
-      </c>
-      <c r="AA717" s="83">
-        <v>1636991999</v>
-      </c>
-      <c r="AB717" s="83">
-        <v>82</v>
-      </c>
-      <c r="AI717" s="83">
-        <v>1</v>
-      </c>
-      <c r="AJ717" s="83">
-        <v>1</v>
-      </c>
-      <c r="AM717" s="83">
-        <v>1</v>
-      </c>
-      <c r="AN717" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="718" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A718" s="83">
-        <v>717</v>
-      </c>
-      <c r="B718" s="83">
-        <v>10634</v>
-      </c>
-      <c r="F718" s="83">
-        <v>1</v>
-      </c>
-      <c r="G718" s="83" t="s">
-        <v>1911</v>
-      </c>
-      <c r="H718" s="89"/>
-      <c r="J718" s="83" t="s">
-        <v>1552</v>
-      </c>
-      <c r="K718" s="83" t="s">
-        <v>1930</v>
-      </c>
-      <c r="M718" s="83">
-        <v>-31</v>
-      </c>
-      <c r="N718" s="83">
-        <v>0</v>
-      </c>
-      <c r="O718" s="83">
-        <v>0</v>
-      </c>
-      <c r="P718" s="83" t="s">
-        <v>1942</v>
-      </c>
-      <c r="Q718" s="83">
-        <v>9800</v>
-      </c>
-      <c r="R718" s="83" t="s">
-        <v>1928</v>
-      </c>
-      <c r="S718" s="75" t="s">
-        <v>1931</v>
-      </c>
-      <c r="X718" s="83" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y718" s="83">
-        <v>99999999</v>
-      </c>
-      <c r="Z718" s="83">
-        <v>1636416000</v>
-      </c>
-      <c r="AA718" s="83">
-        <v>1636991999</v>
-      </c>
-      <c r="AB718" s="83">
-        <v>82</v>
-      </c>
-      <c r="AI718" s="83">
-        <v>1</v>
-      </c>
-      <c r="AJ718" s="83">
-        <v>1</v>
-      </c>
-      <c r="AM718" s="83">
-        <v>1</v>
-      </c>
-      <c r="AN718" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="719" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A719" s="83">
-        <v>718</v>
-      </c>
-      <c r="B719" s="83">
-        <v>10635</v>
-      </c>
-      <c r="F719" s="83">
-        <v>1</v>
-      </c>
-      <c r="G719" s="83" t="s">
-        <v>1938</v>
-      </c>
-      <c r="H719" s="89"/>
-      <c r="J719" s="83" t="s">
-        <v>1552</v>
-      </c>
-      <c r="K719" s="83" t="s">
-        <v>1943</v>
-      </c>
-      <c r="M719" s="83">
-        <v>-31</v>
-      </c>
-      <c r="N719" s="83">
-        <v>0</v>
-      </c>
-      <c r="O719" s="83">
-        <v>0</v>
-      </c>
-      <c r="P719" s="83" t="s">
-        <v>1942</v>
-      </c>
-      <c r="Q719" s="83">
-        <v>19800</v>
-      </c>
-      <c r="R719" s="83" t="s">
-        <v>1928</v>
-      </c>
-      <c r="S719" s="75" t="s">
-        <v>1944</v>
-      </c>
-      <c r="X719" s="83" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y719" s="83">
-        <v>99999999</v>
-      </c>
-      <c r="Z719" s="83">
-        <v>1636416000</v>
-      </c>
-      <c r="AA719" s="83">
-        <v>1636991999</v>
-      </c>
-      <c r="AB719" s="83">
-        <v>82</v>
-      </c>
-      <c r="AI719" s="83">
-        <v>1</v>
-      </c>
-      <c r="AJ719" s="83">
-        <v>1</v>
-      </c>
-      <c r="AM719" s="83">
-        <v>1</v>
-      </c>
-      <c r="AN719" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="720" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A720" s="83">
-        <v>719</v>
-      </c>
-      <c r="B720" s="83">
-        <v>10636</v>
-      </c>
-      <c r="F720" s="83">
-        <v>1</v>
-      </c>
-      <c r="G720" s="83" t="s">
-        <v>1945</v>
-      </c>
-      <c r="H720" s="89"/>
-      <c r="J720" s="83" t="s">
-        <v>1552</v>
-      </c>
-      <c r="K720" s="83" t="s">
-        <v>1946</v>
-      </c>
-      <c r="M720" s="83">
-        <v>-31</v>
-      </c>
-      <c r="N720" s="83">
-        <v>0</v>
-      </c>
-      <c r="O720" s="83">
-        <v>0</v>
-      </c>
-      <c r="P720" s="83" t="s">
-        <v>1947</v>
-      </c>
-      <c r="Q720" s="83">
-        <v>34400</v>
-      </c>
-      <c r="R720" s="83" t="s">
-        <v>1948</v>
-      </c>
-      <c r="S720" s="75" t="s">
-        <v>1949</v>
-      </c>
-      <c r="X720" s="83" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y720" s="83">
-        <v>99999999</v>
-      </c>
-      <c r="Z720" s="83">
-        <v>1636416000</v>
-      </c>
-      <c r="AA720" s="83">
-        <v>1636991999</v>
-      </c>
-      <c r="AB720" s="83">
-        <v>82</v>
-      </c>
-      <c r="AI720" s="83">
-        <v>1</v>
-      </c>
-      <c r="AJ720" s="83">
-        <v>1</v>
-      </c>
-      <c r="AM720" s="83">
-        <v>1</v>
-      </c>
-      <c r="AN720" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="721" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A721" s="83">
-        <v>720</v>
-      </c>
-      <c r="B721" s="83">
-        <v>10637</v>
-      </c>
-      <c r="F721" s="83">
-        <v>1</v>
-      </c>
-      <c r="G721" s="83" t="s">
-        <v>1945</v>
-      </c>
-      <c r="H721" s="89"/>
-      <c r="J721" s="83" t="s">
-        <v>1441</v>
-      </c>
-      <c r="K721" s="83" t="s">
-        <v>1950</v>
-      </c>
-      <c r="M721" s="83">
-        <v>-31</v>
-      </c>
-      <c r="N721" s="83">
-        <v>0</v>
-      </c>
-      <c r="O721" s="83">
-        <v>0</v>
-      </c>
-      <c r="P721" s="83" t="s">
-        <v>1951</v>
-      </c>
-      <c r="Q721" s="83">
-        <v>9800</v>
-      </c>
-      <c r="R721" s="83" t="s">
-        <v>1952</v>
-      </c>
-      <c r="S721" s="75" t="s">
-        <v>1953</v>
-      </c>
-      <c r="X721" s="83" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y721" s="83">
-        <v>99999999</v>
-      </c>
-      <c r="Z721" s="83">
-        <v>1636416000</v>
-      </c>
-      <c r="AA721" s="83">
-        <v>1636991999</v>
-      </c>
-      <c r="AB721" s="83">
+      <c r="AB724" s="88">
         <v>83</v>
       </c>
-      <c r="AI721" s="83">
-        <v>1</v>
-      </c>
-      <c r="AJ721" s="83">
-        <v>1</v>
-      </c>
-      <c r="AM721" s="83">
-        <v>1</v>
-      </c>
-      <c r="AN721" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="722" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A722" s="83">
-        <v>721</v>
-      </c>
-      <c r="B722" s="83">
-        <v>10638</v>
-      </c>
-      <c r="F722" s="83">
-        <v>1</v>
-      </c>
-      <c r="G722" s="83" t="s">
-        <v>1954</v>
-      </c>
-      <c r="H722" s="89"/>
-      <c r="J722" s="83" t="s">
-        <v>1441</v>
-      </c>
-      <c r="K722" s="83" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M722" s="83">
-        <v>-31</v>
-      </c>
-      <c r="N722" s="83">
-        <v>0</v>
-      </c>
-      <c r="O722" s="83">
-        <v>0</v>
-      </c>
-      <c r="P722" s="83" t="s">
-        <v>1947</v>
-      </c>
-      <c r="Q722" s="83">
-        <v>19800</v>
-      </c>
-      <c r="R722" s="83" t="s">
-        <v>1952</v>
-      </c>
-      <c r="S722" s="75" t="s">
-        <v>1956</v>
-      </c>
-      <c r="X722" s="83" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y722" s="83">
-        <v>99999999</v>
-      </c>
-      <c r="Z722" s="83">
-        <v>1636416000</v>
-      </c>
-      <c r="AA722" s="83">
-        <v>1636991999</v>
-      </c>
-      <c r="AB722" s="83">
-        <v>83</v>
-      </c>
-      <c r="AI722" s="83">
-        <v>1</v>
-      </c>
-      <c r="AJ722" s="83">
-        <v>1</v>
-      </c>
-      <c r="AM722" s="83">
-        <v>1</v>
-      </c>
-      <c r="AN722" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="723" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A723" s="83">
-        <v>722</v>
-      </c>
-      <c r="B723" s="83">
-        <v>10639</v>
-      </c>
-      <c r="F723" s="83">
-        <v>1</v>
-      </c>
-      <c r="G723" s="83" t="s">
-        <v>1954</v>
-      </c>
-      <c r="H723" s="89"/>
-      <c r="J723" s="83" t="s">
-        <v>1441</v>
-      </c>
-      <c r="K723" s="83" t="s">
-        <v>1957</v>
-      </c>
-      <c r="M723" s="83">
-        <v>-31</v>
-      </c>
-      <c r="N723" s="83">
-        <v>0</v>
-      </c>
-      <c r="O723" s="83">
-        <v>0</v>
-      </c>
-      <c r="P723" s="83" t="s">
-        <v>1958</v>
-      </c>
-      <c r="Q723" s="83">
-        <v>49800</v>
-      </c>
-      <c r="R723" s="83" t="s">
-        <v>1959</v>
-      </c>
-      <c r="S723" s="75" t="s">
-        <v>1960</v>
-      </c>
-      <c r="X723" s="83" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y723" s="83">
-        <v>99999999</v>
-      </c>
-      <c r="Z723" s="83">
-        <v>1636416000</v>
-      </c>
-      <c r="AA723" s="83">
-        <v>1636991999</v>
-      </c>
-      <c r="AB723" s="83">
-        <v>83</v>
-      </c>
-      <c r="AI723" s="83">
-        <v>1</v>
-      </c>
-      <c r="AJ723" s="83">
-        <v>1</v>
-      </c>
-      <c r="AM723" s="83">
-        <v>1</v>
-      </c>
-      <c r="AN723" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="724" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A724" s="83">
-        <v>723</v>
-      </c>
-      <c r="B724" s="83">
-        <v>10640</v>
-      </c>
-      <c r="F724" s="83">
-        <v>1</v>
-      </c>
-      <c r="G724" s="83" t="s">
-        <v>1961</v>
-      </c>
-      <c r="H724" s="89"/>
-      <c r="J724" s="83" t="s">
-        <v>1441</v>
-      </c>
-      <c r="K724" s="83" t="s">
-        <v>1962</v>
-      </c>
-      <c r="M724" s="83">
-        <v>-31</v>
-      </c>
-      <c r="N724" s="83">
-        <v>0</v>
-      </c>
-      <c r="O724" s="83">
-        <v>0</v>
-      </c>
-      <c r="P724" s="83" t="s">
-        <v>1958</v>
-      </c>
-      <c r="Q724" s="83">
-        <v>79400</v>
-      </c>
-      <c r="R724" s="83" t="s">
-        <v>1963</v>
-      </c>
-      <c r="S724" s="75" t="s">
-        <v>1964</v>
-      </c>
-      <c r="X724" s="83" t="s">
-        <v>1965</v>
-      </c>
-      <c r="Y724" s="83">
-        <v>99999999</v>
-      </c>
-      <c r="Z724" s="83">
-        <v>1636416000</v>
-      </c>
-      <c r="AA724" s="83">
-        <v>1636991999</v>
-      </c>
-      <c r="AB724" s="83">
-        <v>83</v>
-      </c>
-      <c r="AI724" s="83">
-        <v>1</v>
-      </c>
-      <c r="AJ724" s="83">
-        <v>1</v>
-      </c>
-      <c r="AM724" s="83">
-        <v>1</v>
-      </c>
-      <c r="AN724" s="83">
+      <c r="AI724" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ724" s="88">
+        <v>1</v>
+      </c>
+      <c r="AM724" s="88">
+        <v>1</v>
+      </c>
+      <c r="AN724" s="88">
         <v>1</v>
       </c>
     </row>
@@ -66349,7 +66325,7 @@
         <v>1</v>
       </c>
       <c r="G725" s="31" t="s">
-        <v>1932</v>
+        <v>1925</v>
       </c>
       <c r="M725" s="31">
         <v>-31</v>
@@ -66361,14 +66337,14 @@
         <v>0</v>
       </c>
       <c r="P725" s="31" t="s">
-        <v>1933</v>
+        <v>1926</v>
       </c>
       <c r="Q725" s="31">
         <v>3000</v>
       </c>
       <c r="S725" s="56"/>
       <c r="X725" s="31" t="s">
-        <v>1934</v>
+        <v>1927</v>
       </c>
       <c r="Y725" s="31">
         <v>99999999</v>
@@ -66406,16 +66382,16 @@
         <v>0</v>
       </c>
       <c r="G726" s="31" t="s">
-        <v>1966</v>
+        <v>1940</v>
       </c>
       <c r="H726" s="90" t="s">
-        <v>1967</v>
+        <v>1941</v>
       </c>
       <c r="J726" s="21" t="s">
         <v>1545</v>
       </c>
       <c r="K726" s="31" t="s">
-        <v>1968</v>
+        <v>1942</v>
       </c>
       <c r="M726" s="31">
         <v>-31</v>
@@ -66433,10 +66409,10 @@
         <v>1800</v>
       </c>
       <c r="R726" s="31" t="s">
-        <v>1969</v>
+        <v>1943</v>
       </c>
       <c r="S726" s="56" t="s">
-        <v>1970</v>
+        <v>1944</v>
       </c>
       <c r="X726" s="31" t="s">
         <v>1910</v>
@@ -66477,14 +66453,14 @@
         <v>0</v>
       </c>
       <c r="G727" s="31" t="s">
-        <v>1971</v>
+        <v>1945</v>
       </c>
       <c r="H727" s="90"/>
       <c r="J727" s="21" t="s">
         <v>1545</v>
       </c>
       <c r="K727" s="31" t="s">
-        <v>1972</v>
+        <v>1946</v>
       </c>
       <c r="M727" s="31">
         <v>-31</v>
@@ -66502,13 +66478,13 @@
         <v>3000</v>
       </c>
       <c r="R727" s="31" t="s">
-        <v>1973</v>
+        <v>1947</v>
       </c>
       <c r="S727" s="56" t="s">
-        <v>1974</v>
+        <v>1948</v>
       </c>
       <c r="X727" s="31" t="s">
-        <v>1975</v>
+        <v>1949</v>
       </c>
       <c r="Y727" s="31">
         <v>99999999</v>
@@ -66546,14 +66522,14 @@
         <v>0</v>
       </c>
       <c r="G728" s="31" t="s">
-        <v>1966</v>
+        <v>1940</v>
       </c>
       <c r="H728" s="90"/>
       <c r="J728" s="21" t="s">
         <v>1545</v>
       </c>
       <c r="K728" s="31" t="s">
-        <v>1976</v>
+        <v>1950</v>
       </c>
       <c r="M728" s="31">
         <v>-31</v>
@@ -66571,10 +66547,10 @@
         <v>4800</v>
       </c>
       <c r="R728" s="31" t="s">
-        <v>1977</v>
+        <v>1951</v>
       </c>
       <c r="S728" s="56" t="s">
-        <v>1978</v>
+        <v>1952</v>
       </c>
       <c r="X728" s="31" t="s">
         <v>479</v>
@@ -66615,14 +66591,14 @@
         <v>0</v>
       </c>
       <c r="G729" s="31" t="s">
-        <v>1971</v>
+        <v>1945</v>
       </c>
       <c r="H729" s="90"/>
       <c r="J729" s="21" t="s">
         <v>1545</v>
       </c>
       <c r="K729" s="31" t="s">
-        <v>1979</v>
+        <v>1953</v>
       </c>
       <c r="M729" s="31">
         <v>-31</v>
@@ -66634,16 +66610,16 @@
         <v>0</v>
       </c>
       <c r="P729" s="31" t="s">
-        <v>1980</v>
+        <v>1954</v>
       </c>
       <c r="Q729" s="31">
         <v>9600</v>
       </c>
       <c r="R729" s="31" t="s">
-        <v>1982</v>
+        <v>1956</v>
       </c>
       <c r="S729" s="56" t="s">
-        <v>1983</v>
+        <v>1957</v>
       </c>
       <c r="X729" s="31" t="s">
         <v>479</v>
@@ -66684,14 +66660,14 @@
         <v>0</v>
       </c>
       <c r="G730" s="31" t="s">
-        <v>1966</v>
+        <v>1940</v>
       </c>
       <c r="H730" s="90"/>
       <c r="J730" s="21" t="s">
         <v>1552</v>
       </c>
       <c r="K730" s="31" t="s">
-        <v>1984</v>
+        <v>1958</v>
       </c>
       <c r="M730" s="31">
         <v>-31</v>
@@ -66703,16 +66679,16 @@
         <v>0</v>
       </c>
       <c r="P730" s="31" t="s">
-        <v>1980</v>
+        <v>1954</v>
       </c>
       <c r="Q730" s="31">
         <v>4800</v>
       </c>
       <c r="R730" s="31" t="s">
-        <v>1977</v>
+        <v>1951</v>
       </c>
       <c r="S730" s="56" t="s">
-        <v>1985</v>
+        <v>1959</v>
       </c>
       <c r="X730" s="31" t="s">
         <v>479</v>
@@ -66753,14 +66729,14 @@
         <v>0</v>
       </c>
       <c r="G731" s="31" t="s">
-        <v>1966</v>
+        <v>1940</v>
       </c>
       <c r="H731" s="90"/>
       <c r="J731" s="21" t="s">
         <v>1552</v>
       </c>
       <c r="K731" s="31" t="s">
-        <v>1986</v>
+        <v>1960</v>
       </c>
       <c r="M731" s="31">
         <v>-31</v>
@@ -66772,16 +66748,16 @@
         <v>0</v>
       </c>
       <c r="P731" s="31" t="s">
-        <v>1980</v>
+        <v>1954</v>
       </c>
       <c r="Q731" s="31">
         <v>9800</v>
       </c>
       <c r="R731" s="31" t="s">
-        <v>1977</v>
+        <v>1951</v>
       </c>
       <c r="S731" s="56" t="s">
-        <v>1987</v>
+        <v>1961</v>
       </c>
       <c r="X731" s="31" t="s">
         <v>479</v>
@@ -66822,14 +66798,14 @@
         <v>0</v>
       </c>
       <c r="G732" s="31" t="s">
-        <v>1971</v>
+        <v>1945</v>
       </c>
       <c r="H732" s="90"/>
       <c r="J732" s="21" t="s">
         <v>1552</v>
       </c>
       <c r="K732" s="31" t="s">
-        <v>1988</v>
+        <v>1962</v>
       </c>
       <c r="M732" s="31">
         <v>-31</v>
@@ -66841,16 +66817,16 @@
         <v>0</v>
       </c>
       <c r="P732" s="31" t="s">
-        <v>1980</v>
+        <v>1954</v>
       </c>
       <c r="Q732" s="31">
         <v>19800</v>
       </c>
       <c r="R732" s="31" t="s">
-        <v>1977</v>
+        <v>1951</v>
       </c>
       <c r="S732" s="56" t="s">
-        <v>1989</v>
+        <v>1963</v>
       </c>
       <c r="X732" s="31" t="s">
         <v>479</v>
@@ -66891,14 +66867,14 @@
         <v>0</v>
       </c>
       <c r="G733" s="31" t="s">
-        <v>1966</v>
+        <v>1940</v>
       </c>
       <c r="H733" s="90"/>
       <c r="J733" s="21" t="s">
         <v>1552</v>
       </c>
       <c r="K733" s="31" t="s">
-        <v>1990</v>
+        <v>1964</v>
       </c>
       <c r="M733" s="31">
         <v>-31</v>
@@ -66910,16 +66886,16 @@
         <v>0</v>
       </c>
       <c r="P733" s="31" t="s">
-        <v>1980</v>
+        <v>1954</v>
       </c>
       <c r="Q733" s="31">
         <v>34400</v>
       </c>
       <c r="R733" s="31" t="s">
-        <v>1991</v>
+        <v>1965</v>
       </c>
       <c r="S733" s="56" t="s">
-        <v>1992</v>
+        <v>1966</v>
       </c>
       <c r="X733" s="31" t="s">
         <v>479</v>
@@ -66960,14 +66936,14 @@
         <v>0</v>
       </c>
       <c r="G734" s="31" t="s">
-        <v>1966</v>
+        <v>1940</v>
       </c>
       <c r="H734" s="90"/>
       <c r="J734" s="21" t="s">
         <v>1441</v>
       </c>
       <c r="K734" s="31" t="s">
-        <v>1993</v>
+        <v>1967</v>
       </c>
       <c r="M734" s="31">
         <v>-31</v>
@@ -66985,10 +66961,10 @@
         <v>9800</v>
       </c>
       <c r="R734" s="31" t="s">
-        <v>1977</v>
+        <v>1951</v>
       </c>
       <c r="S734" s="56" t="s">
-        <v>1994</v>
+        <v>1968</v>
       </c>
       <c r="X734" s="31" t="s">
         <v>479</v>
@@ -67029,14 +67005,14 @@
         <v>0</v>
       </c>
       <c r="G735" s="31" t="s">
-        <v>1971</v>
+        <v>1945</v>
       </c>
       <c r="H735" s="90"/>
       <c r="J735" s="21" t="s">
         <v>1441</v>
       </c>
       <c r="K735" s="31" t="s">
-        <v>1995</v>
+        <v>1969</v>
       </c>
       <c r="M735" s="31">
         <v>-31</v>
@@ -67048,16 +67024,16 @@
         <v>0</v>
       </c>
       <c r="P735" s="31" t="s">
-        <v>1980</v>
+        <v>1954</v>
       </c>
       <c r="Q735" s="31">
         <v>19800</v>
       </c>
       <c r="R735" s="31" t="s">
-        <v>1977</v>
+        <v>1951</v>
       </c>
       <c r="S735" s="56" t="s">
-        <v>1996</v>
+        <v>1970</v>
       </c>
       <c r="X735" s="31" t="s">
         <v>479</v>
@@ -67098,14 +67074,14 @@
         <v>0</v>
       </c>
       <c r="G736" s="31" t="s">
-        <v>1997</v>
+        <v>1971</v>
       </c>
       <c r="H736" s="90"/>
       <c r="J736" s="21" t="s">
         <v>1441</v>
       </c>
       <c r="K736" s="31" t="s">
-        <v>1998</v>
+        <v>1972</v>
       </c>
       <c r="M736" s="31">
         <v>-31</v>
@@ -67117,16 +67093,16 @@
         <v>0</v>
       </c>
       <c r="P736" s="31" t="s">
-        <v>1999</v>
+        <v>1973</v>
       </c>
       <c r="Q736" s="31">
         <v>49800</v>
       </c>
       <c r="R736" s="31" t="s">
-        <v>1977</v>
+        <v>1951</v>
       </c>
       <c r="S736" s="56" t="s">
-        <v>2000</v>
+        <v>1974</v>
       </c>
       <c r="X736" s="31" t="s">
         <v>479</v>
@@ -67167,14 +67143,14 @@
         <v>0</v>
       </c>
       <c r="G737" s="31" t="s">
-        <v>2001</v>
+        <v>1975</v>
       </c>
       <c r="H737" s="90"/>
       <c r="J737" s="21" t="s">
         <v>1441</v>
       </c>
       <c r="K737" s="31" t="s">
-        <v>2002</v>
+        <v>1976</v>
       </c>
       <c r="M737" s="31">
         <v>-31</v>
@@ -67192,10 +67168,10 @@
         <v>79400</v>
       </c>
       <c r="R737" s="31" t="s">
-        <v>1981</v>
+        <v>1955</v>
       </c>
       <c r="S737" s="56" t="s">
-        <v>2003</v>
+        <v>1977</v>
       </c>
       <c r="X737" s="31" t="s">
         <v>479</v>
@@ -67225,833 +67201,833 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:40" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A738" s="84">
+    <row r="738" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A738" s="83">
         <v>737</v>
       </c>
-      <c r="B738" s="84">
+      <c r="B738" s="83">
         <v>10654</v>
       </c>
-      <c r="F738" s="84">
-        <v>1</v>
-      </c>
-      <c r="G738" s="84" t="s">
+      <c r="F738" s="83">
+        <v>1</v>
+      </c>
+      <c r="G738" s="83" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H738" s="89" t="s">
+        <v>1979</v>
+      </c>
+      <c r="J738" s="83" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K738" s="83" t="s">
+        <v>1980</v>
+      </c>
+      <c r="M738" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N738" s="83">
+        <v>0</v>
+      </c>
+      <c r="O738" s="83">
+        <v>0</v>
+      </c>
+      <c r="P738" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q738" s="83">
+        <v>600</v>
+      </c>
+      <c r="R738" s="83" t="s">
+        <v>1981</v>
+      </c>
+      <c r="S738" s="75" t="s">
+        <v>1982</v>
+      </c>
+      <c r="X738" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y738" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z738" s="83">
+        <v>1636416000</v>
+      </c>
+      <c r="AA738" s="83">
+        <v>1637596799</v>
+      </c>
+      <c r="AB738" s="83">
+        <v>76</v>
+      </c>
+      <c r="AI738" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ738" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM738" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN738" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A739" s="83">
+        <v>738</v>
+      </c>
+      <c r="B739" s="83">
+        <v>10655</v>
+      </c>
+      <c r="F739" s="83">
+        <v>1</v>
+      </c>
+      <c r="G739" s="83" t="s">
+        <v>1983</v>
+      </c>
+      <c r="H739" s="89"/>
+      <c r="J739" s="83" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K739" s="83" t="s">
+        <v>1984</v>
+      </c>
+      <c r="M739" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N739" s="83">
+        <v>0</v>
+      </c>
+      <c r="O739" s="83">
+        <v>0</v>
+      </c>
+      <c r="P739" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q739" s="83">
+        <v>1000</v>
+      </c>
+      <c r="R739" s="83" t="s">
+        <v>1981</v>
+      </c>
+      <c r="S739" s="75" t="s">
+        <v>1985</v>
+      </c>
+      <c r="X739" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y739" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z739" s="83">
+        <v>1636416000</v>
+      </c>
+      <c r="AA739" s="83">
+        <v>1637596799</v>
+      </c>
+      <c r="AB739" s="83">
+        <v>76</v>
+      </c>
+      <c r="AI739" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ739" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM739" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN739" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A740" s="83">
+        <v>739</v>
+      </c>
+      <c r="B740" s="83">
+        <v>10656</v>
+      </c>
+      <c r="F740" s="83">
+        <v>1</v>
+      </c>
+      <c r="G740" s="83" t="s">
+        <v>1986</v>
+      </c>
+      <c r="H740" s="89"/>
+      <c r="J740" s="83" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K740" s="83" t="s">
+        <v>1987</v>
+      </c>
+      <c r="M740" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N740" s="83">
+        <v>0</v>
+      </c>
+      <c r="O740" s="83">
+        <v>0</v>
+      </c>
+      <c r="P740" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q740" s="83">
+        <v>1800</v>
+      </c>
+      <c r="R740" s="83" t="s">
+        <v>1981</v>
+      </c>
+      <c r="S740" s="75" t="s">
+        <v>1988</v>
+      </c>
+      <c r="X740" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y740" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z740" s="83">
+        <v>1636416000</v>
+      </c>
+      <c r="AA740" s="84">
+        <v>1637596799</v>
+      </c>
+      <c r="AB740" s="83">
+        <v>76</v>
+      </c>
+      <c r="AI740" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ740" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM740" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN740" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A741" s="83">
+        <v>740</v>
+      </c>
+      <c r="B741" s="83">
+        <v>10657</v>
+      </c>
+      <c r="F741" s="83">
+        <v>1</v>
+      </c>
+      <c r="G741" s="83" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H741" s="89"/>
+      <c r="J741" s="83" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K741" s="83" t="s">
+        <v>1989</v>
+      </c>
+      <c r="M741" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N741" s="83">
+        <v>0</v>
+      </c>
+      <c r="O741" s="83">
+        <v>0</v>
+      </c>
+      <c r="P741" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q741" s="83">
+        <v>1800</v>
+      </c>
+      <c r="R741" s="83" t="s">
+        <v>1981</v>
+      </c>
+      <c r="S741" s="75" t="s">
+        <v>1990</v>
+      </c>
+      <c r="X741" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y741" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z741" s="83">
+        <v>1636416000</v>
+      </c>
+      <c r="AA741" s="84">
+        <v>1637596799</v>
+      </c>
+      <c r="AB741" s="83">
+        <v>77</v>
+      </c>
+      <c r="AI741" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ741" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM741" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN741" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A742" s="83">
+        <v>741</v>
+      </c>
+      <c r="B742" s="83">
+        <v>10658</v>
+      </c>
+      <c r="F742" s="83">
+        <v>1</v>
+      </c>
+      <c r="G742" s="83" t="s">
+        <v>1986</v>
+      </c>
+      <c r="H742" s="89"/>
+      <c r="J742" s="83" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K742" s="83" t="s">
+        <v>1991</v>
+      </c>
+      <c r="M742" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N742" s="83">
+        <v>0</v>
+      </c>
+      <c r="O742" s="83">
+        <v>0</v>
+      </c>
+      <c r="P742" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q742" s="83">
+        <v>3000</v>
+      </c>
+      <c r="R742" s="83" t="s">
+        <v>1981</v>
+      </c>
+      <c r="S742" s="75" t="s">
+        <v>1992</v>
+      </c>
+      <c r="X742" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y742" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z742" s="83">
+        <v>1636416000</v>
+      </c>
+      <c r="AA742" s="84">
+        <v>1637596799</v>
+      </c>
+      <c r="AB742" s="83">
+        <v>77</v>
+      </c>
+      <c r="AI742" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ742" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM742" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN742" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A743" s="83">
+        <v>742</v>
+      </c>
+      <c r="B743" s="83">
+        <v>10659</v>
+      </c>
+      <c r="F743" s="83">
+        <v>1</v>
+      </c>
+      <c r="G743" s="83" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H743" s="89"/>
+      <c r="J743" s="83" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K743" s="83" t="s">
+        <v>1993</v>
+      </c>
+      <c r="M743" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N743" s="83">
+        <v>0</v>
+      </c>
+      <c r="O743" s="83">
+        <v>0</v>
+      </c>
+      <c r="P743" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q743" s="83">
+        <v>4800</v>
+      </c>
+      <c r="R743" s="83" t="s">
+        <v>1981</v>
+      </c>
+      <c r="S743" s="75" t="s">
+        <v>1994</v>
+      </c>
+      <c r="X743" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y743" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z743" s="83">
+        <v>1636416000</v>
+      </c>
+      <c r="AA743" s="84">
+        <v>1637596799</v>
+      </c>
+      <c r="AB743" s="83">
+        <v>77</v>
+      </c>
+      <c r="AI743" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ743" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM743" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN743" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A744" s="83">
+        <v>743</v>
+      </c>
+      <c r="B744" s="83">
+        <v>10660</v>
+      </c>
+      <c r="F744" s="83">
+        <v>1</v>
+      </c>
+      <c r="G744" s="83" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H744" s="89"/>
+      <c r="J744" s="83" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K744" s="83" t="s">
+        <v>1995</v>
+      </c>
+      <c r="M744" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N744" s="83">
+        <v>0</v>
+      </c>
+      <c r="O744" s="83">
+        <v>0</v>
+      </c>
+      <c r="P744" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q744" s="83">
+        <v>4800</v>
+      </c>
+      <c r="R744" s="83" t="s">
+        <v>1996</v>
+      </c>
+      <c r="S744" s="75" t="s">
+        <v>1997</v>
+      </c>
+      <c r="X744" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y744" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z744" s="83">
+        <v>1636416000</v>
+      </c>
+      <c r="AA744" s="84">
+        <v>1637596799</v>
+      </c>
+      <c r="AB744" s="83">
+        <v>78</v>
+      </c>
+      <c r="AI744" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ744" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM744" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN744" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A745" s="83">
+        <v>744</v>
+      </c>
+      <c r="B745" s="83">
+        <v>10661</v>
+      </c>
+      <c r="F745" s="83">
+        <v>1</v>
+      </c>
+      <c r="G745" s="83" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H745" s="89"/>
+      <c r="J745" s="83" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K745" s="83" t="s">
+        <v>1999</v>
+      </c>
+      <c r="M745" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N745" s="83">
+        <v>0</v>
+      </c>
+      <c r="O745" s="83">
+        <v>0</v>
+      </c>
+      <c r="P745" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q745" s="83">
+        <v>9800</v>
+      </c>
+      <c r="R745" s="83" t="s">
+        <v>1996</v>
+      </c>
+      <c r="S745" s="75" t="s">
+        <v>2000</v>
+      </c>
+      <c r="X745" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y745" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z745" s="83">
+        <v>1636416000</v>
+      </c>
+      <c r="AA745" s="84">
+        <v>1637596799</v>
+      </c>
+      <c r="AB745" s="83">
+        <v>78</v>
+      </c>
+      <c r="AI745" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ745" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM745" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN745" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A746" s="83">
+        <v>745</v>
+      </c>
+      <c r="B746" s="83">
+        <v>10662</v>
+      </c>
+      <c r="F746" s="83">
+        <v>1</v>
+      </c>
+      <c r="G746" s="83" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H746" s="89"/>
+      <c r="J746" s="83" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K746" s="83" t="s">
+        <v>2001</v>
+      </c>
+      <c r="M746" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N746" s="83">
+        <v>0</v>
+      </c>
+      <c r="O746" s="83">
+        <v>0</v>
+      </c>
+      <c r="P746" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q746" s="83">
+        <v>19800</v>
+      </c>
+      <c r="R746" s="83" t="s">
+        <v>2002</v>
+      </c>
+      <c r="S746" s="75" t="s">
+        <v>2003</v>
+      </c>
+      <c r="X746" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y746" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z746" s="83">
+        <v>1636416000</v>
+      </c>
+      <c r="AA746" s="84">
+        <v>1637596799</v>
+      </c>
+      <c r="AB746" s="83">
+        <v>78</v>
+      </c>
+      <c r="AI746" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ746" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM746" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN746" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A747" s="83">
+        <v>746</v>
+      </c>
+      <c r="B747" s="83">
+        <v>10663</v>
+      </c>
+      <c r="F747" s="83">
+        <v>1</v>
+      </c>
+      <c r="G747" s="83" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H747" s="89"/>
+      <c r="J747" s="83" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K747" s="83" t="s">
+        <v>1998</v>
+      </c>
+      <c r="M747" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N747" s="83">
+        <v>0</v>
+      </c>
+      <c r="O747" s="83">
+        <v>0</v>
+      </c>
+      <c r="P747" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q747" s="83">
+        <v>9800</v>
+      </c>
+      <c r="R747" s="83" t="s">
+        <v>2002</v>
+      </c>
+      <c r="S747" s="75" t="s">
+        <v>2000</v>
+      </c>
+      <c r="X747" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y747" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z747" s="83">
+        <v>1636416000</v>
+      </c>
+      <c r="AA747" s="84">
+        <v>1637596799</v>
+      </c>
+      <c r="AB747" s="83">
+        <v>79</v>
+      </c>
+      <c r="AI747" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ747" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM747" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN747" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A748" s="83">
+        <v>747</v>
+      </c>
+      <c r="B748" s="83">
+        <v>10664</v>
+      </c>
+      <c r="F748" s="83">
+        <v>1</v>
+      </c>
+      <c r="G748" s="83" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H748" s="89"/>
+      <c r="J748" s="83" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K748" s="83" t="s">
+        <v>2001</v>
+      </c>
+      <c r="M748" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N748" s="83">
+        <v>0</v>
+      </c>
+      <c r="O748" s="83">
+        <v>0</v>
+      </c>
+      <c r="P748" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q748" s="83">
+        <v>19800</v>
+      </c>
+      <c r="R748" s="83" t="s">
+        <v>2002</v>
+      </c>
+      <c r="S748" s="75" t="s">
         <v>2004</v>
       </c>
-      <c r="H738" s="89" t="s">
+      <c r="X748" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y748" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z748" s="83">
+        <v>1636416000</v>
+      </c>
+      <c r="AA748" s="84">
+        <v>1637596799</v>
+      </c>
+      <c r="AB748" s="83">
+        <v>79</v>
+      </c>
+      <c r="AI748" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ748" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM748" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN748" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A749" s="83">
+        <v>748</v>
+      </c>
+      <c r="B749" s="83">
+        <v>10665</v>
+      </c>
+      <c r="F749" s="83">
+        <v>1</v>
+      </c>
+      <c r="G749" s="83" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H749" s="89"/>
+      <c r="J749" s="83" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K749" s="83" t="s">
         <v>2005</v>
       </c>
-      <c r="J738" s="84" t="s">
-        <v>1538</v>
-      </c>
-      <c r="K738" s="84" t="s">
+      <c r="M749" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N749" s="83">
+        <v>0</v>
+      </c>
+      <c r="O749" s="83">
+        <v>0</v>
+      </c>
+      <c r="P749" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q749" s="83">
+        <v>49800</v>
+      </c>
+      <c r="R749" s="83" t="s">
+        <v>2002</v>
+      </c>
+      <c r="S749" s="75" t="s">
         <v>2006</v>
       </c>
-      <c r="M738" s="84">
-        <v>-31</v>
-      </c>
-      <c r="N738" s="84">
-        <v>0</v>
-      </c>
-      <c r="O738" s="84">
-        <v>0</v>
-      </c>
-      <c r="P738" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q738" s="84">
-        <v>600</v>
-      </c>
-      <c r="R738" s="84" t="s">
-        <v>2007</v>
-      </c>
-      <c r="S738" s="75" t="s">
-        <v>2008</v>
-      </c>
-      <c r="X738" s="84" t="s">
+      <c r="X749" s="83" t="s">
         <v>479</v>
       </c>
-      <c r="Y738" s="84">
+      <c r="Y749" s="83">
         <v>99999999</v>
       </c>
-      <c r="Z738" s="84">
+      <c r="Z749" s="83">
         <v>1636416000</v>
       </c>
-      <c r="AA738" s="84">
+      <c r="AA749" s="84">
         <v>1637596799</v>
       </c>
-      <c r="AB738" s="84">
-        <v>76</v>
-      </c>
-      <c r="AI738" s="84">
-        <v>1</v>
-      </c>
-      <c r="AJ738" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM738" s="84">
-        <v>1</v>
-      </c>
-      <c r="AN738" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="739" spans="1:40" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A739" s="84">
-        <v>738</v>
-      </c>
-      <c r="B739" s="84">
-        <v>10655</v>
-      </c>
-      <c r="F739" s="84">
-        <v>1</v>
-      </c>
-      <c r="G739" s="84" t="s">
-        <v>2009</v>
-      </c>
-      <c r="H739" s="89"/>
-      <c r="J739" s="84" t="s">
-        <v>1538</v>
-      </c>
-      <c r="K739" s="84" t="s">
-        <v>2010</v>
-      </c>
-      <c r="M739" s="84">
-        <v>-31</v>
-      </c>
-      <c r="N739" s="84">
-        <v>0</v>
-      </c>
-      <c r="O739" s="84">
-        <v>0</v>
-      </c>
-      <c r="P739" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q739" s="84">
-        <v>1000</v>
-      </c>
-      <c r="R739" s="84" t="s">
-        <v>2007</v>
-      </c>
-      <c r="S739" s="75" t="s">
-        <v>2011</v>
-      </c>
-      <c r="X739" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y739" s="84">
-        <v>99999999</v>
-      </c>
-      <c r="Z739" s="84">
-        <v>1636416000</v>
-      </c>
-      <c r="AA739" s="84">
-        <v>1637596799</v>
-      </c>
-      <c r="AB739" s="84">
-        <v>76</v>
-      </c>
-      <c r="AI739" s="84">
-        <v>1</v>
-      </c>
-      <c r="AJ739" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM739" s="84">
-        <v>1</v>
-      </c>
-      <c r="AN739" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="740" spans="1:40" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A740" s="84">
-        <v>739</v>
-      </c>
-      <c r="B740" s="84">
-        <v>10656</v>
-      </c>
-      <c r="F740" s="84">
-        <v>1</v>
-      </c>
-      <c r="G740" s="84" t="s">
-        <v>2012</v>
-      </c>
-      <c r="H740" s="89"/>
-      <c r="J740" s="84" t="s">
-        <v>1538</v>
-      </c>
-      <c r="K740" s="84" t="s">
-        <v>2013</v>
-      </c>
-      <c r="M740" s="84">
-        <v>-31</v>
-      </c>
-      <c r="N740" s="84">
-        <v>0</v>
-      </c>
-      <c r="O740" s="84">
-        <v>0</v>
-      </c>
-      <c r="P740" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q740" s="84">
-        <v>1800</v>
-      </c>
-      <c r="R740" s="84" t="s">
-        <v>2007</v>
-      </c>
-      <c r="S740" s="75" t="s">
-        <v>2014</v>
-      </c>
-      <c r="X740" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y740" s="84">
-        <v>99999999</v>
-      </c>
-      <c r="Z740" s="84">
-        <v>1636416000</v>
-      </c>
-      <c r="AA740" s="85">
-        <v>1637596799</v>
-      </c>
-      <c r="AB740" s="84">
-        <v>76</v>
-      </c>
-      <c r="AI740" s="84">
-        <v>1</v>
-      </c>
-      <c r="AJ740" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM740" s="84">
-        <v>1</v>
-      </c>
-      <c r="AN740" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="741" spans="1:40" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A741" s="84">
-        <v>740</v>
-      </c>
-      <c r="B741" s="84">
-        <v>10657</v>
-      </c>
-      <c r="F741" s="84">
-        <v>1</v>
-      </c>
-      <c r="G741" s="84" t="s">
-        <v>2004</v>
-      </c>
-      <c r="H741" s="89"/>
-      <c r="J741" s="84" t="s">
-        <v>1545</v>
-      </c>
-      <c r="K741" s="84" t="s">
-        <v>2015</v>
-      </c>
-      <c r="M741" s="84">
-        <v>-31</v>
-      </c>
-      <c r="N741" s="84">
-        <v>0</v>
-      </c>
-      <c r="O741" s="84">
-        <v>0</v>
-      </c>
-      <c r="P741" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q741" s="84">
-        <v>1800</v>
-      </c>
-      <c r="R741" s="84" t="s">
-        <v>2007</v>
-      </c>
-      <c r="S741" s="75" t="s">
-        <v>2016</v>
-      </c>
-      <c r="X741" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y741" s="84">
-        <v>99999999</v>
-      </c>
-      <c r="Z741" s="84">
-        <v>1636416000</v>
-      </c>
-      <c r="AA741" s="85">
-        <v>1637596799</v>
-      </c>
-      <c r="AB741" s="84">
-        <v>77</v>
-      </c>
-      <c r="AI741" s="84">
-        <v>1</v>
-      </c>
-      <c r="AJ741" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM741" s="84">
-        <v>1</v>
-      </c>
-      <c r="AN741" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="742" spans="1:40" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A742" s="84">
-        <v>741</v>
-      </c>
-      <c r="B742" s="84">
-        <v>10658</v>
-      </c>
-      <c r="F742" s="84">
-        <v>1</v>
-      </c>
-      <c r="G742" s="84" t="s">
-        <v>2012</v>
-      </c>
-      <c r="H742" s="89"/>
-      <c r="J742" s="84" t="s">
-        <v>1545</v>
-      </c>
-      <c r="K742" s="84" t="s">
-        <v>2017</v>
-      </c>
-      <c r="M742" s="84">
-        <v>-31</v>
-      </c>
-      <c r="N742" s="84">
-        <v>0</v>
-      </c>
-      <c r="O742" s="84">
-        <v>0</v>
-      </c>
-      <c r="P742" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q742" s="84">
-        <v>3000</v>
-      </c>
-      <c r="R742" s="84" t="s">
-        <v>2007</v>
-      </c>
-      <c r="S742" s="75" t="s">
-        <v>2018</v>
-      </c>
-      <c r="X742" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y742" s="84">
-        <v>99999999</v>
-      </c>
-      <c r="Z742" s="84">
-        <v>1636416000</v>
-      </c>
-      <c r="AA742" s="85">
-        <v>1637596799</v>
-      </c>
-      <c r="AB742" s="84">
-        <v>77</v>
-      </c>
-      <c r="AI742" s="84">
-        <v>1</v>
-      </c>
-      <c r="AJ742" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM742" s="84">
-        <v>1</v>
-      </c>
-      <c r="AN742" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="743" spans="1:40" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A743" s="84">
-        <v>742</v>
-      </c>
-      <c r="B743" s="84">
-        <v>10659</v>
-      </c>
-      <c r="F743" s="84">
-        <v>1</v>
-      </c>
-      <c r="G743" s="84" t="s">
-        <v>2004</v>
-      </c>
-      <c r="H743" s="89"/>
-      <c r="J743" s="84" t="s">
-        <v>1545</v>
-      </c>
-      <c r="K743" s="84" t="s">
-        <v>2019</v>
-      </c>
-      <c r="M743" s="84">
-        <v>-31</v>
-      </c>
-      <c r="N743" s="84">
-        <v>0</v>
-      </c>
-      <c r="O743" s="84">
-        <v>0</v>
-      </c>
-      <c r="P743" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q743" s="84">
-        <v>4800</v>
-      </c>
-      <c r="R743" s="84" t="s">
-        <v>2007</v>
-      </c>
-      <c r="S743" s="75" t="s">
-        <v>2020</v>
-      </c>
-      <c r="X743" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y743" s="84">
-        <v>99999999</v>
-      </c>
-      <c r="Z743" s="84">
-        <v>1636416000</v>
-      </c>
-      <c r="AA743" s="85">
-        <v>1637596799</v>
-      </c>
-      <c r="AB743" s="84">
-        <v>77</v>
-      </c>
-      <c r="AI743" s="84">
-        <v>1</v>
-      </c>
-      <c r="AJ743" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM743" s="84">
-        <v>1</v>
-      </c>
-      <c r="AN743" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="744" spans="1:40" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A744" s="84">
-        <v>743</v>
-      </c>
-      <c r="B744" s="84">
-        <v>10660</v>
-      </c>
-      <c r="F744" s="84">
-        <v>1</v>
-      </c>
-      <c r="G744" s="84" t="s">
-        <v>2004</v>
-      </c>
-      <c r="H744" s="89"/>
-      <c r="J744" s="84" t="s">
-        <v>1552</v>
-      </c>
-      <c r="K744" s="84" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M744" s="84">
-        <v>-31</v>
-      </c>
-      <c r="N744" s="84">
-        <v>0</v>
-      </c>
-      <c r="O744" s="84">
-        <v>0</v>
-      </c>
-      <c r="P744" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q744" s="84">
-        <v>4800</v>
-      </c>
-      <c r="R744" s="84" t="s">
-        <v>2022</v>
-      </c>
-      <c r="S744" s="75" t="s">
-        <v>2023</v>
-      </c>
-      <c r="X744" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y744" s="84">
-        <v>99999999</v>
-      </c>
-      <c r="Z744" s="84">
-        <v>1636416000</v>
-      </c>
-      <c r="AA744" s="85">
-        <v>1637596799</v>
-      </c>
-      <c r="AB744" s="84">
-        <v>78</v>
-      </c>
-      <c r="AI744" s="84">
-        <v>1</v>
-      </c>
-      <c r="AJ744" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM744" s="84">
-        <v>1</v>
-      </c>
-      <c r="AN744" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="745" spans="1:40" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A745" s="84">
-        <v>744</v>
-      </c>
-      <c r="B745" s="84">
-        <v>10661</v>
-      </c>
-      <c r="F745" s="84">
-        <v>1</v>
-      </c>
-      <c r="G745" s="84" t="s">
-        <v>2004</v>
-      </c>
-      <c r="H745" s="89"/>
-      <c r="J745" s="84" t="s">
-        <v>1552</v>
-      </c>
-      <c r="K745" s="84" t="s">
-        <v>2025</v>
-      </c>
-      <c r="M745" s="84">
-        <v>-31</v>
-      </c>
-      <c r="N745" s="84">
-        <v>0</v>
-      </c>
-      <c r="O745" s="84">
-        <v>0</v>
-      </c>
-      <c r="P745" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q745" s="84">
-        <v>9800</v>
-      </c>
-      <c r="R745" s="84" t="s">
-        <v>2022</v>
-      </c>
-      <c r="S745" s="75" t="s">
-        <v>2026</v>
-      </c>
-      <c r="X745" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y745" s="84">
-        <v>99999999</v>
-      </c>
-      <c r="Z745" s="84">
-        <v>1636416000</v>
-      </c>
-      <c r="AA745" s="85">
-        <v>1637596799</v>
-      </c>
-      <c r="AB745" s="84">
-        <v>78</v>
-      </c>
-      <c r="AI745" s="84">
-        <v>1</v>
-      </c>
-      <c r="AJ745" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM745" s="84">
-        <v>1</v>
-      </c>
-      <c r="AN745" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="746" spans="1:40" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A746" s="84">
-        <v>745</v>
-      </c>
-      <c r="B746" s="84">
-        <v>10662</v>
-      </c>
-      <c r="F746" s="84">
-        <v>1</v>
-      </c>
-      <c r="G746" s="84" t="s">
-        <v>2004</v>
-      </c>
-      <c r="H746" s="89"/>
-      <c r="J746" s="84" t="s">
-        <v>1552</v>
-      </c>
-      <c r="K746" s="84" t="s">
-        <v>2027</v>
-      </c>
-      <c r="M746" s="84">
-        <v>-31</v>
-      </c>
-      <c r="N746" s="84">
-        <v>0</v>
-      </c>
-      <c r="O746" s="84">
-        <v>0</v>
-      </c>
-      <c r="P746" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q746" s="84">
-        <v>19800</v>
-      </c>
-      <c r="R746" s="84" t="s">
-        <v>2028</v>
-      </c>
-      <c r="S746" s="75" t="s">
-        <v>2029</v>
-      </c>
-      <c r="X746" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y746" s="84">
-        <v>99999999</v>
-      </c>
-      <c r="Z746" s="84">
-        <v>1636416000</v>
-      </c>
-      <c r="AA746" s="85">
-        <v>1637596799</v>
-      </c>
-      <c r="AB746" s="84">
-        <v>78</v>
-      </c>
-      <c r="AI746" s="84">
-        <v>1</v>
-      </c>
-      <c r="AJ746" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM746" s="84">
-        <v>1</v>
-      </c>
-      <c r="AN746" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="747" spans="1:40" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A747" s="84">
-        <v>746</v>
-      </c>
-      <c r="B747" s="84">
-        <v>10663</v>
-      </c>
-      <c r="F747" s="84">
-        <v>1</v>
-      </c>
-      <c r="G747" s="84" t="s">
-        <v>2004</v>
-      </c>
-      <c r="H747" s="89"/>
-      <c r="J747" s="84" t="s">
-        <v>1441</v>
-      </c>
-      <c r="K747" s="84" t="s">
-        <v>2024</v>
-      </c>
-      <c r="M747" s="84">
-        <v>-31</v>
-      </c>
-      <c r="N747" s="84">
-        <v>0</v>
-      </c>
-      <c r="O747" s="84">
-        <v>0</v>
-      </c>
-      <c r="P747" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q747" s="84">
-        <v>9800</v>
-      </c>
-      <c r="R747" s="84" t="s">
-        <v>2028</v>
-      </c>
-      <c r="S747" s="75" t="s">
-        <v>2026</v>
-      </c>
-      <c r="X747" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y747" s="84">
-        <v>99999999</v>
-      </c>
-      <c r="Z747" s="84">
-        <v>1636416000</v>
-      </c>
-      <c r="AA747" s="85">
-        <v>1637596799</v>
-      </c>
-      <c r="AB747" s="84">
+      <c r="AB749" s="83">
         <v>79</v>
       </c>
-      <c r="AI747" s="84">
-        <v>1</v>
-      </c>
-      <c r="AJ747" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM747" s="84">
-        <v>1</v>
-      </c>
-      <c r="AN747" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="748" spans="1:40" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A748" s="84">
-        <v>747</v>
-      </c>
-      <c r="B748" s="84">
-        <v>10664</v>
-      </c>
-      <c r="F748" s="84">
-        <v>1</v>
-      </c>
-      <c r="G748" s="84" t="s">
-        <v>2004</v>
-      </c>
-      <c r="H748" s="89"/>
-      <c r="J748" s="84" t="s">
-        <v>1441</v>
-      </c>
-      <c r="K748" s="84" t="s">
-        <v>2027</v>
-      </c>
-      <c r="M748" s="84">
-        <v>-31</v>
-      </c>
-      <c r="N748" s="84">
-        <v>0</v>
-      </c>
-      <c r="O748" s="84">
-        <v>0</v>
-      </c>
-      <c r="P748" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q748" s="84">
-        <v>19800</v>
-      </c>
-      <c r="R748" s="84" t="s">
-        <v>2028</v>
-      </c>
-      <c r="S748" s="75" t="s">
-        <v>2030</v>
-      </c>
-      <c r="X748" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y748" s="84">
-        <v>99999999</v>
-      </c>
-      <c r="Z748" s="84">
-        <v>1636416000</v>
-      </c>
-      <c r="AA748" s="85">
-        <v>1637596799</v>
-      </c>
-      <c r="AB748" s="84">
-        <v>79</v>
-      </c>
-      <c r="AI748" s="84">
-        <v>1</v>
-      </c>
-      <c r="AJ748" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM748" s="84">
-        <v>1</v>
-      </c>
-      <c r="AN748" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="749" spans="1:40" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A749" s="84">
-        <v>748</v>
-      </c>
-      <c r="B749" s="84">
-        <v>10665</v>
-      </c>
-      <c r="F749" s="84">
-        <v>1</v>
-      </c>
-      <c r="G749" s="84" t="s">
-        <v>2004</v>
-      </c>
-      <c r="H749" s="89"/>
-      <c r="J749" s="84" t="s">
-        <v>1441</v>
-      </c>
-      <c r="K749" s="84" t="s">
-        <v>2031</v>
-      </c>
-      <c r="M749" s="84">
-        <v>-31</v>
-      </c>
-      <c r="N749" s="84">
-        <v>0</v>
-      </c>
-      <c r="O749" s="84">
-        <v>0</v>
-      </c>
-      <c r="P749" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q749" s="84">
-        <v>49800</v>
-      </c>
-      <c r="R749" s="84" t="s">
-        <v>2028</v>
-      </c>
-      <c r="S749" s="75" t="s">
-        <v>2032</v>
-      </c>
-      <c r="X749" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y749" s="84">
-        <v>99999999</v>
-      </c>
-      <c r="Z749" s="84">
-        <v>1636416000</v>
-      </c>
-      <c r="AA749" s="85">
-        <v>1637596799</v>
-      </c>
-      <c r="AB749" s="84">
-        <v>79</v>
-      </c>
-      <c r="AI749" s="84">
-        <v>1</v>
-      </c>
-      <c r="AJ749" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM749" s="84">
-        <v>1</v>
-      </c>
-      <c r="AN749" s="84">
+      <c r="AI749" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ749" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM749" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN749" s="83">
         <v>1</v>
       </c>
     </row>
@@ -68066,10 +68042,10 @@
         <v>1</v>
       </c>
       <c r="G750" s="31" t="s">
-        <v>2033</v>
+        <v>2007</v>
       </c>
       <c r="K750" s="31" t="s">
-        <v>2034</v>
+        <v>2008</v>
       </c>
       <c r="M750" s="31">
         <v>-31</v>
@@ -68081,19 +68057,19 @@
         <v>0</v>
       </c>
       <c r="P750" s="31" t="s">
-        <v>2035</v>
+        <v>2009</v>
       </c>
       <c r="Q750" s="31">
         <v>9800</v>
       </c>
       <c r="R750" s="31" t="s">
-        <v>2036</v>
+        <v>2010</v>
       </c>
       <c r="S750" s="56" t="s">
-        <v>2037</v>
+        <v>2011</v>
       </c>
       <c r="X750" s="31" t="s">
-        <v>2038</v>
+        <v>2012</v>
       </c>
       <c r="Y750" s="31">
         <v>99999999</v>
@@ -68131,13 +68107,13 @@
         <v>1</v>
       </c>
       <c r="G751" s="31" t="s">
-        <v>2039</v>
+        <v>2013</v>
       </c>
       <c r="J751" s="31" t="s">
-        <v>2040</v>
+        <v>2014</v>
       </c>
       <c r="K751" s="31" t="s">
-        <v>2041</v>
+        <v>2015</v>
       </c>
       <c r="M751" s="31">
         <v>-31</v>
@@ -68149,19 +68125,19 @@
         <v>0</v>
       </c>
       <c r="P751" s="31" t="s">
-        <v>1933</v>
+        <v>1926</v>
       </c>
       <c r="Q751" s="31">
         <v>4800</v>
       </c>
       <c r="R751" s="31" t="s">
-        <v>2042</v>
+        <v>2016</v>
       </c>
       <c r="S751" s="56" t="s">
-        <v>2043</v>
+        <v>2017</v>
       </c>
       <c r="X751" s="31" t="s">
-        <v>2044</v>
+        <v>2018</v>
       </c>
       <c r="Y751" s="31">
         <v>99999999</v>
@@ -68199,13 +68175,13 @@
         <v>1</v>
       </c>
       <c r="G752" s="31" t="s">
-        <v>2039</v>
+        <v>2013</v>
       </c>
       <c r="J752" s="31" t="s">
-        <v>2045</v>
+        <v>2019</v>
       </c>
       <c r="K752" s="31" t="s">
-        <v>2046</v>
+        <v>2020</v>
       </c>
       <c r="M752" s="31">
         <v>-31</v>
@@ -68217,19 +68193,19 @@
         <v>0</v>
       </c>
       <c r="P752" s="31" t="s">
-        <v>2047</v>
+        <v>2021</v>
       </c>
       <c r="Q752" s="31">
         <v>9800</v>
       </c>
       <c r="R752" s="31" t="s">
-        <v>2042</v>
+        <v>2016</v>
       </c>
       <c r="S752" s="56" t="s">
-        <v>2048</v>
+        <v>2022</v>
       </c>
       <c r="X752" s="31" t="s">
-        <v>2044</v>
+        <v>2018</v>
       </c>
       <c r="Y752" s="31">
         <v>99999999</v>
@@ -68267,13 +68243,13 @@
         <v>1</v>
       </c>
       <c r="G753" s="31" t="s">
-        <v>2039</v>
+        <v>2013</v>
       </c>
       <c r="J753" s="31" t="s">
-        <v>2049</v>
+        <v>2023</v>
       </c>
       <c r="K753" s="31" t="s">
-        <v>2050</v>
+        <v>2024</v>
       </c>
       <c r="M753" s="31">
         <v>-31</v>
@@ -68285,19 +68261,19 @@
         <v>0</v>
       </c>
       <c r="P753" s="31" t="s">
-        <v>2047</v>
+        <v>2021</v>
       </c>
       <c r="Q753" s="31">
         <v>19800</v>
       </c>
       <c r="R753" s="31" t="s">
-        <v>2051</v>
+        <v>2025</v>
       </c>
       <c r="S753" s="56" t="s">
-        <v>2052</v>
+        <v>2026</v>
       </c>
       <c r="X753" s="31" t="s">
-        <v>1935</v>
+        <v>1928</v>
       </c>
       <c r="Y753" s="31">
         <v>99999999</v>
@@ -68335,13 +68311,13 @@
         <v>1</v>
       </c>
       <c r="G754" s="31" t="s">
-        <v>2053</v>
+        <v>2027</v>
       </c>
       <c r="J754" s="31" t="s">
-        <v>2054</v>
+        <v>2028</v>
       </c>
       <c r="K754" s="31" t="s">
-        <v>2055</v>
+        <v>2029</v>
       </c>
       <c r="M754" s="31">
         <v>-31</v>
@@ -68353,19 +68329,19 @@
         <v>0</v>
       </c>
       <c r="P754" s="31" t="s">
-        <v>2056</v>
+        <v>2030</v>
       </c>
       <c r="Q754" s="31">
         <v>4800</v>
       </c>
       <c r="R754" s="31" t="s">
-        <v>2057</v>
+        <v>2031</v>
       </c>
       <c r="S754" s="56" t="s">
-        <v>2058</v>
+        <v>2032</v>
       </c>
       <c r="X754" s="31" t="s">
-        <v>2060</v>
+        <v>2034</v>
       </c>
       <c r="Y754" s="31">
         <v>99999999</v>
@@ -68400,13 +68376,13 @@
         <v>1</v>
       </c>
       <c r="G755" s="31" t="s">
-        <v>2061</v>
+        <v>2035</v>
       </c>
       <c r="J755" s="31" t="s">
-        <v>2062</v>
+        <v>2036</v>
       </c>
       <c r="K755" s="31" t="s">
-        <v>2063</v>
+        <v>2037</v>
       </c>
       <c r="M755" s="31">
         <v>-31</v>
@@ -68424,13 +68400,13 @@
         <v>9800</v>
       </c>
       <c r="R755" s="31" t="s">
-        <v>2057</v>
+        <v>2031</v>
       </c>
       <c r="S755" s="56" t="s">
-        <v>2064</v>
+        <v>2038</v>
       </c>
       <c r="X755" s="31" t="s">
-        <v>2059</v>
+        <v>2033</v>
       </c>
       <c r="Y755" s="31">
         <v>99999999</v>
@@ -68465,13 +68441,13 @@
         <v>1</v>
       </c>
       <c r="G756" s="31" t="s">
-        <v>2053</v>
+        <v>2027</v>
       </c>
       <c r="J756" s="31" t="s">
-        <v>2065</v>
+        <v>2039</v>
       </c>
       <c r="K756" s="31" t="s">
-        <v>2066</v>
+        <v>2040</v>
       </c>
       <c r="M756" s="31">
         <v>-31</v>
@@ -68483,19 +68459,19 @@
         <v>0</v>
       </c>
       <c r="P756" s="31" t="s">
-        <v>2056</v>
+        <v>2030</v>
       </c>
       <c r="Q756" s="31">
         <v>49800</v>
       </c>
       <c r="R756" s="31" t="s">
-        <v>2057</v>
+        <v>2031</v>
       </c>
       <c r="S756" s="56" t="s">
-        <v>2067</v>
+        <v>2041</v>
       </c>
       <c r="X756" s="31" t="s">
-        <v>2059</v>
+        <v>2033</v>
       </c>
       <c r="Y756" s="31">
         <v>99999999</v>
@@ -68530,13 +68506,13 @@
         <v>1</v>
       </c>
       <c r="G757" s="31" t="s">
-        <v>2102</v>
+        <v>2076</v>
       </c>
       <c r="J757" s="31" t="s">
-        <v>2103</v>
+        <v>2077</v>
       </c>
       <c r="K757" s="31" t="s">
-        <v>2104</v>
+        <v>2078</v>
       </c>
       <c r="M757" s="31">
         <v>-31</v>
@@ -68548,7 +68524,7 @@
         <v>0</v>
       </c>
       <c r="P757" s="31" t="s">
-        <v>2105</v>
+        <v>2079</v>
       </c>
       <c r="Q757" s="31">
         <v>1000</v>
@@ -68573,10 +68549,10 @@
         <v>1852</v>
       </c>
       <c r="AD757" s="31" t="s">
-        <v>2106</v>
+        <v>2080</v>
       </c>
       <c r="AE757" s="32" t="s">
-        <v>2107</v>
+        <v>2081</v>
       </c>
       <c r="AI757" s="31">
         <v>1</v>
@@ -68602,13 +68578,13 @@
         <v>1</v>
       </c>
       <c r="G758" s="31" t="s">
-        <v>2108</v>
+        <v>2082</v>
       </c>
       <c r="J758" s="31" t="s">
-        <v>2109</v>
+        <v>2083</v>
       </c>
       <c r="K758" s="31" t="s">
-        <v>2110</v>
+        <v>2084</v>
       </c>
       <c r="M758" s="31">
         <v>-31</v>
@@ -68620,14 +68596,14 @@
         <v>0</v>
       </c>
       <c r="P758" s="31" t="s">
-        <v>2105</v>
+        <v>2079</v>
       </c>
       <c r="Q758" s="31">
         <v>5000</v>
       </c>
       <c r="S758" s="56"/>
       <c r="X758" s="31" t="s">
-        <v>2111</v>
+        <v>2085</v>
       </c>
       <c r="Y758" s="31">
         <v>99999999</v>
@@ -68645,10 +68621,10 @@
         <v>1852</v>
       </c>
       <c r="AD758" s="31" t="s">
-        <v>2081</v>
+        <v>2055</v>
       </c>
       <c r="AE758" s="32" t="s">
-        <v>2112</v>
+        <v>2086</v>
       </c>
       <c r="AI758" s="31">
         <v>1</v>
@@ -68677,10 +68653,10 @@
         <v>1875</v>
       </c>
       <c r="J759" s="31" t="s">
-        <v>2082</v>
+        <v>2056</v>
       </c>
       <c r="K759" s="31" t="s">
-        <v>2113</v>
+        <v>2087</v>
       </c>
       <c r="M759" s="31">
         <v>-31</v>
@@ -68692,7 +68668,7 @@
         <v>0</v>
       </c>
       <c r="P759" s="31" t="s">
-        <v>2114</v>
+        <v>2088</v>
       </c>
       <c r="Q759" s="31">
         <v>9800</v>
@@ -68717,10 +68693,10 @@
         <v>1852</v>
       </c>
       <c r="AD759" s="31" t="s">
-        <v>2115</v>
+        <v>2089</v>
       </c>
       <c r="AE759" s="32" t="s">
-        <v>2117</v>
+        <v>2091</v>
       </c>
       <c r="AI759" s="31">
         <v>1</v>
@@ -68749,10 +68725,10 @@
         <v>1875</v>
       </c>
       <c r="J760" s="31" t="s">
-        <v>2118</v>
+        <v>2092</v>
       </c>
       <c r="K760" s="31" t="s">
-        <v>2085</v>
+        <v>2059</v>
       </c>
       <c r="M760" s="31">
         <v>-31</v>
@@ -68789,10 +68765,10 @@
         <v>1852</v>
       </c>
       <c r="AD760" s="31" t="s">
-        <v>2086</v>
+        <v>2060</v>
       </c>
       <c r="AE760" s="32" t="s">
-        <v>2120</v>
+        <v>2094</v>
       </c>
       <c r="AI760" s="31">
         <v>1</v>
@@ -68818,13 +68794,13 @@
         <v>1</v>
       </c>
       <c r="G761" s="31" t="s">
-        <v>2102</v>
+        <v>2076</v>
       </c>
       <c r="J761" s="31" t="s">
-        <v>2068</v>
+        <v>2042</v>
       </c>
       <c r="K761" s="31" t="s">
-        <v>2121</v>
+        <v>2095</v>
       </c>
       <c r="M761" s="31">
         <v>-31</v>
@@ -68836,14 +68812,14 @@
         <v>0</v>
       </c>
       <c r="P761" s="31" t="s">
-        <v>2122</v>
+        <v>2096</v>
       </c>
       <c r="Q761" s="31">
         <v>5000</v>
       </c>
       <c r="S761" s="56"/>
       <c r="X761" s="31" t="s">
-        <v>2069</v>
+        <v>2043</v>
       </c>
       <c r="Y761" s="31">
         <v>99999999</v>
@@ -68858,13 +68834,13 @@
         <v>92</v>
       </c>
       <c r="AC761" s="31" t="s">
-        <v>2123</v>
+        <v>2097</v>
       </c>
       <c r="AD761" s="31" t="s">
-        <v>2124</v>
+        <v>2098</v>
       </c>
       <c r="AE761" s="32" t="s">
-        <v>2125</v>
+        <v>2099</v>
       </c>
       <c r="AI761" s="31">
         <v>1</v>
@@ -68893,10 +68869,10 @@
         <v>1875</v>
       </c>
       <c r="J762" s="31" t="s">
-        <v>2070</v>
+        <v>2044</v>
       </c>
       <c r="K762" s="31" t="s">
-        <v>2083</v>
+        <v>2057</v>
       </c>
       <c r="M762" s="31">
         <v>-31</v>
@@ -68915,7 +68891,7 @@
       </c>
       <c r="S762" s="56"/>
       <c r="X762" s="31" t="s">
-        <v>2069</v>
+        <v>2043</v>
       </c>
       <c r="Y762" s="31">
         <v>99999999</v>
@@ -68933,10 +68909,10 @@
         <v>1852</v>
       </c>
       <c r="AD762" s="31" t="s">
-        <v>2084</v>
+        <v>2058</v>
       </c>
       <c r="AE762" s="32" t="s">
-        <v>2116</v>
+        <v>2090</v>
       </c>
       <c r="AI762" s="31">
         <v>1</v>
@@ -68962,13 +68938,13 @@
         <v>1</v>
       </c>
       <c r="G763" s="31" t="s">
-        <v>2126</v>
+        <v>2100</v>
       </c>
       <c r="J763" s="31" t="s">
-        <v>2071</v>
+        <v>2045</v>
       </c>
       <c r="K763" s="31" t="s">
-        <v>2127</v>
+        <v>2101</v>
       </c>
       <c r="M763" s="31">
         <v>-31</v>
@@ -68985,10 +68961,10 @@
       <c r="Q763" s="31">
         <v>19800</v>
       </c>
-      <c r="R763" s="86"/>
+      <c r="R763" s="85"/>
       <c r="S763" s="56"/>
       <c r="X763" s="31" t="s">
-        <v>2069</v>
+        <v>2043</v>
       </c>
       <c r="Y763" s="31">
         <v>99999999</v>
@@ -69003,13 +68979,13 @@
         <v>94</v>
       </c>
       <c r="AC763" s="31" t="s">
-        <v>2123</v>
+        <v>2097</v>
       </c>
       <c r="AD763" s="31" t="s">
-        <v>2128</v>
+        <v>2102</v>
       </c>
       <c r="AE763" s="32" t="s">
-        <v>2129</v>
+        <v>2103</v>
       </c>
       <c r="AI763" s="31">
         <v>1</v>
@@ -69035,13 +69011,13 @@
         <v>1</v>
       </c>
       <c r="G764" s="31" t="s">
-        <v>2130</v>
+        <v>2104</v>
       </c>
       <c r="J764" s="31" t="s">
-        <v>2072</v>
+        <v>2046</v>
       </c>
       <c r="K764" s="31" t="s">
-        <v>2131</v>
+        <v>2105</v>
       </c>
       <c r="M764" s="31">
         <v>-31</v>
@@ -69053,15 +69029,15 @@
         <v>0</v>
       </c>
       <c r="P764" s="31" t="s">
-        <v>2132</v>
+        <v>2106</v>
       </c>
       <c r="Q764" s="31">
         <v>29800</v>
       </c>
-      <c r="R764" s="86"/>
+      <c r="R764" s="85"/>
       <c r="S764" s="56"/>
       <c r="X764" s="31" t="s">
-        <v>2069</v>
+        <v>2043</v>
       </c>
       <c r="Y764" s="31">
         <v>99999999</v>
@@ -69076,13 +69052,13 @@
         <v>95</v>
       </c>
       <c r="AC764" s="31" t="s">
-        <v>2133</v>
+        <v>2107</v>
       </c>
       <c r="AD764" s="31" t="s">
-        <v>2134</v>
+        <v>2108</v>
       </c>
       <c r="AE764" s="32" t="s">
-        <v>2136</v>
+        <v>2110</v>
       </c>
       <c r="AI764" s="31">
         <v>1</v>
@@ -69111,10 +69087,10 @@
         <v>1875</v>
       </c>
       <c r="J765" s="31" t="s">
-        <v>2073</v>
+        <v>2047</v>
       </c>
       <c r="K765" s="31" t="s">
-        <v>2137</v>
+        <v>2111</v>
       </c>
       <c r="M765" s="31">
         <v>-31</v>
@@ -69126,14 +69102,14 @@
         <v>0</v>
       </c>
       <c r="P765" s="31" t="s">
-        <v>2122</v>
+        <v>2096</v>
       </c>
       <c r="Q765" s="31">
         <v>9800</v>
       </c>
       <c r="S765" s="56"/>
       <c r="X765" s="31" t="s">
-        <v>2069</v>
+        <v>2043</v>
       </c>
       <c r="Y765" s="31">
         <v>99999999</v>
@@ -69148,13 +69124,13 @@
         <v>92</v>
       </c>
       <c r="AC765" s="31" t="s">
-        <v>2133</v>
+        <v>2107</v>
       </c>
       <c r="AD765" s="31" t="s">
-        <v>2138</v>
+        <v>2112</v>
       </c>
       <c r="AE765" s="32" t="s">
-        <v>2116</v>
+        <v>2090</v>
       </c>
       <c r="AI765" s="31">
         <v>1</v>
@@ -69180,13 +69156,13 @@
         <v>1</v>
       </c>
       <c r="G766" s="31" t="s">
-        <v>2130</v>
+        <v>2104</v>
       </c>
       <c r="J766" s="31" t="s">
-        <v>2074</v>
+        <v>2048</v>
       </c>
       <c r="K766" s="31" t="s">
-        <v>2137</v>
+        <v>2111</v>
       </c>
       <c r="M766" s="31">
         <v>-31</v>
@@ -69198,14 +69174,14 @@
         <v>0</v>
       </c>
       <c r="P766" s="31" t="s">
-        <v>2132</v>
+        <v>2106</v>
       </c>
       <c r="Q766" s="31">
         <v>9800</v>
       </c>
       <c r="S766" s="56"/>
       <c r="X766" s="31" t="s">
-        <v>2069</v>
+        <v>2043</v>
       </c>
       <c r="Y766" s="31">
         <v>99999999</v>
@@ -69220,13 +69196,13 @@
         <v>93</v>
       </c>
       <c r="AC766" s="31" t="s">
-        <v>2133</v>
+        <v>2107</v>
       </c>
       <c r="AD766" s="31" t="s">
-        <v>2138</v>
+        <v>2112</v>
       </c>
       <c r="AE766" s="32" t="s">
-        <v>2139</v>
+        <v>2113</v>
       </c>
       <c r="AI766" s="31">
         <v>1</v>
@@ -69252,13 +69228,13 @@
         <v>1</v>
       </c>
       <c r="G767" s="31" t="s">
-        <v>2130</v>
+        <v>2104</v>
       </c>
       <c r="J767" s="31" t="s">
-        <v>2075</v>
+        <v>2049</v>
       </c>
       <c r="K767" s="31" t="s">
-        <v>2127</v>
+        <v>2101</v>
       </c>
       <c r="M767" s="31">
         <v>-31</v>
@@ -69277,7 +69253,7 @@
       </c>
       <c r="S767" s="56"/>
       <c r="X767" s="31" t="s">
-        <v>2069</v>
+        <v>2043</v>
       </c>
       <c r="Y767" s="31">
         <v>99999999</v>
@@ -69292,13 +69268,13 @@
         <v>94</v>
       </c>
       <c r="AC767" s="31" t="s">
-        <v>2123</v>
+        <v>2097</v>
       </c>
       <c r="AD767" s="31" t="s">
-        <v>2128</v>
+        <v>2102</v>
       </c>
       <c r="AE767" s="32" t="s">
-        <v>2129</v>
+        <v>2103</v>
       </c>
       <c r="AI767" s="31">
         <v>1</v>
@@ -69324,13 +69300,13 @@
         <v>1</v>
       </c>
       <c r="G768" s="31" t="s">
-        <v>2130</v>
+        <v>2104</v>
       </c>
       <c r="J768" s="31" t="s">
-        <v>2076</v>
+        <v>2050</v>
       </c>
       <c r="K768" s="31" t="s">
-        <v>2087</v>
+        <v>2061</v>
       </c>
       <c r="M768" s="31">
         <v>-31</v>
@@ -69349,7 +69325,7 @@
       </c>
       <c r="S768" s="56"/>
       <c r="X768" s="31" t="s">
-        <v>2069</v>
+        <v>2043</v>
       </c>
       <c r="Y768" s="31">
         <v>99999999</v>
@@ -69364,13 +69340,13 @@
         <v>95</v>
       </c>
       <c r="AC768" s="31" t="s">
-        <v>2133</v>
+        <v>2107</v>
       </c>
       <c r="AD768" s="31" t="s">
-        <v>2140</v>
+        <v>2114</v>
       </c>
       <c r="AE768" s="32" t="s">
-        <v>2135</v>
+        <v>2109</v>
       </c>
       <c r="AI768" s="31">
         <v>1</v>
@@ -69399,10 +69375,10 @@
         <v>1875</v>
       </c>
       <c r="J769" s="31" t="s">
-        <v>2077</v>
+        <v>2051</v>
       </c>
       <c r="K769" s="31" t="s">
-        <v>2127</v>
+        <v>2101</v>
       </c>
       <c r="M769" s="31">
         <v>-31</v>
@@ -69414,14 +69390,14 @@
         <v>0</v>
       </c>
       <c r="P769" s="31" t="s">
-        <v>2122</v>
+        <v>2096</v>
       </c>
       <c r="Q769" s="31">
         <v>19800</v>
       </c>
       <c r="S769" s="56"/>
       <c r="X769" s="31" t="s">
-        <v>2069</v>
+        <v>2043</v>
       </c>
       <c r="Y769" s="31">
         <v>99999999</v>
@@ -69436,13 +69412,13 @@
         <v>92</v>
       </c>
       <c r="AC769" s="31" t="s">
-        <v>2133</v>
+        <v>2107</v>
       </c>
       <c r="AD769" s="31" t="s">
-        <v>2128</v>
+        <v>2102</v>
       </c>
       <c r="AE769" s="32" t="s">
-        <v>2129</v>
+        <v>2103</v>
       </c>
       <c r="AI769" s="31">
         <v>1</v>
@@ -69468,13 +69444,13 @@
         <v>1</v>
       </c>
       <c r="G770" s="31" t="s">
-        <v>2126</v>
+        <v>2100</v>
       </c>
       <c r="J770" s="31" t="s">
-        <v>2078</v>
+        <v>2052</v>
       </c>
       <c r="K770" s="31" t="s">
-        <v>2127</v>
+        <v>2101</v>
       </c>
       <c r="M770" s="31">
         <v>-31</v>
@@ -69486,14 +69462,14 @@
         <v>0</v>
       </c>
       <c r="P770" s="31" t="s">
-        <v>2122</v>
+        <v>2096</v>
       </c>
       <c r="Q770" s="31">
         <v>19800</v>
       </c>
       <c r="S770" s="56"/>
       <c r="X770" s="31" t="s">
-        <v>2069</v>
+        <v>2043</v>
       </c>
       <c r="Y770" s="31">
         <v>99999999</v>
@@ -69508,13 +69484,13 @@
         <v>93</v>
       </c>
       <c r="AC770" s="31" t="s">
-        <v>2123</v>
+        <v>2097</v>
       </c>
       <c r="AD770" s="31" t="s">
-        <v>2128</v>
+        <v>2102</v>
       </c>
       <c r="AE770" s="32" t="s">
-        <v>2119</v>
+        <v>2093</v>
       </c>
       <c r="AI770" s="31">
         <v>1</v>
@@ -69540,13 +69516,13 @@
         <v>1</v>
       </c>
       <c r="G771" s="31" t="s">
-        <v>2130</v>
+        <v>2104</v>
       </c>
       <c r="J771" s="31" t="s">
-        <v>2079</v>
+        <v>2053</v>
       </c>
       <c r="K771" s="31" t="s">
-        <v>2141</v>
+        <v>2115</v>
       </c>
       <c r="M771" s="31">
         <v>-31</v>
@@ -69558,14 +69534,14 @@
         <v>0</v>
       </c>
       <c r="P771" s="31" t="s">
-        <v>2122</v>
+        <v>2096</v>
       </c>
       <c r="Q771" s="31">
         <v>49800</v>
       </c>
       <c r="S771" s="56"/>
       <c r="X771" s="31" t="s">
-        <v>2069</v>
+        <v>2043</v>
       </c>
       <c r="Y771" s="31">
         <v>99999999</v>
@@ -69580,13 +69556,13 @@
         <v>94</v>
       </c>
       <c r="AC771" s="31" t="s">
-        <v>2133</v>
+        <v>2107</v>
       </c>
       <c r="AD771" s="31" t="s">
-        <v>2142</v>
+        <v>2116</v>
       </c>
       <c r="AE771" s="32" t="s">
-        <v>2143</v>
+        <v>2117</v>
       </c>
       <c r="AI771" s="31">
         <v>1</v>
@@ -69612,13 +69588,13 @@
         <v>1</v>
       </c>
       <c r="G772" s="31" t="s">
-        <v>2130</v>
+        <v>2104</v>
       </c>
       <c r="J772" s="31" t="s">
-        <v>2080</v>
+        <v>2054</v>
       </c>
       <c r="K772" s="31" t="s">
-        <v>2141</v>
+        <v>2115</v>
       </c>
       <c r="M772" s="31">
         <v>-31</v>
@@ -69630,14 +69606,14 @@
         <v>0</v>
       </c>
       <c r="P772" s="31" t="s">
-        <v>2132</v>
+        <v>2106</v>
       </c>
       <c r="Q772" s="31">
         <v>49800</v>
       </c>
       <c r="S772" s="56"/>
       <c r="X772" s="31" t="s">
-        <v>2069</v>
+        <v>2043</v>
       </c>
       <c r="Y772" s="31">
         <v>99999999</v>
@@ -69652,13 +69628,13 @@
         <v>95</v>
       </c>
       <c r="AC772" s="31" t="s">
-        <v>2123</v>
+        <v>2097</v>
       </c>
       <c r="AD772" s="31" t="s">
-        <v>2144</v>
+        <v>2118</v>
       </c>
       <c r="AE772" s="32" t="s">
-        <v>2143</v>
+        <v>2117</v>
       </c>
       <c r="AI772" s="31">
         <v>1</v>
@@ -69684,13 +69660,13 @@
         <v>1</v>
       </c>
       <c r="G773" s="31" t="s">
-        <v>2147</v>
-      </c>
-      <c r="J773" s="88" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J773" s="87" t="s">
         <v>1538</v>
       </c>
       <c r="K773" s="31" t="s">
-        <v>2148</v>
+        <v>2122</v>
       </c>
       <c r="M773" s="31">
         <v>-31</v>
@@ -69708,13 +69684,13 @@
         <v>600</v>
       </c>
       <c r="R773" s="31" t="s">
-        <v>2149</v>
+        <v>2123</v>
       </c>
       <c r="S773" s="56" t="s">
-        <v>2150</v>
+        <v>2124</v>
       </c>
       <c r="X773" s="31" t="s">
-        <v>2151</v>
+        <v>2125</v>
       </c>
       <c r="Y773" s="31">
         <v>99999999</v>
@@ -69752,13 +69728,13 @@
         <v>1</v>
       </c>
       <c r="G774" s="31" t="s">
-        <v>2146</v>
-      </c>
-      <c r="J774" s="88" t="s">
+        <v>2120</v>
+      </c>
+      <c r="J774" s="87" t="s">
         <v>1538</v>
       </c>
       <c r="K774" s="31" t="s">
-        <v>2152</v>
+        <v>2126</v>
       </c>
       <c r="M774" s="31">
         <v>-31</v>
@@ -69770,19 +69746,19 @@
         <v>0</v>
       </c>
       <c r="P774" s="31" t="s">
-        <v>2153</v>
+        <v>2127</v>
       </c>
       <c r="Q774" s="31">
         <v>1000</v>
       </c>
       <c r="R774" s="31" t="s">
-        <v>2149</v>
+        <v>2123</v>
       </c>
       <c r="S774" s="56" t="s">
-        <v>2154</v>
+        <v>2128</v>
       </c>
       <c r="X774" s="31" t="s">
-        <v>2151</v>
+        <v>2125</v>
       </c>
       <c r="Y774" s="31">
         <v>99999999</v>
@@ -69820,13 +69796,13 @@
         <v>1</v>
       </c>
       <c r="G775" s="31" t="s">
-        <v>2147</v>
-      </c>
-      <c r="J775" s="88" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J775" s="87" t="s">
         <v>1538</v>
       </c>
       <c r="K775" s="31" t="s">
-        <v>2155</v>
+        <v>2129</v>
       </c>
       <c r="M775" s="31">
         <v>-31</v>
@@ -69838,16 +69814,16 @@
         <v>0</v>
       </c>
       <c r="P775" s="31" t="s">
-        <v>2153</v>
+        <v>2127</v>
       </c>
       <c r="Q775" s="31">
         <v>1800</v>
       </c>
       <c r="R775" s="31" t="s">
-        <v>2149</v>
+        <v>2123</v>
       </c>
       <c r="S775" s="56" t="s">
-        <v>2156</v>
+        <v>2130</v>
       </c>
       <c r="X775" s="31" t="s">
         <v>479</v>
@@ -69888,13 +69864,13 @@
         <v>1</v>
       </c>
       <c r="G776" s="31" t="s">
-        <v>2147</v>
-      </c>
-      <c r="J776" s="88" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J776" s="87" t="s">
         <v>1538</v>
       </c>
       <c r="K776" s="31" t="s">
-        <v>2157</v>
+        <v>2131</v>
       </c>
       <c r="M776" s="31">
         <v>-31</v>
@@ -69906,16 +69882,16 @@
         <v>0</v>
       </c>
       <c r="P776" s="31" t="s">
-        <v>2153</v>
+        <v>2127</v>
       </c>
       <c r="Q776" s="31">
         <v>3400</v>
       </c>
       <c r="R776" s="31" t="s">
-        <v>2158</v>
+        <v>2132</v>
       </c>
       <c r="S776" s="56" t="s">
-        <v>2159</v>
+        <v>2133</v>
       </c>
       <c r="X776" s="31" t="s">
         <v>479</v>
@@ -69956,13 +69932,13 @@
         <v>1</v>
       </c>
       <c r="G777" s="31" t="s">
-        <v>2146</v>
-      </c>
-      <c r="J777" s="88" t="s">
+        <v>2120</v>
+      </c>
+      <c r="J777" s="87" t="s">
         <v>1545</v>
       </c>
       <c r="K777" s="31" t="s">
-        <v>2160</v>
+        <v>2134</v>
       </c>
       <c r="M777" s="31">
         <v>-31</v>
@@ -69980,10 +69956,10 @@
         <v>1800</v>
       </c>
       <c r="R777" s="31" t="s">
-        <v>2161</v>
+        <v>2135</v>
       </c>
       <c r="S777" s="56" t="s">
-        <v>2162</v>
+        <v>2136</v>
       </c>
       <c r="X777" s="31" t="s">
         <v>479</v>
@@ -70024,13 +70000,13 @@
         <v>1</v>
       </c>
       <c r="G778" s="31" t="s">
-        <v>2147</v>
-      </c>
-      <c r="J778" s="88" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J778" s="87" t="s">
         <v>1545</v>
       </c>
       <c r="K778" s="31" t="s">
-        <v>2163</v>
+        <v>2137</v>
       </c>
       <c r="M778" s="31">
         <v>-31</v>
@@ -70042,16 +70018,16 @@
         <v>0</v>
       </c>
       <c r="P778" s="31" t="s">
-        <v>2153</v>
+        <v>2127</v>
       </c>
       <c r="Q778" s="31">
         <v>3000</v>
       </c>
       <c r="R778" s="31" t="s">
-        <v>2161</v>
+        <v>2135</v>
       </c>
       <c r="S778" s="56" t="s">
-        <v>2164</v>
+        <v>2138</v>
       </c>
       <c r="X778" s="31" t="s">
         <v>479</v>
@@ -70092,13 +70068,13 @@
         <v>1</v>
       </c>
       <c r="G779" s="31" t="s">
-        <v>2147</v>
-      </c>
-      <c r="J779" s="88" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J779" s="87" t="s">
         <v>1545</v>
       </c>
       <c r="K779" s="31" t="s">
-        <v>2165</v>
+        <v>2139</v>
       </c>
       <c r="M779" s="31">
         <v>-31</v>
@@ -70110,16 +70086,16 @@
         <v>0</v>
       </c>
       <c r="P779" s="31" t="s">
-        <v>2153</v>
+        <v>2127</v>
       </c>
       <c r="Q779" s="31">
         <v>4800</v>
       </c>
       <c r="R779" s="31" t="s">
-        <v>2161</v>
+        <v>2135</v>
       </c>
       <c r="S779" s="56" t="s">
-        <v>2166</v>
+        <v>2140</v>
       </c>
       <c r="X779" s="31" t="s">
         <v>479</v>
@@ -70160,13 +70136,13 @@
         <v>1</v>
       </c>
       <c r="G780" s="31" t="s">
-        <v>2147</v>
-      </c>
-      <c r="J780" s="88" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J780" s="87" t="s">
         <v>1545</v>
       </c>
       <c r="K780" s="31" t="s">
-        <v>2167</v>
+        <v>2141</v>
       </c>
       <c r="M780" s="31">
         <v>-31</v>
@@ -70178,16 +70154,16 @@
         <v>0</v>
       </c>
       <c r="P780" s="31" t="s">
-        <v>2153</v>
+        <v>2127</v>
       </c>
       <c r="Q780" s="31">
         <v>9600</v>
       </c>
       <c r="R780" s="31" t="s">
-        <v>2168</v>
+        <v>2142</v>
       </c>
       <c r="S780" s="56" t="s">
-        <v>2169</v>
+        <v>2143</v>
       </c>
       <c r="X780" s="31" t="s">
         <v>479</v>
@@ -70228,13 +70204,13 @@
         <v>1</v>
       </c>
       <c r="G781" s="31" t="s">
-        <v>2146</v>
-      </c>
-      <c r="J781" s="88" t="s">
+        <v>2120</v>
+      </c>
+      <c r="J781" s="87" t="s">
         <v>1552</v>
       </c>
       <c r="K781" s="31" t="s">
-        <v>2170</v>
+        <v>2144</v>
       </c>
       <c r="M781" s="31">
         <v>-31</v>
@@ -70246,16 +70222,16 @@
         <v>0</v>
       </c>
       <c r="P781" s="31" t="s">
-        <v>2153</v>
+        <v>2127</v>
       </c>
       <c r="Q781" s="31">
         <v>4800</v>
       </c>
       <c r="R781" s="31" t="s">
-        <v>2161</v>
+        <v>2135</v>
       </c>
       <c r="S781" s="56" t="s">
-        <v>2171</v>
+        <v>2145</v>
       </c>
       <c r="X781" s="31" t="s">
         <v>479</v>
@@ -70296,13 +70272,13 @@
         <v>1</v>
       </c>
       <c r="G782" s="31" t="s">
-        <v>2147</v>
-      </c>
-      <c r="J782" s="88" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J782" s="87" t="s">
         <v>1552</v>
       </c>
       <c r="K782" s="31" t="s">
-        <v>2172</v>
+        <v>2146</v>
       </c>
       <c r="M782" s="31">
         <v>-31</v>
@@ -70314,16 +70290,16 @@
         <v>0</v>
       </c>
       <c r="P782" s="31" t="s">
-        <v>2153</v>
+        <v>2127</v>
       </c>
       <c r="Q782" s="31">
         <v>9800</v>
       </c>
       <c r="R782" s="31" t="s">
-        <v>2161</v>
+        <v>2135</v>
       </c>
       <c r="S782" s="56" t="s">
-        <v>2173</v>
+        <v>2147</v>
       </c>
       <c r="X782" s="31" t="s">
         <v>479</v>
@@ -70364,13 +70340,13 @@
         <v>1</v>
       </c>
       <c r="G783" s="31" t="s">
-        <v>2147</v>
-      </c>
-      <c r="J783" s="88" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J783" s="87" t="s">
         <v>1552</v>
       </c>
       <c r="K783" s="31" t="s">
-        <v>2174</v>
+        <v>2148</v>
       </c>
       <c r="M783" s="31">
         <v>-31</v>
@@ -70388,10 +70364,10 @@
         <v>19800</v>
       </c>
       <c r="R783" s="31" t="s">
-        <v>2161</v>
+        <v>2135</v>
       </c>
       <c r="S783" s="56" t="s">
-        <v>2175</v>
+        <v>2149</v>
       </c>
       <c r="X783" s="31" t="s">
         <v>479</v>
@@ -70432,13 +70408,13 @@
         <v>1</v>
       </c>
       <c r="G784" s="31" t="s">
-        <v>2147</v>
-      </c>
-      <c r="J784" s="88" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J784" s="87" t="s">
         <v>1552</v>
       </c>
       <c r="K784" s="31" t="s">
-        <v>2176</v>
+        <v>2150</v>
       </c>
       <c r="M784" s="31">
         <v>-31</v>
@@ -70450,16 +70426,16 @@
         <v>0</v>
       </c>
       <c r="P784" s="31" t="s">
-        <v>2153</v>
+        <v>2127</v>
       </c>
       <c r="Q784" s="31">
         <v>34400</v>
       </c>
       <c r="R784" s="31" t="s">
-        <v>2168</v>
+        <v>2142</v>
       </c>
       <c r="S784" s="56" t="s">
-        <v>2177</v>
+        <v>2151</v>
       </c>
       <c r="X784" s="31" t="s">
         <v>479</v>
@@ -70500,13 +70476,13 @@
         <v>1</v>
       </c>
       <c r="G785" s="31" t="s">
-        <v>2147</v>
-      </c>
-      <c r="J785" s="88" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J785" s="87" t="s">
         <v>1441</v>
       </c>
       <c r="K785" s="31" t="s">
-        <v>2178</v>
+        <v>2152</v>
       </c>
       <c r="M785" s="31">
         <v>-31</v>
@@ -70518,16 +70494,16 @@
         <v>0</v>
       </c>
       <c r="P785" s="31" t="s">
-        <v>2153</v>
+        <v>2127</v>
       </c>
       <c r="Q785" s="31">
         <v>9800</v>
       </c>
       <c r="R785" s="31" t="s">
-        <v>2179</v>
+        <v>2153</v>
       </c>
       <c r="S785" s="56" t="s">
-        <v>2180</v>
+        <v>2154</v>
       </c>
       <c r="X785" s="31" t="s">
         <v>479</v>
@@ -70568,13 +70544,13 @@
         <v>1</v>
       </c>
       <c r="G786" s="31" t="s">
-        <v>2147</v>
-      </c>
-      <c r="J786" s="88" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J786" s="87" t="s">
         <v>1441</v>
       </c>
       <c r="K786" s="31" t="s">
-        <v>2181</v>
+        <v>2155</v>
       </c>
       <c r="M786" s="31">
         <v>-31</v>
@@ -70586,16 +70562,16 @@
         <v>0</v>
       </c>
       <c r="P786" s="31" t="s">
-        <v>2153</v>
+        <v>2127</v>
       </c>
       <c r="Q786" s="31">
         <v>19800</v>
       </c>
       <c r="R786" s="31" t="s">
-        <v>2179</v>
+        <v>2153</v>
       </c>
       <c r="S786" s="56" t="s">
-        <v>2182</v>
+        <v>2156</v>
       </c>
       <c r="X786" s="31" t="s">
         <v>479</v>
@@ -70636,13 +70612,13 @@
         <v>1</v>
       </c>
       <c r="G787" s="31" t="s">
-        <v>2146</v>
-      </c>
-      <c r="J787" s="88" t="s">
+        <v>2120</v>
+      </c>
+      <c r="J787" s="87" t="s">
         <v>1441</v>
       </c>
       <c r="K787" s="31" t="s">
-        <v>2183</v>
+        <v>2157</v>
       </c>
       <c r="M787" s="31">
         <v>-31</v>
@@ -70654,16 +70630,16 @@
         <v>0</v>
       </c>
       <c r="P787" s="31" t="s">
-        <v>2153</v>
+        <v>2127</v>
       </c>
       <c r="Q787" s="31">
         <v>49800</v>
       </c>
       <c r="R787" s="31" t="s">
-        <v>2179</v>
+        <v>2153</v>
       </c>
       <c r="S787" s="56" t="s">
-        <v>2184</v>
+        <v>2158</v>
       </c>
       <c r="X787" s="31" t="s">
         <v>479</v>
@@ -70704,13 +70680,13 @@
         <v>1</v>
       </c>
       <c r="G788" s="31" t="s">
-        <v>2147</v>
-      </c>
-      <c r="J788" s="88" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J788" s="87" t="s">
         <v>1441</v>
       </c>
       <c r="K788" s="31" t="s">
-        <v>2185</v>
+        <v>2159</v>
       </c>
       <c r="M788" s="31">
         <v>-31</v>
@@ -70722,16 +70698,16 @@
         <v>0</v>
       </c>
       <c r="P788" s="31" t="s">
-        <v>2153</v>
+        <v>2127</v>
       </c>
       <c r="Q788" s="31">
         <v>79400</v>
       </c>
       <c r="R788" s="31" t="s">
-        <v>2186</v>
+        <v>2160</v>
       </c>
       <c r="S788" s="56" t="s">
-        <v>2187</v>
+        <v>2161</v>
       </c>
       <c r="X788" s="31" t="s">
         <v>479</v>
@@ -72020,7 +71996,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="74" t="s">
-        <v>2088</v>
+        <v>2062</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -72034,7 +72010,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="74" t="s">
-        <v>2089</v>
+        <v>2063</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -72048,7 +72024,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="74" t="s">
-        <v>2090</v>
+        <v>2064</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -72062,7 +72038,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="74" t="s">
-        <v>2091</v>
+        <v>2065</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -72076,7 +72052,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="74" t="s">
-        <v>2092</v>
+        <v>2066</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -72090,7 +72066,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="74" t="s">
-        <v>2093</v>
+        <v>2067</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -72104,7 +72080,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="74" t="s">
-        <v>2094</v>
+        <v>2068</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -72118,7 +72094,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="74" t="s">
-        <v>2095</v>
+        <v>2069</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -72132,7 +72108,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="74" t="s">
-        <v>2096</v>
+        <v>2070</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -72146,7 +72122,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="74" t="s">
-        <v>2097</v>
+        <v>2071</v>
       </c>
       <c r="C96">
         <v>1</v>

--- a/config_12.21/shoping_config_cjj.xlsx
+++ b/config_12.21/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6159" uniqueCount="2182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6159" uniqueCount="2184">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7359,14 +7359,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>一键礼包类型</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","稀有宝箱*1","狂暴*1","子弹加速*1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7379,38 +7371,14 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"180万金币","稀有宝箱*3","狂暴*3","子弹加速*3",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>1800000,3,3,3,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>3400000,6,6,6,200000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000,1,4,4,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","稀有宝箱*2","狂暴*5","子弹加速*5",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"960万金币","稀有宝箱*4","狂暴*12","子弹加速*12","30万鱼币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"980万金币","史诗宝箱*2","狂暴*6","子弹加速*6",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>9800000,2,6,6,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7431,22 +7399,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"1980万金币","史诗宝箱*3","狂暴*7","子弹加速*7",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3440万金币","史诗宝箱*6","狂暴*18","子弹加速*18","100万鱼币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>34400000,6,18,18,1000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"980万金币","传说宝箱*1","狂暴*8","子弹加速*8",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7464,10 +7420,6 @@
   </si>
   <si>
     <t>"7940万金币","传说宝箱*8","狂暴*27","子弹加速*27","200万鱼币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -8372,6 +8324,54 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>1000000,2,2,2,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"340万金币","稀有宝箱*6","狂暴*6","子弹加速*6","20万鱼币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","稀有宝箱*1","狂暴*4","子弹加速*4",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,2,5,5,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","史诗宝箱*1","狂暴*5","子弹加速*5",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,3,7,7,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,2,9,9,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","传说宝箱*5","狂暴*10","子弹加速*10",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键礼包类型</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","稀有宝箱*1","狂暴*1","子弹加速*1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8380,75 +8380,83 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>"180万金币","稀有宝箱*3","狂暴*3","子弹加速*3",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3400000,6,6,6,200000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","稀有宝箱*1","狂暴*3","子弹加速*3",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,1,3,3,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,1,4,4,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","稀有宝箱*2","狂暴*5","子弹加速*5",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"960万金币","稀有宝箱*4","狂暴*12","子弹加速*12","30万鱼币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>gift_bag</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>1000000,2,2,2,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"340万金币","稀有宝箱*6","狂暴*6","子弹加速*6","20万鱼币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"180万金币","稀有宝箱*1","狂暴*3","子弹加速*3",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,1,3,3,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"300万金币","稀有宝箱*1","狂暴*4","子弹加速*4",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,2,5,5,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>9600000,4,12,12,300000,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"480万金币","史诗宝箱*1","狂暴*5","子弹加速*5",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>4800000,1,5,5,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <t>"980万金币","史诗宝箱*2","狂暴*6","子弹加速*6",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>19800000,3,7,7,</t>
+    <t>"1980万金币","史诗宝箱*3","狂暴*7","子弹加速*7",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>19800000,2,9,9,</t>
+    <t>"3440万金币","史诗宝箱*6","狂暴*18","子弹加速*18","100万鱼币",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"4980万金币","传说宝箱*5","狂暴*10","子弹加速*10",</t>
+    <t>34400000,6,18,18,1000000,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>49800000,5,10,10,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -62588,7 +62596,7 @@
         <v>1</v>
       </c>
       <c r="G671" s="86" t="s">
-        <v>2119</v>
+        <v>2107</v>
       </c>
       <c r="H671" s="86" t="s">
         <v>1872</v>
@@ -62597,7 +62605,7 @@
         <v>1538</v>
       </c>
       <c r="K671" s="86" t="s">
-        <v>2072</v>
+        <v>2060</v>
       </c>
       <c r="M671" s="86">
         <v>-31</v>
@@ -62615,7 +62623,7 @@
         <v>600</v>
       </c>
       <c r="R671" s="86" t="s">
-        <v>2073</v>
+        <v>2061</v>
       </c>
       <c r="S671" s="75" t="s">
         <v>1560</v>
@@ -62659,7 +62667,7 @@
         <v>1</v>
       </c>
       <c r="G672" s="86" t="s">
-        <v>2119</v>
+        <v>2107</v>
       </c>
       <c r="H672" s="86" t="s">
         <v>1872</v>
@@ -62668,7 +62676,7 @@
         <v>1538</v>
       </c>
       <c r="K672" s="86" t="s">
-        <v>2074</v>
+        <v>2062</v>
       </c>
       <c r="M672" s="86">
         <v>-31</v>
@@ -62686,7 +62694,7 @@
         <v>1000</v>
       </c>
       <c r="R672" s="86" t="s">
-        <v>2073</v>
+        <v>2061</v>
       </c>
       <c r="S672" s="75" t="s">
         <v>1562</v>
@@ -62730,7 +62738,7 @@
         <v>1</v>
       </c>
       <c r="G673" s="86" t="s">
-        <v>2119</v>
+        <v>2107</v>
       </c>
       <c r="H673" s="86" t="s">
         <v>1872</v>
@@ -62739,7 +62747,7 @@
         <v>1538</v>
       </c>
       <c r="K673" s="86" t="s">
-        <v>2075</v>
+        <v>2063</v>
       </c>
       <c r="M673" s="86">
         <v>-31</v>
@@ -62757,7 +62765,7 @@
         <v>1800</v>
       </c>
       <c r="R673" s="86" t="s">
-        <v>2073</v>
+        <v>2061</v>
       </c>
       <c r="S673" s="75" t="s">
         <v>1564</v>
@@ -62801,7 +62809,7 @@
         <v>1</v>
       </c>
       <c r="G674" s="86" t="s">
-        <v>2119</v>
+        <v>2107</v>
       </c>
       <c r="H674" s="86" t="s">
         <v>1872</v>
@@ -62828,7 +62836,7 @@
         <v>1800</v>
       </c>
       <c r="R674" s="86" t="s">
-        <v>2073</v>
+        <v>2061</v>
       </c>
       <c r="S674" s="75" t="s">
         <v>1547</v>
@@ -62872,7 +62880,7 @@
         <v>1</v>
       </c>
       <c r="G675" s="86" t="s">
-        <v>2119</v>
+        <v>2107</v>
       </c>
       <c r="H675" s="86" t="s">
         <v>1872</v>
@@ -62899,7 +62907,7 @@
         <v>3000</v>
       </c>
       <c r="R675" s="86" t="s">
-        <v>2073</v>
+        <v>2061</v>
       </c>
       <c r="S675" s="75" t="s">
         <v>1549</v>
@@ -62943,7 +62951,7 @@
         <v>1</v>
       </c>
       <c r="G676" s="86" t="s">
-        <v>2119</v>
+        <v>2107</v>
       </c>
       <c r="H676" s="86" t="s">
         <v>1872</v>
@@ -62970,7 +62978,7 @@
         <v>4800</v>
       </c>
       <c r="R676" s="86" t="s">
-        <v>2073</v>
+        <v>2061</v>
       </c>
       <c r="S676" s="75" t="s">
         <v>1551</v>
@@ -63014,7 +63022,7 @@
         <v>1</v>
       </c>
       <c r="G677" s="86" t="s">
-        <v>2119</v>
+        <v>2107</v>
       </c>
       <c r="H677" s="86" t="s">
         <v>1872</v>
@@ -63041,7 +63049,7 @@
         <v>4800</v>
       </c>
       <c r="R677" s="86" t="s">
-        <v>2073</v>
+        <v>2061</v>
       </c>
       <c r="S677" s="75" t="s">
         <v>1551</v>
@@ -63085,7 +63093,7 @@
         <v>1</v>
       </c>
       <c r="G678" s="86" t="s">
-        <v>2119</v>
+        <v>2107</v>
       </c>
       <c r="H678" s="86" t="s">
         <v>1872</v>
@@ -63112,7 +63120,7 @@
         <v>9800</v>
       </c>
       <c r="R678" s="86" t="s">
-        <v>2073</v>
+        <v>2061</v>
       </c>
       <c r="S678" s="75" t="s">
         <v>1554</v>
@@ -63156,7 +63164,7 @@
         <v>1</v>
       </c>
       <c r="G679" s="86" t="s">
-        <v>2119</v>
+        <v>2107</v>
       </c>
       <c r="H679" s="86" t="s">
         <v>1872</v>
@@ -63183,7 +63191,7 @@
         <v>19800</v>
       </c>
       <c r="R679" s="86" t="s">
-        <v>2073</v>
+        <v>2061</v>
       </c>
       <c r="S679" s="75" t="s">
         <v>1556</v>
@@ -63227,7 +63235,7 @@
         <v>1</v>
       </c>
       <c r="G680" s="86" t="s">
-        <v>2119</v>
+        <v>2107</v>
       </c>
       <c r="H680" s="86" t="s">
         <v>1872</v>
@@ -63254,7 +63262,7 @@
         <v>9800</v>
       </c>
       <c r="R680" s="86" t="s">
-        <v>2073</v>
+        <v>2061</v>
       </c>
       <c r="S680" s="75" t="s">
         <v>1554</v>
@@ -63298,7 +63306,7 @@
         <v>1</v>
       </c>
       <c r="G681" s="86" t="s">
-        <v>2119</v>
+        <v>2107</v>
       </c>
       <c r="H681" s="86" t="s">
         <v>1872</v>
@@ -63325,7 +63333,7 @@
         <v>19800</v>
       </c>
       <c r="R681" s="86" t="s">
-        <v>2073</v>
+        <v>2061</v>
       </c>
       <c r="S681" s="75" t="s">
         <v>1556</v>
@@ -63369,7 +63377,7 @@
         <v>1</v>
       </c>
       <c r="G682" s="86" t="s">
-        <v>2119</v>
+        <v>2107</v>
       </c>
       <c r="H682" s="86" t="s">
         <v>1872</v>
@@ -63396,7 +63404,7 @@
         <v>49800</v>
       </c>
       <c r="R682" s="86" t="s">
-        <v>2073</v>
+        <v>2061</v>
       </c>
       <c r="S682" s="75" t="s">
         <v>1558</v>
@@ -65222,13 +65230,13 @@
         <v>176</v>
       </c>
       <c r="H709" s="89" t="s">
-        <v>1911</v>
+        <v>2159</v>
       </c>
       <c r="J709" s="88" t="s">
         <v>1538</v>
       </c>
       <c r="K709" s="88" t="s">
-        <v>1912</v>
+        <v>2160</v>
       </c>
       <c r="M709" s="88">
         <v>-31</v>
@@ -65240,7 +65248,7 @@
         <v>0</v>
       </c>
       <c r="P709" s="88" t="s">
-        <v>1866</v>
+        <v>2161</v>
       </c>
       <c r="Q709" s="88">
         <v>600</v>
@@ -65249,7 +65257,7 @@
         <v>2162</v>
       </c>
       <c r="S709" s="75" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="X709" s="88" t="s">
         <v>2163</v>
@@ -65258,10 +65266,10 @@
         <v>99999999</v>
       </c>
       <c r="Z709" s="88">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA709" s="88">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB709" s="88">
         <v>80</v>
@@ -65297,7 +65305,7 @@
         <v>1538</v>
       </c>
       <c r="K710" s="88" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="M710" s="88">
         <v>-31</v>
@@ -65309,28 +65317,28 @@
         <v>0</v>
       </c>
       <c r="P710" s="88" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="Q710" s="88">
         <v>1000</v>
       </c>
       <c r="R710" s="88" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="S710" s="75" t="s">
-        <v>2165</v>
+        <v>2150</v>
       </c>
       <c r="X710" s="88" t="s">
-        <v>2163</v>
+        <v>1920</v>
       </c>
       <c r="Y710" s="88">
         <v>99999999</v>
       </c>
       <c r="Z710" s="88">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA710" s="88">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB710" s="88">
         <v>80</v>
@@ -65366,7 +65374,7 @@
         <v>1538</v>
       </c>
       <c r="K711" s="88" t="s">
-        <v>1916</v>
+        <v>2164</v>
       </c>
       <c r="M711" s="88">
         <v>-31</v>
@@ -65378,16 +65386,16 @@
         <v>0</v>
       </c>
       <c r="P711" s="88" t="s">
-        <v>2164</v>
+        <v>1848</v>
       </c>
       <c r="Q711" s="88">
         <v>1800</v>
       </c>
       <c r="R711" s="88" t="s">
-        <v>1913</v>
+        <v>2165</v>
       </c>
       <c r="S711" s="75" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="X711" s="88" t="s">
         <v>479</v>
@@ -65396,10 +65404,10 @@
         <v>99999999</v>
       </c>
       <c r="Z711" s="88">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA711" s="88">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB711" s="88">
         <v>80</v>
@@ -65435,7 +65443,7 @@
         <v>1538</v>
       </c>
       <c r="K712" s="88" t="s">
-        <v>2166</v>
+        <v>2151</v>
       </c>
       <c r="M712" s="88">
         <v>-31</v>
@@ -65447,16 +65455,16 @@
         <v>0</v>
       </c>
       <c r="P712" s="88" t="s">
-        <v>2164</v>
+        <v>1848</v>
       </c>
       <c r="Q712" s="88">
         <v>3400</v>
       </c>
       <c r="R712" s="88" t="s">
-        <v>2167</v>
+        <v>2152</v>
       </c>
       <c r="S712" s="75" t="s">
-        <v>1918</v>
+        <v>2166</v>
       </c>
       <c r="X712" s="88" t="s">
         <v>479</v>
@@ -65465,10 +65473,10 @@
         <v>99999999</v>
       </c>
       <c r="Z712" s="88">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA712" s="88">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB712" s="88">
         <v>80</v>
@@ -65504,7 +65512,7 @@
         <v>1545</v>
       </c>
       <c r="K713" s="88" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="M713" s="88">
         <v>-31</v>
@@ -65516,16 +65524,16 @@
         <v>0</v>
       </c>
       <c r="P713" s="88" t="s">
-        <v>1866</v>
+        <v>2161</v>
       </c>
       <c r="Q713" s="88">
         <v>1800</v>
       </c>
       <c r="R713" s="88" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
       <c r="S713" s="75" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="X713" s="88" t="s">
         <v>479</v>
@@ -65534,10 +65542,10 @@
         <v>99999999</v>
       </c>
       <c r="Z713" s="88">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA713" s="88">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB713" s="88">
         <v>81</v>
@@ -65573,7 +65581,7 @@
         <v>1545</v>
       </c>
       <c r="K714" s="88" t="s">
-        <v>2171</v>
+        <v>2153</v>
       </c>
       <c r="M714" s="88">
         <v>-31</v>
@@ -65585,16 +65593,16 @@
         <v>0</v>
       </c>
       <c r="P714" s="88" t="s">
-        <v>2172</v>
+        <v>2161</v>
       </c>
       <c r="Q714" s="88">
         <v>3000</v>
       </c>
       <c r="R714" s="88" t="s">
+        <v>1911</v>
+      </c>
+      <c r="S714" s="75" t="s">
         <v>2169</v>
-      </c>
-      <c r="S714" s="75" t="s">
-        <v>1919</v>
       </c>
       <c r="X714" s="88" t="s">
         <v>479</v>
@@ -65603,10 +65611,10 @@
         <v>99999999</v>
       </c>
       <c r="Z714" s="88">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA714" s="88">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB714" s="88">
         <v>81</v>
@@ -65642,7 +65650,7 @@
         <v>1545</v>
       </c>
       <c r="K715" s="88" t="s">
-        <v>1920</v>
+        <v>2170</v>
       </c>
       <c r="M715" s="88">
         <v>-31</v>
@@ -65654,16 +65662,16 @@
         <v>0</v>
       </c>
       <c r="P715" s="88" t="s">
-        <v>1866</v>
+        <v>1848</v>
       </c>
       <c r="Q715" s="88">
         <v>4800</v>
       </c>
       <c r="R715" s="88" t="s">
-        <v>1913</v>
+        <v>2165</v>
       </c>
       <c r="S715" s="75" t="s">
-        <v>2173</v>
+        <v>2154</v>
       </c>
       <c r="X715" s="88" t="s">
         <v>479</v>
@@ -65672,10 +65680,10 @@
         <v>99999999</v>
       </c>
       <c r="Z715" s="88">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA715" s="88">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB715" s="88">
         <v>81</v>
@@ -65711,7 +65719,7 @@
         <v>1545</v>
       </c>
       <c r="K716" s="88" t="s">
-        <v>1921</v>
+        <v>2171</v>
       </c>
       <c r="M716" s="88">
         <v>-31</v>
@@ -65723,13 +65731,13 @@
         <v>0</v>
       </c>
       <c r="P716" s="88" t="s">
-        <v>2164</v>
+        <v>2172</v>
       </c>
       <c r="Q716" s="88">
         <v>9600</v>
       </c>
       <c r="R716" s="88" t="s">
-        <v>2167</v>
+        <v>2173</v>
       </c>
       <c r="S716" s="75" t="s">
         <v>2174</v>
@@ -65741,10 +65749,10 @@
         <v>99999999</v>
       </c>
       <c r="Z716" s="88">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA716" s="88">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB716" s="88">
         <v>81</v>
@@ -65780,7 +65788,7 @@
         <v>1552</v>
       </c>
       <c r="K717" s="88" t="s">
-        <v>2175</v>
+        <v>2155</v>
       </c>
       <c r="M717" s="88">
         <v>-31</v>
@@ -65792,16 +65800,16 @@
         <v>0</v>
       </c>
       <c r="P717" s="88" t="s">
-        <v>1866</v>
+        <v>2161</v>
       </c>
       <c r="Q717" s="88">
         <v>4800</v>
       </c>
       <c r="R717" s="88" t="s">
-        <v>1922</v>
+        <v>1915</v>
       </c>
       <c r="S717" s="75" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="X717" s="88" t="s">
         <v>479</v>
@@ -65810,10 +65818,10 @@
         <v>99999999</v>
       </c>
       <c r="Z717" s="88">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA717" s="88">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB717" s="88">
         <v>82</v>
@@ -65849,7 +65857,7 @@
         <v>1552</v>
       </c>
       <c r="K718" s="88" t="s">
-        <v>1923</v>
+        <v>2176</v>
       </c>
       <c r="M718" s="88">
         <v>-31</v>
@@ -65861,16 +65869,16 @@
         <v>0</v>
       </c>
       <c r="P718" s="88" t="s">
-        <v>1866</v>
+        <v>2161</v>
       </c>
       <c r="Q718" s="88">
         <v>9800</v>
       </c>
       <c r="R718" s="88" t="s">
-        <v>1922</v>
+        <v>1915</v>
       </c>
       <c r="S718" s="75" t="s">
-        <v>1924</v>
+        <v>1916</v>
       </c>
       <c r="X718" s="88" t="s">
         <v>479</v>
@@ -65879,10 +65887,10 @@
         <v>99999999</v>
       </c>
       <c r="Z718" s="88">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA718" s="88">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB718" s="88">
         <v>82</v>
@@ -65918,7 +65926,7 @@
         <v>1552</v>
       </c>
       <c r="K719" s="88" t="s">
-        <v>1929</v>
+        <v>2177</v>
       </c>
       <c r="M719" s="88">
         <v>-31</v>
@@ -65930,16 +65938,16 @@
         <v>0</v>
       </c>
       <c r="P719" s="88" t="s">
-        <v>1866</v>
+        <v>2161</v>
       </c>
       <c r="Q719" s="88">
         <v>19800</v>
       </c>
       <c r="R719" s="88" t="s">
-        <v>2177</v>
+        <v>1915</v>
       </c>
       <c r="S719" s="75" t="s">
-        <v>2178</v>
+        <v>2156</v>
       </c>
       <c r="X719" s="88" t="s">
         <v>479</v>
@@ -65948,10 +65956,10 @@
         <v>99999999</v>
       </c>
       <c r="Z719" s="88">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA719" s="88">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB719" s="88">
         <v>82</v>
@@ -65987,7 +65995,7 @@
         <v>1552</v>
       </c>
       <c r="K720" s="88" t="s">
-        <v>1930</v>
+        <v>2178</v>
       </c>
       <c r="M720" s="88">
         <v>-31</v>
@@ -65999,16 +66007,16 @@
         <v>0</v>
       </c>
       <c r="P720" s="88" t="s">
-        <v>1866</v>
+        <v>1848</v>
       </c>
       <c r="Q720" s="88">
         <v>34400</v>
       </c>
       <c r="R720" s="88" t="s">
-        <v>1931</v>
+        <v>1921</v>
       </c>
       <c r="S720" s="75" t="s">
-        <v>1932</v>
+        <v>2179</v>
       </c>
       <c r="X720" s="88" t="s">
         <v>479</v>
@@ -66017,10 +66025,10 @@
         <v>99999999</v>
       </c>
       <c r="Z720" s="88">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA720" s="88">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB720" s="88">
         <v>82</v>
@@ -66056,7 +66064,7 @@
         <v>1441</v>
       </c>
       <c r="K721" s="88" t="s">
-        <v>1933</v>
+        <v>1922</v>
       </c>
       <c r="M721" s="88">
         <v>-31</v>
@@ -66068,16 +66076,16 @@
         <v>0</v>
       </c>
       <c r="P721" s="88" t="s">
-        <v>2164</v>
+        <v>2172</v>
       </c>
       <c r="Q721" s="88">
         <v>9800</v>
       </c>
       <c r="R721" s="88" t="s">
-        <v>1934</v>
+        <v>2180</v>
       </c>
       <c r="S721" s="75" t="s">
-        <v>1935</v>
+        <v>1924</v>
       </c>
       <c r="X721" s="88" t="s">
         <v>479</v>
@@ -66086,10 +66094,10 @@
         <v>99999999</v>
       </c>
       <c r="Z721" s="88">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA721" s="88">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB721" s="88">
         <v>83</v>
@@ -66125,7 +66133,7 @@
         <v>1441</v>
       </c>
       <c r="K722" s="88" t="s">
-        <v>1936</v>
+        <v>1925</v>
       </c>
       <c r="M722" s="88">
         <v>-31</v>
@@ -66137,16 +66145,16 @@
         <v>0</v>
       </c>
       <c r="P722" s="88" t="s">
-        <v>1866</v>
+        <v>2161</v>
       </c>
       <c r="Q722" s="88">
         <v>19800</v>
       </c>
       <c r="R722" s="88" t="s">
-        <v>1934</v>
+        <v>2181</v>
       </c>
       <c r="S722" s="75" t="s">
-        <v>2179</v>
+        <v>2157</v>
       </c>
       <c r="X722" s="88" t="s">
         <v>479</v>
@@ -66155,10 +66163,10 @@
         <v>99999999</v>
       </c>
       <c r="Z722" s="88">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA722" s="88">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB722" s="88">
         <v>83</v>
@@ -66194,7 +66202,7 @@
         <v>1441</v>
       </c>
       <c r="K723" s="88" t="s">
-        <v>2180</v>
+        <v>2158</v>
       </c>
       <c r="M723" s="88">
         <v>-31</v>
@@ -66206,16 +66214,16 @@
         <v>0</v>
       </c>
       <c r="P723" s="88" t="s">
-        <v>1866</v>
+        <v>1848</v>
       </c>
       <c r="Q723" s="88">
         <v>49800</v>
       </c>
       <c r="R723" s="88" t="s">
-        <v>1934</v>
+        <v>1923</v>
       </c>
       <c r="S723" s="75" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="X723" s="88" t="s">
         <v>479</v>
@@ -66224,10 +66232,10 @@
         <v>99999999</v>
       </c>
       <c r="Z723" s="88">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA723" s="88">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB723" s="88">
         <v>83</v>
@@ -66263,7 +66271,7 @@
         <v>1441</v>
       </c>
       <c r="K724" s="88" t="s">
-        <v>1937</v>
+        <v>1926</v>
       </c>
       <c r="M724" s="88">
         <v>-31</v>
@@ -66275,28 +66283,28 @@
         <v>0</v>
       </c>
       <c r="P724" s="88" t="s">
-        <v>2164</v>
+        <v>2172</v>
       </c>
       <c r="Q724" s="88">
         <v>79400</v>
       </c>
       <c r="R724" s="88" t="s">
-        <v>1938</v>
+        <v>2183</v>
       </c>
       <c r="S724" s="75" t="s">
-        <v>1939</v>
+        <v>1927</v>
       </c>
       <c r="X724" s="88" t="s">
-        <v>1928</v>
+        <v>2163</v>
       </c>
       <c r="Y724" s="88">
         <v>99999999</v>
       </c>
       <c r="Z724" s="88">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA724" s="88">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB724" s="88">
         <v>83</v>
@@ -66325,7 +66333,7 @@
         <v>1</v>
       </c>
       <c r="G725" s="31" t="s">
-        <v>1925</v>
+        <v>1917</v>
       </c>
       <c r="M725" s="31">
         <v>-31</v>
@@ -66337,14 +66345,14 @@
         <v>0</v>
       </c>
       <c r="P725" s="31" t="s">
-        <v>1926</v>
+        <v>1918</v>
       </c>
       <c r="Q725" s="31">
         <v>3000</v>
       </c>
       <c r="S725" s="56"/>
       <c r="X725" s="31" t="s">
-        <v>1927</v>
+        <v>1919</v>
       </c>
       <c r="Y725" s="31">
         <v>99999999</v>
@@ -66382,16 +66390,16 @@
         <v>0</v>
       </c>
       <c r="G726" s="31" t="s">
-        <v>1940</v>
+        <v>1928</v>
       </c>
       <c r="H726" s="90" t="s">
-        <v>1941</v>
+        <v>1929</v>
       </c>
       <c r="J726" s="21" t="s">
         <v>1545</v>
       </c>
       <c r="K726" s="31" t="s">
-        <v>1942</v>
+        <v>1930</v>
       </c>
       <c r="M726" s="31">
         <v>-31</v>
@@ -66409,10 +66417,10 @@
         <v>1800</v>
       </c>
       <c r="R726" s="31" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="S726" s="56" t="s">
-        <v>1944</v>
+        <v>1932</v>
       </c>
       <c r="X726" s="31" t="s">
         <v>1910</v>
@@ -66453,14 +66461,14 @@
         <v>0</v>
       </c>
       <c r="G727" s="31" t="s">
-        <v>1945</v>
+        <v>1933</v>
       </c>
       <c r="H727" s="90"/>
       <c r="J727" s="21" t="s">
         <v>1545</v>
       </c>
       <c r="K727" s="31" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="M727" s="31">
         <v>-31</v>
@@ -66478,13 +66486,13 @@
         <v>3000</v>
       </c>
       <c r="R727" s="31" t="s">
-        <v>1947</v>
+        <v>1935</v>
       </c>
       <c r="S727" s="56" t="s">
-        <v>1948</v>
+        <v>1936</v>
       </c>
       <c r="X727" s="31" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="Y727" s="31">
         <v>99999999</v>
@@ -66522,14 +66530,14 @@
         <v>0</v>
       </c>
       <c r="G728" s="31" t="s">
-        <v>1940</v>
+        <v>1928</v>
       </c>
       <c r="H728" s="90"/>
       <c r="J728" s="21" t="s">
         <v>1545</v>
       </c>
       <c r="K728" s="31" t="s">
-        <v>1950</v>
+        <v>1938</v>
       </c>
       <c r="M728" s="31">
         <v>-31</v>
@@ -66547,10 +66555,10 @@
         <v>4800</v>
       </c>
       <c r="R728" s="31" t="s">
-        <v>1951</v>
+        <v>1939</v>
       </c>
       <c r="S728" s="56" t="s">
-        <v>1952</v>
+        <v>1940</v>
       </c>
       <c r="X728" s="31" t="s">
         <v>479</v>
@@ -66591,14 +66599,14 @@
         <v>0</v>
       </c>
       <c r="G729" s="31" t="s">
-        <v>1945</v>
+        <v>1933</v>
       </c>
       <c r="H729" s="90"/>
       <c r="J729" s="21" t="s">
         <v>1545</v>
       </c>
       <c r="K729" s="31" t="s">
-        <v>1953</v>
+        <v>1941</v>
       </c>
       <c r="M729" s="31">
         <v>-31</v>
@@ -66610,16 +66618,16 @@
         <v>0</v>
       </c>
       <c r="P729" s="31" t="s">
-        <v>1954</v>
+        <v>1942</v>
       </c>
       <c r="Q729" s="31">
         <v>9600</v>
       </c>
       <c r="R729" s="31" t="s">
-        <v>1956</v>
+        <v>1944</v>
       </c>
       <c r="S729" s="56" t="s">
-        <v>1957</v>
+        <v>1945</v>
       </c>
       <c r="X729" s="31" t="s">
         <v>479</v>
@@ -66660,14 +66668,14 @@
         <v>0</v>
       </c>
       <c r="G730" s="31" t="s">
-        <v>1940</v>
+        <v>1928</v>
       </c>
       <c r="H730" s="90"/>
       <c r="J730" s="21" t="s">
         <v>1552</v>
       </c>
       <c r="K730" s="31" t="s">
-        <v>1958</v>
+        <v>1946</v>
       </c>
       <c r="M730" s="31">
         <v>-31</v>
@@ -66679,16 +66687,16 @@
         <v>0</v>
       </c>
       <c r="P730" s="31" t="s">
-        <v>1954</v>
+        <v>1942</v>
       </c>
       <c r="Q730" s="31">
         <v>4800</v>
       </c>
       <c r="R730" s="31" t="s">
-        <v>1951</v>
+        <v>1939</v>
       </c>
       <c r="S730" s="56" t="s">
-        <v>1959</v>
+        <v>1947</v>
       </c>
       <c r="X730" s="31" t="s">
         <v>479</v>
@@ -66729,14 +66737,14 @@
         <v>0</v>
       </c>
       <c r="G731" s="31" t="s">
-        <v>1940</v>
+        <v>1928</v>
       </c>
       <c r="H731" s="90"/>
       <c r="J731" s="21" t="s">
         <v>1552</v>
       </c>
       <c r="K731" s="31" t="s">
-        <v>1960</v>
+        <v>1948</v>
       </c>
       <c r="M731" s="31">
         <v>-31</v>
@@ -66748,16 +66756,16 @@
         <v>0</v>
       </c>
       <c r="P731" s="31" t="s">
-        <v>1954</v>
+        <v>1942</v>
       </c>
       <c r="Q731" s="31">
         <v>9800</v>
       </c>
       <c r="R731" s="31" t="s">
-        <v>1951</v>
+        <v>1939</v>
       </c>
       <c r="S731" s="56" t="s">
-        <v>1961</v>
+        <v>1949</v>
       </c>
       <c r="X731" s="31" t="s">
         <v>479</v>
@@ -66798,14 +66806,14 @@
         <v>0</v>
       </c>
       <c r="G732" s="31" t="s">
-        <v>1945</v>
+        <v>1933</v>
       </c>
       <c r="H732" s="90"/>
       <c r="J732" s="21" t="s">
         <v>1552</v>
       </c>
       <c r="K732" s="31" t="s">
-        <v>1962</v>
+        <v>1950</v>
       </c>
       <c r="M732" s="31">
         <v>-31</v>
@@ -66817,16 +66825,16 @@
         <v>0</v>
       </c>
       <c r="P732" s="31" t="s">
-        <v>1954</v>
+        <v>1942</v>
       </c>
       <c r="Q732" s="31">
         <v>19800</v>
       </c>
       <c r="R732" s="31" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S732" s="56" t="s">
         <v>1951</v>
-      </c>
-      <c r="S732" s="56" t="s">
-        <v>1963</v>
       </c>
       <c r="X732" s="31" t="s">
         <v>479</v>
@@ -66867,14 +66875,14 @@
         <v>0</v>
       </c>
       <c r="G733" s="31" t="s">
-        <v>1940</v>
+        <v>1928</v>
       </c>
       <c r="H733" s="90"/>
       <c r="J733" s="21" t="s">
         <v>1552</v>
       </c>
       <c r="K733" s="31" t="s">
-        <v>1964</v>
+        <v>1952</v>
       </c>
       <c r="M733" s="31">
         <v>-31</v>
@@ -66886,16 +66894,16 @@
         <v>0</v>
       </c>
       <c r="P733" s="31" t="s">
-        <v>1954</v>
+        <v>1942</v>
       </c>
       <c r="Q733" s="31">
         <v>34400</v>
       </c>
       <c r="R733" s="31" t="s">
-        <v>1965</v>
+        <v>1953</v>
       </c>
       <c r="S733" s="56" t="s">
-        <v>1966</v>
+        <v>1954</v>
       </c>
       <c r="X733" s="31" t="s">
         <v>479</v>
@@ -66936,14 +66944,14 @@
         <v>0</v>
       </c>
       <c r="G734" s="31" t="s">
-        <v>1940</v>
+        <v>1928</v>
       </c>
       <c r="H734" s="90"/>
       <c r="J734" s="21" t="s">
         <v>1441</v>
       </c>
       <c r="K734" s="31" t="s">
-        <v>1967</v>
+        <v>1955</v>
       </c>
       <c r="M734" s="31">
         <v>-31</v>
@@ -66961,10 +66969,10 @@
         <v>9800</v>
       </c>
       <c r="R734" s="31" t="s">
-        <v>1951</v>
+        <v>1939</v>
       </c>
       <c r="S734" s="56" t="s">
-        <v>1968</v>
+        <v>1956</v>
       </c>
       <c r="X734" s="31" t="s">
         <v>479</v>
@@ -67005,14 +67013,14 @@
         <v>0</v>
       </c>
       <c r="G735" s="31" t="s">
-        <v>1945</v>
+        <v>1933</v>
       </c>
       <c r="H735" s="90"/>
       <c r="J735" s="21" t="s">
         <v>1441</v>
       </c>
       <c r="K735" s="31" t="s">
-        <v>1969</v>
+        <v>1957</v>
       </c>
       <c r="M735" s="31">
         <v>-31</v>
@@ -67024,16 +67032,16 @@
         <v>0</v>
       </c>
       <c r="P735" s="31" t="s">
-        <v>1954</v>
+        <v>1942</v>
       </c>
       <c r="Q735" s="31">
         <v>19800</v>
       </c>
       <c r="R735" s="31" t="s">
-        <v>1951</v>
+        <v>1939</v>
       </c>
       <c r="S735" s="56" t="s">
-        <v>1970</v>
+        <v>1958</v>
       </c>
       <c r="X735" s="31" t="s">
         <v>479</v>
@@ -67074,14 +67082,14 @@
         <v>0</v>
       </c>
       <c r="G736" s="31" t="s">
-        <v>1971</v>
+        <v>1959</v>
       </c>
       <c r="H736" s="90"/>
       <c r="J736" s="21" t="s">
         <v>1441</v>
       </c>
       <c r="K736" s="31" t="s">
-        <v>1972</v>
+        <v>1960</v>
       </c>
       <c r="M736" s="31">
         <v>-31</v>
@@ -67093,16 +67101,16 @@
         <v>0</v>
       </c>
       <c r="P736" s="31" t="s">
-        <v>1973</v>
+        <v>1961</v>
       </c>
       <c r="Q736" s="31">
         <v>49800</v>
       </c>
       <c r="R736" s="31" t="s">
-        <v>1951</v>
+        <v>1939</v>
       </c>
       <c r="S736" s="56" t="s">
-        <v>1974</v>
+        <v>1962</v>
       </c>
       <c r="X736" s="31" t="s">
         <v>479</v>
@@ -67143,14 +67151,14 @@
         <v>0</v>
       </c>
       <c r="G737" s="31" t="s">
-        <v>1975</v>
+        <v>1963</v>
       </c>
       <c r="H737" s="90"/>
       <c r="J737" s="21" t="s">
         <v>1441</v>
       </c>
       <c r="K737" s="31" t="s">
-        <v>1976</v>
+        <v>1964</v>
       </c>
       <c r="M737" s="31">
         <v>-31</v>
@@ -67168,10 +67176,10 @@
         <v>79400</v>
       </c>
       <c r="R737" s="31" t="s">
-        <v>1955</v>
+        <v>1943</v>
       </c>
       <c r="S737" s="56" t="s">
-        <v>1977</v>
+        <v>1965</v>
       </c>
       <c r="X737" s="31" t="s">
         <v>479</v>
@@ -67212,16 +67220,16 @@
         <v>1</v>
       </c>
       <c r="G738" s="83" t="s">
-        <v>1978</v>
+        <v>1966</v>
       </c>
       <c r="H738" s="89" t="s">
-        <v>1979</v>
+        <v>1967</v>
       </c>
       <c r="J738" s="83" t="s">
         <v>1538</v>
       </c>
       <c r="K738" s="83" t="s">
-        <v>1980</v>
+        <v>1968</v>
       </c>
       <c r="M738" s="83">
         <v>-31</v>
@@ -67239,10 +67247,10 @@
         <v>600</v>
       </c>
       <c r="R738" s="83" t="s">
-        <v>1981</v>
+        <v>1969</v>
       </c>
       <c r="S738" s="75" t="s">
-        <v>1982</v>
+        <v>1970</v>
       </c>
       <c r="X738" s="83" t="s">
         <v>479</v>
@@ -67283,14 +67291,14 @@
         <v>1</v>
       </c>
       <c r="G739" s="83" t="s">
-        <v>1983</v>
+        <v>1971</v>
       </c>
       <c r="H739" s="89"/>
       <c r="J739" s="83" t="s">
         <v>1538</v>
       </c>
       <c r="K739" s="83" t="s">
-        <v>1984</v>
+        <v>1972</v>
       </c>
       <c r="M739" s="83">
         <v>-31</v>
@@ -67308,10 +67316,10 @@
         <v>1000</v>
       </c>
       <c r="R739" s="83" t="s">
-        <v>1981</v>
+        <v>1969</v>
       </c>
       <c r="S739" s="75" t="s">
-        <v>1985</v>
+        <v>1973</v>
       </c>
       <c r="X739" s="83" t="s">
         <v>479</v>
@@ -67352,14 +67360,14 @@
         <v>1</v>
       </c>
       <c r="G740" s="83" t="s">
-        <v>1986</v>
+        <v>1974</v>
       </c>
       <c r="H740" s="89"/>
       <c r="J740" s="83" t="s">
         <v>1538</v>
       </c>
       <c r="K740" s="83" t="s">
-        <v>1987</v>
+        <v>1975</v>
       </c>
       <c r="M740" s="83">
         <v>-31</v>
@@ -67377,10 +67385,10 @@
         <v>1800</v>
       </c>
       <c r="R740" s="83" t="s">
-        <v>1981</v>
+        <v>1969</v>
       </c>
       <c r="S740" s="75" t="s">
-        <v>1988</v>
+        <v>1976</v>
       </c>
       <c r="X740" s="83" t="s">
         <v>479</v>
@@ -67421,14 +67429,14 @@
         <v>1</v>
       </c>
       <c r="G741" s="83" t="s">
-        <v>1978</v>
+        <v>1966</v>
       </c>
       <c r="H741" s="89"/>
       <c r="J741" s="83" t="s">
         <v>1545</v>
       </c>
       <c r="K741" s="83" t="s">
-        <v>1989</v>
+        <v>1977</v>
       </c>
       <c r="M741" s="83">
         <v>-31</v>
@@ -67446,10 +67454,10 @@
         <v>1800</v>
       </c>
       <c r="R741" s="83" t="s">
-        <v>1981</v>
+        <v>1969</v>
       </c>
       <c r="S741" s="75" t="s">
-        <v>1990</v>
+        <v>1978</v>
       </c>
       <c r="X741" s="83" t="s">
         <v>479</v>
@@ -67490,14 +67498,14 @@
         <v>1</v>
       </c>
       <c r="G742" s="83" t="s">
-        <v>1986</v>
+        <v>1974</v>
       </c>
       <c r="H742" s="89"/>
       <c r="J742" s="83" t="s">
         <v>1545</v>
       </c>
       <c r="K742" s="83" t="s">
-        <v>1991</v>
+        <v>1979</v>
       </c>
       <c r="M742" s="83">
         <v>-31</v>
@@ -67515,10 +67523,10 @@
         <v>3000</v>
       </c>
       <c r="R742" s="83" t="s">
-        <v>1981</v>
+        <v>1969</v>
       </c>
       <c r="S742" s="75" t="s">
-        <v>1992</v>
+        <v>1980</v>
       </c>
       <c r="X742" s="83" t="s">
         <v>479</v>
@@ -67559,14 +67567,14 @@
         <v>1</v>
       </c>
       <c r="G743" s="83" t="s">
-        <v>1978</v>
+        <v>1966</v>
       </c>
       <c r="H743" s="89"/>
       <c r="J743" s="83" t="s">
         <v>1545</v>
       </c>
       <c r="K743" s="83" t="s">
-        <v>1993</v>
+        <v>1981</v>
       </c>
       <c r="M743" s="83">
         <v>-31</v>
@@ -67584,10 +67592,10 @@
         <v>4800</v>
       </c>
       <c r="R743" s="83" t="s">
-        <v>1981</v>
+        <v>1969</v>
       </c>
       <c r="S743" s="75" t="s">
-        <v>1994</v>
+        <v>1982</v>
       </c>
       <c r="X743" s="83" t="s">
         <v>479</v>
@@ -67628,14 +67636,14 @@
         <v>1</v>
       </c>
       <c r="G744" s="83" t="s">
-        <v>1978</v>
+        <v>1966</v>
       </c>
       <c r="H744" s="89"/>
       <c r="J744" s="83" t="s">
         <v>1552</v>
       </c>
       <c r="K744" s="83" t="s">
-        <v>1995</v>
+        <v>1983</v>
       </c>
       <c r="M744" s="83">
         <v>-31</v>
@@ -67653,10 +67661,10 @@
         <v>4800</v>
       </c>
       <c r="R744" s="83" t="s">
-        <v>1996</v>
+        <v>1984</v>
       </c>
       <c r="S744" s="75" t="s">
-        <v>1997</v>
+        <v>1985</v>
       </c>
       <c r="X744" s="83" t="s">
         <v>479</v>
@@ -67697,14 +67705,14 @@
         <v>1</v>
       </c>
       <c r="G745" s="83" t="s">
-        <v>1978</v>
+        <v>1966</v>
       </c>
       <c r="H745" s="89"/>
       <c r="J745" s="83" t="s">
         <v>1552</v>
       </c>
       <c r="K745" s="83" t="s">
-        <v>1999</v>
+        <v>1987</v>
       </c>
       <c r="M745" s="83">
         <v>-31</v>
@@ -67722,10 +67730,10 @@
         <v>9800</v>
       </c>
       <c r="R745" s="83" t="s">
-        <v>1996</v>
+        <v>1984</v>
       </c>
       <c r="S745" s="75" t="s">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="X745" s="83" t="s">
         <v>479</v>
@@ -67766,14 +67774,14 @@
         <v>1</v>
       </c>
       <c r="G746" s="83" t="s">
-        <v>1978</v>
+        <v>1966</v>
       </c>
       <c r="H746" s="89"/>
       <c r="J746" s="83" t="s">
         <v>1552</v>
       </c>
       <c r="K746" s="83" t="s">
-        <v>2001</v>
+        <v>1989</v>
       </c>
       <c r="M746" s="83">
         <v>-31</v>
@@ -67791,10 +67799,10 @@
         <v>19800</v>
       </c>
       <c r="R746" s="83" t="s">
-        <v>2002</v>
+        <v>1990</v>
       </c>
       <c r="S746" s="75" t="s">
-        <v>2003</v>
+        <v>1991</v>
       </c>
       <c r="X746" s="83" t="s">
         <v>479</v>
@@ -67835,14 +67843,14 @@
         <v>1</v>
       </c>
       <c r="G747" s="83" t="s">
-        <v>1978</v>
+        <v>1966</v>
       </c>
       <c r="H747" s="89"/>
       <c r="J747" s="83" t="s">
         <v>1441</v>
       </c>
       <c r="K747" s="83" t="s">
-        <v>1998</v>
+        <v>1986</v>
       </c>
       <c r="M747" s="83">
         <v>-31</v>
@@ -67860,10 +67868,10 @@
         <v>9800</v>
       </c>
       <c r="R747" s="83" t="s">
-        <v>2002</v>
+        <v>1990</v>
       </c>
       <c r="S747" s="75" t="s">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="X747" s="83" t="s">
         <v>479</v>
@@ -67904,14 +67912,14 @@
         <v>1</v>
       </c>
       <c r="G748" s="83" t="s">
-        <v>1978</v>
+        <v>1966</v>
       </c>
       <c r="H748" s="89"/>
       <c r="J748" s="83" t="s">
         <v>1441</v>
       </c>
       <c r="K748" s="83" t="s">
-        <v>2001</v>
+        <v>1989</v>
       </c>
       <c r="M748" s="83">
         <v>-31</v>
@@ -67929,10 +67937,10 @@
         <v>19800</v>
       </c>
       <c r="R748" s="83" t="s">
-        <v>2002</v>
+        <v>1990</v>
       </c>
       <c r="S748" s="75" t="s">
-        <v>2004</v>
+        <v>1992</v>
       </c>
       <c r="X748" s="83" t="s">
         <v>479</v>
@@ -67973,14 +67981,14 @@
         <v>1</v>
       </c>
       <c r="G749" s="83" t="s">
-        <v>1978</v>
+        <v>1966</v>
       </c>
       <c r="H749" s="89"/>
       <c r="J749" s="83" t="s">
         <v>1441</v>
       </c>
       <c r="K749" s="83" t="s">
-        <v>2005</v>
+        <v>1993</v>
       </c>
       <c r="M749" s="83">
         <v>-31</v>
@@ -67998,10 +68006,10 @@
         <v>49800</v>
       </c>
       <c r="R749" s="83" t="s">
-        <v>2002</v>
+        <v>1990</v>
       </c>
       <c r="S749" s="75" t="s">
-        <v>2006</v>
+        <v>1994</v>
       </c>
       <c r="X749" s="83" t="s">
         <v>479</v>
@@ -68042,10 +68050,10 @@
         <v>1</v>
       </c>
       <c r="G750" s="31" t="s">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="K750" s="31" t="s">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="M750" s="31">
         <v>-31</v>
@@ -68057,19 +68065,19 @@
         <v>0</v>
       </c>
       <c r="P750" s="31" t="s">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="Q750" s="31">
         <v>9800</v>
       </c>
       <c r="R750" s="31" t="s">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="S750" s="56" t="s">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="X750" s="31" t="s">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="Y750" s="31">
         <v>99999999</v>
@@ -68107,13 +68115,13 @@
         <v>1</v>
       </c>
       <c r="G751" s="31" t="s">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="J751" s="31" t="s">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="K751" s="31" t="s">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="M751" s="31">
         <v>-31</v>
@@ -68125,19 +68133,19 @@
         <v>0</v>
       </c>
       <c r="P751" s="31" t="s">
-        <v>1926</v>
+        <v>1918</v>
       </c>
       <c r="Q751" s="31">
         <v>4800</v>
       </c>
       <c r="R751" s="31" t="s">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="S751" s="56" t="s">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="X751" s="31" t="s">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="Y751" s="31">
         <v>99999999</v>
@@ -68175,13 +68183,13 @@
         <v>1</v>
       </c>
       <c r="G752" s="31" t="s">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="J752" s="31" t="s">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="K752" s="31" t="s">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="M752" s="31">
         <v>-31</v>
@@ -68193,19 +68201,19 @@
         <v>0</v>
       </c>
       <c r="P752" s="31" t="s">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="Q752" s="31">
         <v>9800</v>
       </c>
       <c r="R752" s="31" t="s">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="S752" s="56" t="s">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="X752" s="31" t="s">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="Y752" s="31">
         <v>99999999</v>
@@ -68243,13 +68251,13 @@
         <v>1</v>
       </c>
       <c r="G753" s="31" t="s">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="J753" s="31" t="s">
-        <v>2023</v>
+        <v>2011</v>
       </c>
       <c r="K753" s="31" t="s">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="M753" s="31">
         <v>-31</v>
@@ -68261,19 +68269,19 @@
         <v>0</v>
       </c>
       <c r="P753" s="31" t="s">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="Q753" s="31">
         <v>19800</v>
       </c>
       <c r="R753" s="31" t="s">
-        <v>2025</v>
+        <v>2013</v>
       </c>
       <c r="S753" s="56" t="s">
-        <v>2026</v>
+        <v>2014</v>
       </c>
       <c r="X753" s="31" t="s">
-        <v>1928</v>
+        <v>1920</v>
       </c>
       <c r="Y753" s="31">
         <v>99999999</v>
@@ -68311,13 +68319,13 @@
         <v>1</v>
       </c>
       <c r="G754" s="31" t="s">
-        <v>2027</v>
+        <v>2015</v>
       </c>
       <c r="J754" s="31" t="s">
-        <v>2028</v>
+        <v>2016</v>
       </c>
       <c r="K754" s="31" t="s">
-        <v>2029</v>
+        <v>2017</v>
       </c>
       <c r="M754" s="31">
         <v>-31</v>
@@ -68329,19 +68337,19 @@
         <v>0</v>
       </c>
       <c r="P754" s="31" t="s">
-        <v>2030</v>
+        <v>2018</v>
       </c>
       <c r="Q754" s="31">
         <v>4800</v>
       </c>
       <c r="R754" s="31" t="s">
-        <v>2031</v>
+        <v>2019</v>
       </c>
       <c r="S754" s="56" t="s">
-        <v>2032</v>
+        <v>2020</v>
       </c>
       <c r="X754" s="31" t="s">
-        <v>2034</v>
+        <v>2022</v>
       </c>
       <c r="Y754" s="31">
         <v>99999999</v>
@@ -68376,13 +68384,13 @@
         <v>1</v>
       </c>
       <c r="G755" s="31" t="s">
-        <v>2035</v>
+        <v>2023</v>
       </c>
       <c r="J755" s="31" t="s">
-        <v>2036</v>
+        <v>2024</v>
       </c>
       <c r="K755" s="31" t="s">
-        <v>2037</v>
+        <v>2025</v>
       </c>
       <c r="M755" s="31">
         <v>-31</v>
@@ -68400,13 +68408,13 @@
         <v>9800</v>
       </c>
       <c r="R755" s="31" t="s">
-        <v>2031</v>
+        <v>2019</v>
       </c>
       <c r="S755" s="56" t="s">
-        <v>2038</v>
+        <v>2026</v>
       </c>
       <c r="X755" s="31" t="s">
-        <v>2033</v>
+        <v>2021</v>
       </c>
       <c r="Y755" s="31">
         <v>99999999</v>
@@ -68441,13 +68449,13 @@
         <v>1</v>
       </c>
       <c r="G756" s="31" t="s">
+        <v>2015</v>
+      </c>
+      <c r="J756" s="31" t="s">
         <v>2027</v>
       </c>
-      <c r="J756" s="31" t="s">
-        <v>2039</v>
-      </c>
       <c r="K756" s="31" t="s">
-        <v>2040</v>
+        <v>2028</v>
       </c>
       <c r="M756" s="31">
         <v>-31</v>
@@ -68459,19 +68467,19 @@
         <v>0</v>
       </c>
       <c r="P756" s="31" t="s">
-        <v>2030</v>
+        <v>2018</v>
       </c>
       <c r="Q756" s="31">
         <v>49800</v>
       </c>
       <c r="R756" s="31" t="s">
-        <v>2031</v>
+        <v>2019</v>
       </c>
       <c r="S756" s="56" t="s">
-        <v>2041</v>
+        <v>2029</v>
       </c>
       <c r="X756" s="31" t="s">
-        <v>2033</v>
+        <v>2021</v>
       </c>
       <c r="Y756" s="31">
         <v>99999999</v>
@@ -68506,13 +68514,13 @@
         <v>1</v>
       </c>
       <c r="G757" s="31" t="s">
-        <v>2076</v>
+        <v>2064</v>
       </c>
       <c r="J757" s="31" t="s">
-        <v>2077</v>
+        <v>2065</v>
       </c>
       <c r="K757" s="31" t="s">
-        <v>2078</v>
+        <v>2066</v>
       </c>
       <c r="M757" s="31">
         <v>-31</v>
@@ -68524,7 +68532,7 @@
         <v>0</v>
       </c>
       <c r="P757" s="31" t="s">
-        <v>2079</v>
+        <v>2067</v>
       </c>
       <c r="Q757" s="31">
         <v>1000</v>
@@ -68549,10 +68557,10 @@
         <v>1852</v>
       </c>
       <c r="AD757" s="31" t="s">
-        <v>2080</v>
+        <v>2068</v>
       </c>
       <c r="AE757" s="32" t="s">
-        <v>2081</v>
+        <v>2069</v>
       </c>
       <c r="AI757" s="31">
         <v>1</v>
@@ -68578,13 +68586,13 @@
         <v>1</v>
       </c>
       <c r="G758" s="31" t="s">
-        <v>2082</v>
+        <v>2070</v>
       </c>
       <c r="J758" s="31" t="s">
-        <v>2083</v>
+        <v>2071</v>
       </c>
       <c r="K758" s="31" t="s">
-        <v>2084</v>
+        <v>2072</v>
       </c>
       <c r="M758" s="31">
         <v>-31</v>
@@ -68596,14 +68604,14 @@
         <v>0</v>
       </c>
       <c r="P758" s="31" t="s">
-        <v>2079</v>
+        <v>2067</v>
       </c>
       <c r="Q758" s="31">
         <v>5000</v>
       </c>
       <c r="S758" s="56"/>
       <c r="X758" s="31" t="s">
-        <v>2085</v>
+        <v>2073</v>
       </c>
       <c r="Y758" s="31">
         <v>99999999</v>
@@ -68621,10 +68629,10 @@
         <v>1852</v>
       </c>
       <c r="AD758" s="31" t="s">
-        <v>2055</v>
+        <v>2043</v>
       </c>
       <c r="AE758" s="32" t="s">
-        <v>2086</v>
+        <v>2074</v>
       </c>
       <c r="AI758" s="31">
         <v>1</v>
@@ -68653,10 +68661,10 @@
         <v>1875</v>
       </c>
       <c r="J759" s="31" t="s">
-        <v>2056</v>
+        <v>2044</v>
       </c>
       <c r="K759" s="31" t="s">
-        <v>2087</v>
+        <v>2075</v>
       </c>
       <c r="M759" s="31">
         <v>-31</v>
@@ -68668,7 +68676,7 @@
         <v>0</v>
       </c>
       <c r="P759" s="31" t="s">
-        <v>2088</v>
+        <v>2076</v>
       </c>
       <c r="Q759" s="31">
         <v>9800</v>
@@ -68693,10 +68701,10 @@
         <v>1852</v>
       </c>
       <c r="AD759" s="31" t="s">
-        <v>2089</v>
+        <v>2077</v>
       </c>
       <c r="AE759" s="32" t="s">
-        <v>2091</v>
+        <v>2079</v>
       </c>
       <c r="AI759" s="31">
         <v>1</v>
@@ -68725,10 +68733,10 @@
         <v>1875</v>
       </c>
       <c r="J760" s="31" t="s">
-        <v>2092</v>
+        <v>2080</v>
       </c>
       <c r="K760" s="31" t="s">
-        <v>2059</v>
+        <v>2047</v>
       </c>
       <c r="M760" s="31">
         <v>-31</v>
@@ -68765,10 +68773,10 @@
         <v>1852</v>
       </c>
       <c r="AD760" s="31" t="s">
-        <v>2060</v>
+        <v>2048</v>
       </c>
       <c r="AE760" s="32" t="s">
-        <v>2094</v>
+        <v>2082</v>
       </c>
       <c r="AI760" s="31">
         <v>1</v>
@@ -68794,13 +68802,13 @@
         <v>1</v>
       </c>
       <c r="G761" s="31" t="s">
-        <v>2076</v>
+        <v>2064</v>
       </c>
       <c r="J761" s="31" t="s">
-        <v>2042</v>
+        <v>2030</v>
       </c>
       <c r="K761" s="31" t="s">
-        <v>2095</v>
+        <v>2083</v>
       </c>
       <c r="M761" s="31">
         <v>-31</v>
@@ -68812,14 +68820,14 @@
         <v>0</v>
       </c>
       <c r="P761" s="31" t="s">
-        <v>2096</v>
+        <v>2084</v>
       </c>
       <c r="Q761" s="31">
         <v>5000</v>
       </c>
       <c r="S761" s="56"/>
       <c r="X761" s="31" t="s">
-        <v>2043</v>
+        <v>2031</v>
       </c>
       <c r="Y761" s="31">
         <v>99999999</v>
@@ -68834,13 +68842,13 @@
         <v>92</v>
       </c>
       <c r="AC761" s="31" t="s">
-        <v>2097</v>
+        <v>2085</v>
       </c>
       <c r="AD761" s="31" t="s">
-        <v>2098</v>
+        <v>2086</v>
       </c>
       <c r="AE761" s="32" t="s">
-        <v>2099</v>
+        <v>2087</v>
       </c>
       <c r="AI761" s="31">
         <v>1</v>
@@ -68869,10 +68877,10 @@
         <v>1875</v>
       </c>
       <c r="J762" s="31" t="s">
-        <v>2044</v>
+        <v>2032</v>
       </c>
       <c r="K762" s="31" t="s">
-        <v>2057</v>
+        <v>2045</v>
       </c>
       <c r="M762" s="31">
         <v>-31</v>
@@ -68891,7 +68899,7 @@
       </c>
       <c r="S762" s="56"/>
       <c r="X762" s="31" t="s">
-        <v>2043</v>
+        <v>2031</v>
       </c>
       <c r="Y762" s="31">
         <v>99999999</v>
@@ -68909,10 +68917,10 @@
         <v>1852</v>
       </c>
       <c r="AD762" s="31" t="s">
-        <v>2058</v>
+        <v>2046</v>
       </c>
       <c r="AE762" s="32" t="s">
-        <v>2090</v>
+        <v>2078</v>
       </c>
       <c r="AI762" s="31">
         <v>1</v>
@@ -68938,13 +68946,13 @@
         <v>1</v>
       </c>
       <c r="G763" s="31" t="s">
-        <v>2100</v>
+        <v>2088</v>
       </c>
       <c r="J763" s="31" t="s">
-        <v>2045</v>
+        <v>2033</v>
       </c>
       <c r="K763" s="31" t="s">
-        <v>2101</v>
+        <v>2089</v>
       </c>
       <c r="M763" s="31">
         <v>-31</v>
@@ -68964,7 +68972,7 @@
       <c r="R763" s="85"/>
       <c r="S763" s="56"/>
       <c r="X763" s="31" t="s">
-        <v>2043</v>
+        <v>2031</v>
       </c>
       <c r="Y763" s="31">
         <v>99999999</v>
@@ -68979,13 +68987,13 @@
         <v>94</v>
       </c>
       <c r="AC763" s="31" t="s">
-        <v>2097</v>
+        <v>2085</v>
       </c>
       <c r="AD763" s="31" t="s">
-        <v>2102</v>
+        <v>2090</v>
       </c>
       <c r="AE763" s="32" t="s">
-        <v>2103</v>
+        <v>2091</v>
       </c>
       <c r="AI763" s="31">
         <v>1</v>
@@ -69011,13 +69019,13 @@
         <v>1</v>
       </c>
       <c r="G764" s="31" t="s">
-        <v>2104</v>
+        <v>2092</v>
       </c>
       <c r="J764" s="31" t="s">
-        <v>2046</v>
+        <v>2034</v>
       </c>
       <c r="K764" s="31" t="s">
-        <v>2105</v>
+        <v>2093</v>
       </c>
       <c r="M764" s="31">
         <v>-31</v>
@@ -69029,7 +69037,7 @@
         <v>0</v>
       </c>
       <c r="P764" s="31" t="s">
-        <v>2106</v>
+        <v>2094</v>
       </c>
       <c r="Q764" s="31">
         <v>29800</v>
@@ -69037,7 +69045,7 @@
       <c r="R764" s="85"/>
       <c r="S764" s="56"/>
       <c r="X764" s="31" t="s">
-        <v>2043</v>
+        <v>2031</v>
       </c>
       <c r="Y764" s="31">
         <v>99999999</v>
@@ -69052,13 +69060,13 @@
         <v>95</v>
       </c>
       <c r="AC764" s="31" t="s">
-        <v>2107</v>
+        <v>2095</v>
       </c>
       <c r="AD764" s="31" t="s">
-        <v>2108</v>
+        <v>2096</v>
       </c>
       <c r="AE764" s="32" t="s">
-        <v>2110</v>
+        <v>2098</v>
       </c>
       <c r="AI764" s="31">
         <v>1</v>
@@ -69087,10 +69095,10 @@
         <v>1875</v>
       </c>
       <c r="J765" s="31" t="s">
-        <v>2047</v>
+        <v>2035</v>
       </c>
       <c r="K765" s="31" t="s">
-        <v>2111</v>
+        <v>2099</v>
       </c>
       <c r="M765" s="31">
         <v>-31</v>
@@ -69102,14 +69110,14 @@
         <v>0</v>
       </c>
       <c r="P765" s="31" t="s">
-        <v>2096</v>
+        <v>2084</v>
       </c>
       <c r="Q765" s="31">
         <v>9800</v>
       </c>
       <c r="S765" s="56"/>
       <c r="X765" s="31" t="s">
-        <v>2043</v>
+        <v>2031</v>
       </c>
       <c r="Y765" s="31">
         <v>99999999</v>
@@ -69124,13 +69132,13 @@
         <v>92</v>
       </c>
       <c r="AC765" s="31" t="s">
-        <v>2107</v>
+        <v>2095</v>
       </c>
       <c r="AD765" s="31" t="s">
-        <v>2112</v>
+        <v>2100</v>
       </c>
       <c r="AE765" s="32" t="s">
-        <v>2090</v>
+        <v>2078</v>
       </c>
       <c r="AI765" s="31">
         <v>1</v>
@@ -69156,13 +69164,13 @@
         <v>1</v>
       </c>
       <c r="G766" s="31" t="s">
-        <v>2104</v>
+        <v>2092</v>
       </c>
       <c r="J766" s="31" t="s">
-        <v>2048</v>
+        <v>2036</v>
       </c>
       <c r="K766" s="31" t="s">
-        <v>2111</v>
+        <v>2099</v>
       </c>
       <c r="M766" s="31">
         <v>-31</v>
@@ -69174,14 +69182,14 @@
         <v>0</v>
       </c>
       <c r="P766" s="31" t="s">
-        <v>2106</v>
+        <v>2094</v>
       </c>
       <c r="Q766" s="31">
         <v>9800</v>
       </c>
       <c r="S766" s="56"/>
       <c r="X766" s="31" t="s">
-        <v>2043</v>
+        <v>2031</v>
       </c>
       <c r="Y766" s="31">
         <v>99999999</v>
@@ -69196,13 +69204,13 @@
         <v>93</v>
       </c>
       <c r="AC766" s="31" t="s">
-        <v>2107</v>
+        <v>2095</v>
       </c>
       <c r="AD766" s="31" t="s">
-        <v>2112</v>
+        <v>2100</v>
       </c>
       <c r="AE766" s="32" t="s">
-        <v>2113</v>
+        <v>2101</v>
       </c>
       <c r="AI766" s="31">
         <v>1</v>
@@ -69228,13 +69236,13 @@
         <v>1</v>
       </c>
       <c r="G767" s="31" t="s">
-        <v>2104</v>
+        <v>2092</v>
       </c>
       <c r="J767" s="31" t="s">
-        <v>2049</v>
+        <v>2037</v>
       </c>
       <c r="K767" s="31" t="s">
-        <v>2101</v>
+        <v>2089</v>
       </c>
       <c r="M767" s="31">
         <v>-31</v>
@@ -69253,7 +69261,7 @@
       </c>
       <c r="S767" s="56"/>
       <c r="X767" s="31" t="s">
-        <v>2043</v>
+        <v>2031</v>
       </c>
       <c r="Y767" s="31">
         <v>99999999</v>
@@ -69268,13 +69276,13 @@
         <v>94</v>
       </c>
       <c r="AC767" s="31" t="s">
-        <v>2097</v>
+        <v>2085</v>
       </c>
       <c r="AD767" s="31" t="s">
-        <v>2102</v>
+        <v>2090</v>
       </c>
       <c r="AE767" s="32" t="s">
-        <v>2103</v>
+        <v>2091</v>
       </c>
       <c r="AI767" s="31">
         <v>1</v>
@@ -69300,13 +69308,13 @@
         <v>1</v>
       </c>
       <c r="G768" s="31" t="s">
-        <v>2104</v>
+        <v>2092</v>
       </c>
       <c r="J768" s="31" t="s">
-        <v>2050</v>
+        <v>2038</v>
       </c>
       <c r="K768" s="31" t="s">
-        <v>2061</v>
+        <v>2049</v>
       </c>
       <c r="M768" s="31">
         <v>-31</v>
@@ -69325,7 +69333,7 @@
       </c>
       <c r="S768" s="56"/>
       <c r="X768" s="31" t="s">
-        <v>2043</v>
+        <v>2031</v>
       </c>
       <c r="Y768" s="31">
         <v>99999999</v>
@@ -69340,13 +69348,13 @@
         <v>95</v>
       </c>
       <c r="AC768" s="31" t="s">
-        <v>2107</v>
+        <v>2095</v>
       </c>
       <c r="AD768" s="31" t="s">
-        <v>2114</v>
+        <v>2102</v>
       </c>
       <c r="AE768" s="32" t="s">
-        <v>2109</v>
+        <v>2097</v>
       </c>
       <c r="AI768" s="31">
         <v>1</v>
@@ -69375,10 +69383,10 @@
         <v>1875</v>
       </c>
       <c r="J769" s="31" t="s">
-        <v>2051</v>
+        <v>2039</v>
       </c>
       <c r="K769" s="31" t="s">
-        <v>2101</v>
+        <v>2089</v>
       </c>
       <c r="M769" s="31">
         <v>-31</v>
@@ -69390,14 +69398,14 @@
         <v>0</v>
       </c>
       <c r="P769" s="31" t="s">
-        <v>2096</v>
+        <v>2084</v>
       </c>
       <c r="Q769" s="31">
         <v>19800</v>
       </c>
       <c r="S769" s="56"/>
       <c r="X769" s="31" t="s">
-        <v>2043</v>
+        <v>2031</v>
       </c>
       <c r="Y769" s="31">
         <v>99999999</v>
@@ -69412,13 +69420,13 @@
         <v>92</v>
       </c>
       <c r="AC769" s="31" t="s">
-        <v>2107</v>
+        <v>2095</v>
       </c>
       <c r="AD769" s="31" t="s">
-        <v>2102</v>
+        <v>2090</v>
       </c>
       <c r="AE769" s="32" t="s">
-        <v>2103</v>
+        <v>2091</v>
       </c>
       <c r="AI769" s="31">
         <v>1</v>
@@ -69444,13 +69452,13 @@
         <v>1</v>
       </c>
       <c r="G770" s="31" t="s">
-        <v>2100</v>
+        <v>2088</v>
       </c>
       <c r="J770" s="31" t="s">
-        <v>2052</v>
+        <v>2040</v>
       </c>
       <c r="K770" s="31" t="s">
-        <v>2101</v>
+        <v>2089</v>
       </c>
       <c r="M770" s="31">
         <v>-31</v>
@@ -69462,14 +69470,14 @@
         <v>0</v>
       </c>
       <c r="P770" s="31" t="s">
-        <v>2096</v>
+        <v>2084</v>
       </c>
       <c r="Q770" s="31">
         <v>19800</v>
       </c>
       <c r="S770" s="56"/>
       <c r="X770" s="31" t="s">
-        <v>2043</v>
+        <v>2031</v>
       </c>
       <c r="Y770" s="31">
         <v>99999999</v>
@@ -69484,13 +69492,13 @@
         <v>93</v>
       </c>
       <c r="AC770" s="31" t="s">
-        <v>2097</v>
+        <v>2085</v>
       </c>
       <c r="AD770" s="31" t="s">
-        <v>2102</v>
+        <v>2090</v>
       </c>
       <c r="AE770" s="32" t="s">
-        <v>2093</v>
+        <v>2081</v>
       </c>
       <c r="AI770" s="31">
         <v>1</v>
@@ -69516,13 +69524,13 @@
         <v>1</v>
       </c>
       <c r="G771" s="31" t="s">
-        <v>2104</v>
+        <v>2092</v>
       </c>
       <c r="J771" s="31" t="s">
-        <v>2053</v>
+        <v>2041</v>
       </c>
       <c r="K771" s="31" t="s">
-        <v>2115</v>
+        <v>2103</v>
       </c>
       <c r="M771" s="31">
         <v>-31</v>
@@ -69534,14 +69542,14 @@
         <v>0</v>
       </c>
       <c r="P771" s="31" t="s">
-        <v>2096</v>
+        <v>2084</v>
       </c>
       <c r="Q771" s="31">
         <v>49800</v>
       </c>
       <c r="S771" s="56"/>
       <c r="X771" s="31" t="s">
-        <v>2043</v>
+        <v>2031</v>
       </c>
       <c r="Y771" s="31">
         <v>99999999</v>
@@ -69556,13 +69564,13 @@
         <v>94</v>
       </c>
       <c r="AC771" s="31" t="s">
-        <v>2107</v>
+        <v>2095</v>
       </c>
       <c r="AD771" s="31" t="s">
-        <v>2116</v>
+        <v>2104</v>
       </c>
       <c r="AE771" s="32" t="s">
-        <v>2117</v>
+        <v>2105</v>
       </c>
       <c r="AI771" s="31">
         <v>1</v>
@@ -69588,13 +69596,13 @@
         <v>1</v>
       </c>
       <c r="G772" s="31" t="s">
-        <v>2104</v>
+        <v>2092</v>
       </c>
       <c r="J772" s="31" t="s">
-        <v>2054</v>
+        <v>2042</v>
       </c>
       <c r="K772" s="31" t="s">
-        <v>2115</v>
+        <v>2103</v>
       </c>
       <c r="M772" s="31">
         <v>-31</v>
@@ -69606,14 +69614,14 @@
         <v>0</v>
       </c>
       <c r="P772" s="31" t="s">
-        <v>2106</v>
+        <v>2094</v>
       </c>
       <c r="Q772" s="31">
         <v>49800</v>
       </c>
       <c r="S772" s="56"/>
       <c r="X772" s="31" t="s">
-        <v>2043</v>
+        <v>2031</v>
       </c>
       <c r="Y772" s="31">
         <v>99999999</v>
@@ -69628,13 +69636,13 @@
         <v>95</v>
       </c>
       <c r="AC772" s="31" t="s">
-        <v>2097</v>
+        <v>2085</v>
       </c>
       <c r="AD772" s="31" t="s">
-        <v>2118</v>
+        <v>2106</v>
       </c>
       <c r="AE772" s="32" t="s">
-        <v>2117</v>
+        <v>2105</v>
       </c>
       <c r="AI772" s="31">
         <v>1</v>
@@ -69660,13 +69668,13 @@
         <v>1</v>
       </c>
       <c r="G773" s="31" t="s">
-        <v>2121</v>
+        <v>2109</v>
       </c>
       <c r="J773" s="87" t="s">
         <v>1538</v>
       </c>
       <c r="K773" s="31" t="s">
-        <v>2122</v>
+        <v>2110</v>
       </c>
       <c r="M773" s="31">
         <v>-31</v>
@@ -69684,13 +69692,13 @@
         <v>600</v>
       </c>
       <c r="R773" s="31" t="s">
-        <v>2123</v>
+        <v>2111</v>
       </c>
       <c r="S773" s="56" t="s">
-        <v>2124</v>
+        <v>2112</v>
       </c>
       <c r="X773" s="31" t="s">
-        <v>2125</v>
+        <v>2113</v>
       </c>
       <c r="Y773" s="31">
         <v>99999999</v>
@@ -69728,13 +69736,13 @@
         <v>1</v>
       </c>
       <c r="G774" s="31" t="s">
-        <v>2120</v>
+        <v>2108</v>
       </c>
       <c r="J774" s="87" t="s">
         <v>1538</v>
       </c>
       <c r="K774" s="31" t="s">
-        <v>2126</v>
+        <v>2114</v>
       </c>
       <c r="M774" s="31">
         <v>-31</v>
@@ -69746,19 +69754,19 @@
         <v>0</v>
       </c>
       <c r="P774" s="31" t="s">
-        <v>2127</v>
+        <v>2115</v>
       </c>
       <c r="Q774" s="31">
         <v>1000</v>
       </c>
       <c r="R774" s="31" t="s">
-        <v>2123</v>
+        <v>2111</v>
       </c>
       <c r="S774" s="56" t="s">
-        <v>2128</v>
+        <v>2116</v>
       </c>
       <c r="X774" s="31" t="s">
-        <v>2125</v>
+        <v>2113</v>
       </c>
       <c r="Y774" s="31">
         <v>99999999</v>
@@ -69796,13 +69804,13 @@
         <v>1</v>
       </c>
       <c r="G775" s="31" t="s">
-        <v>2121</v>
+        <v>2109</v>
       </c>
       <c r="J775" s="87" t="s">
         <v>1538</v>
       </c>
       <c r="K775" s="31" t="s">
-        <v>2129</v>
+        <v>2117</v>
       </c>
       <c r="M775" s="31">
         <v>-31</v>
@@ -69814,16 +69822,16 @@
         <v>0</v>
       </c>
       <c r="P775" s="31" t="s">
-        <v>2127</v>
+        <v>2115</v>
       </c>
       <c r="Q775" s="31">
         <v>1800</v>
       </c>
       <c r="R775" s="31" t="s">
-        <v>2123</v>
+        <v>2111</v>
       </c>
       <c r="S775" s="56" t="s">
-        <v>2130</v>
+        <v>2118</v>
       </c>
       <c r="X775" s="31" t="s">
         <v>479</v>
@@ -69864,13 +69872,13 @@
         <v>1</v>
       </c>
       <c r="G776" s="31" t="s">
-        <v>2121</v>
+        <v>2109</v>
       </c>
       <c r="J776" s="87" t="s">
         <v>1538</v>
       </c>
       <c r="K776" s="31" t="s">
-        <v>2131</v>
+        <v>2119</v>
       </c>
       <c r="M776" s="31">
         <v>-31</v>
@@ -69882,16 +69890,16 @@
         <v>0</v>
       </c>
       <c r="P776" s="31" t="s">
-        <v>2127</v>
+        <v>2115</v>
       </c>
       <c r="Q776" s="31">
         <v>3400</v>
       </c>
       <c r="R776" s="31" t="s">
-        <v>2132</v>
+        <v>2120</v>
       </c>
       <c r="S776" s="56" t="s">
-        <v>2133</v>
+        <v>2121</v>
       </c>
       <c r="X776" s="31" t="s">
         <v>479</v>
@@ -69932,13 +69940,13 @@
         <v>1</v>
       </c>
       <c r="G777" s="31" t="s">
-        <v>2120</v>
+        <v>2108</v>
       </c>
       <c r="J777" s="87" t="s">
         <v>1545</v>
       </c>
       <c r="K777" s="31" t="s">
-        <v>2134</v>
+        <v>2122</v>
       </c>
       <c r="M777" s="31">
         <v>-31</v>
@@ -69956,10 +69964,10 @@
         <v>1800</v>
       </c>
       <c r="R777" s="31" t="s">
-        <v>2135</v>
+        <v>2123</v>
       </c>
       <c r="S777" s="56" t="s">
-        <v>2136</v>
+        <v>2124</v>
       </c>
       <c r="X777" s="31" t="s">
         <v>479</v>
@@ -70000,13 +70008,13 @@
         <v>1</v>
       </c>
       <c r="G778" s="31" t="s">
-        <v>2121</v>
+        <v>2109</v>
       </c>
       <c r="J778" s="87" t="s">
         <v>1545</v>
       </c>
       <c r="K778" s="31" t="s">
-        <v>2137</v>
+        <v>2125</v>
       </c>
       <c r="M778" s="31">
         <v>-31</v>
@@ -70018,16 +70026,16 @@
         <v>0</v>
       </c>
       <c r="P778" s="31" t="s">
-        <v>2127</v>
+        <v>2115</v>
       </c>
       <c r="Q778" s="31">
         <v>3000</v>
       </c>
       <c r="R778" s="31" t="s">
-        <v>2135</v>
+        <v>2123</v>
       </c>
       <c r="S778" s="56" t="s">
-        <v>2138</v>
+        <v>2126</v>
       </c>
       <c r="X778" s="31" t="s">
         <v>479</v>
@@ -70068,13 +70076,13 @@
         <v>1</v>
       </c>
       <c r="G779" s="31" t="s">
-        <v>2121</v>
+        <v>2109</v>
       </c>
       <c r="J779" s="87" t="s">
         <v>1545</v>
       </c>
       <c r="K779" s="31" t="s">
-        <v>2139</v>
+        <v>2127</v>
       </c>
       <c r="M779" s="31">
         <v>-31</v>
@@ -70086,16 +70094,16 @@
         <v>0</v>
       </c>
       <c r="P779" s="31" t="s">
-        <v>2127</v>
+        <v>2115</v>
       </c>
       <c r="Q779" s="31">
         <v>4800</v>
       </c>
       <c r="R779" s="31" t="s">
-        <v>2135</v>
+        <v>2123</v>
       </c>
       <c r="S779" s="56" t="s">
-        <v>2140</v>
+        <v>2128</v>
       </c>
       <c r="X779" s="31" t="s">
         <v>479</v>
@@ -70136,13 +70144,13 @@
         <v>1</v>
       </c>
       <c r="G780" s="31" t="s">
-        <v>2121</v>
+        <v>2109</v>
       </c>
       <c r="J780" s="87" t="s">
         <v>1545</v>
       </c>
       <c r="K780" s="31" t="s">
-        <v>2141</v>
+        <v>2129</v>
       </c>
       <c r="M780" s="31">
         <v>-31</v>
@@ -70154,16 +70162,16 @@
         <v>0</v>
       </c>
       <c r="P780" s="31" t="s">
-        <v>2127</v>
+        <v>2115</v>
       </c>
       <c r="Q780" s="31">
         <v>9600</v>
       </c>
       <c r="R780" s="31" t="s">
-        <v>2142</v>
+        <v>2130</v>
       </c>
       <c r="S780" s="56" t="s">
-        <v>2143</v>
+        <v>2131</v>
       </c>
       <c r="X780" s="31" t="s">
         <v>479</v>
@@ -70204,13 +70212,13 @@
         <v>1</v>
       </c>
       <c r="G781" s="31" t="s">
-        <v>2120</v>
+        <v>2108</v>
       </c>
       <c r="J781" s="87" t="s">
         <v>1552</v>
       </c>
       <c r="K781" s="31" t="s">
-        <v>2144</v>
+        <v>2132</v>
       </c>
       <c r="M781" s="31">
         <v>-31</v>
@@ -70222,16 +70230,16 @@
         <v>0</v>
       </c>
       <c r="P781" s="31" t="s">
-        <v>2127</v>
+        <v>2115</v>
       </c>
       <c r="Q781" s="31">
         <v>4800</v>
       </c>
       <c r="R781" s="31" t="s">
-        <v>2135</v>
+        <v>2123</v>
       </c>
       <c r="S781" s="56" t="s">
-        <v>2145</v>
+        <v>2133</v>
       </c>
       <c r="X781" s="31" t="s">
         <v>479</v>
@@ -70272,13 +70280,13 @@
         <v>1</v>
       </c>
       <c r="G782" s="31" t="s">
-        <v>2121</v>
+        <v>2109</v>
       </c>
       <c r="J782" s="87" t="s">
         <v>1552</v>
       </c>
       <c r="K782" s="31" t="s">
-        <v>2146</v>
+        <v>2134</v>
       </c>
       <c r="M782" s="31">
         <v>-31</v>
@@ -70290,16 +70298,16 @@
         <v>0</v>
       </c>
       <c r="P782" s="31" t="s">
-        <v>2127</v>
+        <v>2115</v>
       </c>
       <c r="Q782" s="31">
         <v>9800</v>
       </c>
       <c r="R782" s="31" t="s">
+        <v>2123</v>
+      </c>
+      <c r="S782" s="56" t="s">
         <v>2135</v>
-      </c>
-      <c r="S782" s="56" t="s">
-        <v>2147</v>
       </c>
       <c r="X782" s="31" t="s">
         <v>479</v>
@@ -70340,13 +70348,13 @@
         <v>1</v>
       </c>
       <c r="G783" s="31" t="s">
-        <v>2121</v>
+        <v>2109</v>
       </c>
       <c r="J783" s="87" t="s">
         <v>1552</v>
       </c>
       <c r="K783" s="31" t="s">
-        <v>2148</v>
+        <v>2136</v>
       </c>
       <c r="M783" s="31">
         <v>-31</v>
@@ -70364,10 +70372,10 @@
         <v>19800</v>
       </c>
       <c r="R783" s="31" t="s">
-        <v>2135</v>
+        <v>2123</v>
       </c>
       <c r="S783" s="56" t="s">
-        <v>2149</v>
+        <v>2137</v>
       </c>
       <c r="X783" s="31" t="s">
         <v>479</v>
@@ -70408,13 +70416,13 @@
         <v>1</v>
       </c>
       <c r="G784" s="31" t="s">
-        <v>2121</v>
+        <v>2109</v>
       </c>
       <c r="J784" s="87" t="s">
         <v>1552</v>
       </c>
       <c r="K784" s="31" t="s">
-        <v>2150</v>
+        <v>2138</v>
       </c>
       <c r="M784" s="31">
         <v>-31</v>
@@ -70426,16 +70434,16 @@
         <v>0</v>
       </c>
       <c r="P784" s="31" t="s">
-        <v>2127</v>
+        <v>2115</v>
       </c>
       <c r="Q784" s="31">
         <v>34400</v>
       </c>
       <c r="R784" s="31" t="s">
-        <v>2142</v>
+        <v>2130</v>
       </c>
       <c r="S784" s="56" t="s">
-        <v>2151</v>
+        <v>2139</v>
       </c>
       <c r="X784" s="31" t="s">
         <v>479</v>
@@ -70476,13 +70484,13 @@
         <v>1</v>
       </c>
       <c r="G785" s="31" t="s">
-        <v>2121</v>
+        <v>2109</v>
       </c>
       <c r="J785" s="87" t="s">
         <v>1441</v>
       </c>
       <c r="K785" s="31" t="s">
-        <v>2152</v>
+        <v>2140</v>
       </c>
       <c r="M785" s="31">
         <v>-31</v>
@@ -70494,16 +70502,16 @@
         <v>0</v>
       </c>
       <c r="P785" s="31" t="s">
-        <v>2127</v>
+        <v>2115</v>
       </c>
       <c r="Q785" s="31">
         <v>9800</v>
       </c>
       <c r="R785" s="31" t="s">
-        <v>2153</v>
+        <v>2141</v>
       </c>
       <c r="S785" s="56" t="s">
-        <v>2154</v>
+        <v>2142</v>
       </c>
       <c r="X785" s="31" t="s">
         <v>479</v>
@@ -70544,13 +70552,13 @@
         <v>1</v>
       </c>
       <c r="G786" s="31" t="s">
-        <v>2121</v>
+        <v>2109</v>
       </c>
       <c r="J786" s="87" t="s">
         <v>1441</v>
       </c>
       <c r="K786" s="31" t="s">
-        <v>2155</v>
+        <v>2143</v>
       </c>
       <c r="M786" s="31">
         <v>-31</v>
@@ -70562,16 +70570,16 @@
         <v>0</v>
       </c>
       <c r="P786" s="31" t="s">
-        <v>2127</v>
+        <v>2115</v>
       </c>
       <c r="Q786" s="31">
         <v>19800</v>
       </c>
       <c r="R786" s="31" t="s">
-        <v>2153</v>
+        <v>2141</v>
       </c>
       <c r="S786" s="56" t="s">
-        <v>2156</v>
+        <v>2144</v>
       </c>
       <c r="X786" s="31" t="s">
         <v>479</v>
@@ -70612,13 +70620,13 @@
         <v>1</v>
       </c>
       <c r="G787" s="31" t="s">
-        <v>2120</v>
+        <v>2108</v>
       </c>
       <c r="J787" s="87" t="s">
         <v>1441</v>
       </c>
       <c r="K787" s="31" t="s">
-        <v>2157</v>
+        <v>2145</v>
       </c>
       <c r="M787" s="31">
         <v>-31</v>
@@ -70630,16 +70638,16 @@
         <v>0</v>
       </c>
       <c r="P787" s="31" t="s">
-        <v>2127</v>
+        <v>2115</v>
       </c>
       <c r="Q787" s="31">
         <v>49800</v>
       </c>
       <c r="R787" s="31" t="s">
-        <v>2153</v>
+        <v>2141</v>
       </c>
       <c r="S787" s="56" t="s">
-        <v>2158</v>
+        <v>2146</v>
       </c>
       <c r="X787" s="31" t="s">
         <v>479</v>
@@ -70680,13 +70688,13 @@
         <v>1</v>
       </c>
       <c r="G788" s="31" t="s">
-        <v>2121</v>
+        <v>2109</v>
       </c>
       <c r="J788" s="87" t="s">
         <v>1441</v>
       </c>
       <c r="K788" s="31" t="s">
-        <v>2159</v>
+        <v>2147</v>
       </c>
       <c r="M788" s="31">
         <v>-31</v>
@@ -70698,16 +70706,16 @@
         <v>0</v>
       </c>
       <c r="P788" s="31" t="s">
-        <v>2127</v>
+        <v>2115</v>
       </c>
       <c r="Q788" s="31">
         <v>79400</v>
       </c>
       <c r="R788" s="31" t="s">
-        <v>2160</v>
+        <v>2148</v>
       </c>
       <c r="S788" s="56" t="s">
-        <v>2161</v>
+        <v>2149</v>
       </c>
       <c r="X788" s="31" t="s">
         <v>479</v>
@@ -71996,7 +72004,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="74" t="s">
-        <v>2062</v>
+        <v>2050</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -72010,7 +72018,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="74" t="s">
-        <v>2063</v>
+        <v>2051</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -72024,7 +72032,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="74" t="s">
-        <v>2064</v>
+        <v>2052</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -72038,7 +72046,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="74" t="s">
-        <v>2065</v>
+        <v>2053</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -72052,7 +72060,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="74" t="s">
-        <v>2066</v>
+        <v>2054</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -72066,7 +72074,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="74" t="s">
-        <v>2067</v>
+        <v>2055</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -72080,7 +72088,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="74" t="s">
-        <v>2068</v>
+        <v>2056</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -72094,7 +72102,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="74" t="s">
-        <v>2069</v>
+        <v>2057</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -72108,7 +72116,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="74" t="s">
-        <v>2070</v>
+        <v>2058</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -72122,7 +72130,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="74" t="s">
-        <v>2071</v>
+        <v>2059</v>
       </c>
       <c r="C96">
         <v>1</v>

--- a/config_12.21/shoping_config_cjj.xlsx
+++ b/config_12.21/shoping_config_cjj.xlsx
@@ -8172,10 +8172,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","jing_bi","prop_tiny_game_cion",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>600000,50000,50000,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8208,10 +8204,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","jing_bi","prop_tiny_game_cion","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>3400000,300000,300000,200000,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8458,6 +8450,12 @@
   <si>
     <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_tiny_game_coin",</t>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_tiny_game_coin","jing_bi",</t>
   </si>
 </sst>
 </file>
@@ -11443,10 +11441,10 @@
   <dimension ref="A1:AIG788"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Z703" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q772" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A709" sqref="A709:XFD724"/>
+      <selection pane="bottomRight" activeCell="R773" sqref="R773:R776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -65230,13 +65228,13 @@
         <v>176</v>
       </c>
       <c r="H709" s="89" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="J709" s="88" t="s">
         <v>1538</v>
       </c>
       <c r="K709" s="88" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="M709" s="88">
         <v>-31</v>
@@ -65248,19 +65246,19 @@
         <v>0</v>
       </c>
       <c r="P709" s="88" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="Q709" s="88">
         <v>600</v>
       </c>
       <c r="R709" s="88" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="S709" s="75" t="s">
         <v>1912</v>
       </c>
       <c r="X709" s="88" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="Y709" s="88">
         <v>99999999</v>
@@ -65317,7 +65315,7 @@
         <v>0</v>
       </c>
       <c r="P710" s="88" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="Q710" s="88">
         <v>1000</v>
@@ -65326,7 +65324,7 @@
         <v>1911</v>
       </c>
       <c r="S710" s="75" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="X710" s="88" t="s">
         <v>1920</v>
@@ -65374,7 +65372,7 @@
         <v>1538</v>
       </c>
       <c r="K711" s="88" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="M711" s="88">
         <v>-31</v>
@@ -65392,7 +65390,7 @@
         <v>1800</v>
       </c>
       <c r="R711" s="88" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="S711" s="75" t="s">
         <v>1914</v>
@@ -65443,7 +65441,7 @@
         <v>1538</v>
       </c>
       <c r="K712" s="88" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="M712" s="88">
         <v>-31</v>
@@ -65461,10 +65459,10 @@
         <v>3400</v>
       </c>
       <c r="R712" s="88" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="S712" s="75" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="X712" s="88" t="s">
         <v>479</v>
@@ -65512,7 +65510,7 @@
         <v>1545</v>
       </c>
       <c r="K713" s="88" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="M713" s="88">
         <v>-31</v>
@@ -65524,16 +65522,16 @@
         <v>0</v>
       </c>
       <c r="P713" s="88" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="Q713" s="88">
         <v>1800</v>
       </c>
       <c r="R713" s="88" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="S713" s="75" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="X713" s="88" t="s">
         <v>479</v>
@@ -65581,7 +65579,7 @@
         <v>1545</v>
       </c>
       <c r="K714" s="88" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="M714" s="88">
         <v>-31</v>
@@ -65593,7 +65591,7 @@
         <v>0</v>
       </c>
       <c r="P714" s="88" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="Q714" s="88">
         <v>3000</v>
@@ -65602,7 +65600,7 @@
         <v>1911</v>
       </c>
       <c r="S714" s="75" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="X714" s="88" t="s">
         <v>479</v>
@@ -65650,7 +65648,7 @@
         <v>1545</v>
       </c>
       <c r="K715" s="88" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="M715" s="88">
         <v>-31</v>
@@ -65668,10 +65666,10 @@
         <v>4800</v>
       </c>
       <c r="R715" s="88" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="S715" s="75" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="X715" s="88" t="s">
         <v>479</v>
@@ -65719,7 +65717,7 @@
         <v>1545</v>
       </c>
       <c r="K716" s="88" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="M716" s="88">
         <v>-31</v>
@@ -65731,16 +65729,16 @@
         <v>0</v>
       </c>
       <c r="P716" s="88" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="Q716" s="88">
         <v>9600</v>
       </c>
       <c r="R716" s="88" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="S716" s="75" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="X716" s="88" t="s">
         <v>479</v>
@@ -65788,7 +65786,7 @@
         <v>1552</v>
       </c>
       <c r="K717" s="88" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="M717" s="88">
         <v>-31</v>
@@ -65800,7 +65798,7 @@
         <v>0</v>
       </c>
       <c r="P717" s="88" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="Q717" s="88">
         <v>4800</v>
@@ -65809,7 +65807,7 @@
         <v>1915</v>
       </c>
       <c r="S717" s="75" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="X717" s="88" t="s">
         <v>479</v>
@@ -65857,7 +65855,7 @@
         <v>1552</v>
       </c>
       <c r="K718" s="88" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="M718" s="88">
         <v>-31</v>
@@ -65869,7 +65867,7 @@
         <v>0</v>
       </c>
       <c r="P718" s="88" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="Q718" s="88">
         <v>9800</v>
@@ -65926,7 +65924,7 @@
         <v>1552</v>
       </c>
       <c r="K719" s="88" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="M719" s="88">
         <v>-31</v>
@@ -65938,7 +65936,7 @@
         <v>0</v>
       </c>
       <c r="P719" s="88" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="Q719" s="88">
         <v>19800</v>
@@ -65947,7 +65945,7 @@
         <v>1915</v>
       </c>
       <c r="S719" s="75" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="X719" s="88" t="s">
         <v>479</v>
@@ -65995,7 +65993,7 @@
         <v>1552</v>
       </c>
       <c r="K720" s="88" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="M720" s="88">
         <v>-31</v>
@@ -66016,7 +66014,7 @@
         <v>1921</v>
       </c>
       <c r="S720" s="75" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="X720" s="88" t="s">
         <v>479</v>
@@ -66076,13 +66074,13 @@
         <v>0</v>
       </c>
       <c r="P721" s="88" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="Q721" s="88">
         <v>9800</v>
       </c>
       <c r="R721" s="88" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="S721" s="75" t="s">
         <v>1924</v>
@@ -66145,16 +66143,16 @@
         <v>0</v>
       </c>
       <c r="P722" s="88" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="Q722" s="88">
         <v>19800</v>
       </c>
       <c r="R722" s="88" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="S722" s="75" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="X722" s="88" t="s">
         <v>479</v>
@@ -66202,7 +66200,7 @@
         <v>1441</v>
       </c>
       <c r="K723" s="88" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="M723" s="88">
         <v>-31</v>
@@ -66223,7 +66221,7 @@
         <v>1923</v>
       </c>
       <c r="S723" s="75" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="X723" s="88" t="s">
         <v>479</v>
@@ -66283,19 +66281,19 @@
         <v>0</v>
       </c>
       <c r="P724" s="88" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="Q724" s="88">
         <v>79400</v>
       </c>
       <c r="R724" s="88" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="S724" s="75" t="s">
         <v>1927</v>
       </c>
       <c r="X724" s="88" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="Y724" s="88">
         <v>99999999</v>
@@ -69692,13 +69690,13 @@
         <v>600</v>
       </c>
       <c r="R773" s="31" t="s">
+        <v>2182</v>
+      </c>
+      <c r="S773" s="56" t="s">
         <v>2111</v>
       </c>
-      <c r="S773" s="56" t="s">
+      <c r="X773" s="31" t="s">
         <v>2112</v>
-      </c>
-      <c r="X773" s="31" t="s">
-        <v>2113</v>
       </c>
       <c r="Y773" s="31">
         <v>99999999</v>
@@ -69742,7 +69740,7 @@
         <v>1538</v>
       </c>
       <c r="K774" s="31" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="M774" s="31">
         <v>-31</v>
@@ -69754,19 +69752,19 @@
         <v>0</v>
       </c>
       <c r="P774" s="31" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="Q774" s="31">
         <v>1000</v>
       </c>
       <c r="R774" s="31" t="s">
-        <v>2111</v>
+        <v>2182</v>
       </c>
       <c r="S774" s="56" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="X774" s="31" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="Y774" s="31">
         <v>99999999</v>
@@ -69810,7 +69808,7 @@
         <v>1538</v>
       </c>
       <c r="K775" s="31" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="M775" s="31">
         <v>-31</v>
@@ -69822,16 +69820,16 @@
         <v>0</v>
       </c>
       <c r="P775" s="31" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="Q775" s="31">
         <v>1800</v>
       </c>
       <c r="R775" s="31" t="s">
-        <v>2111</v>
+        <v>2182</v>
       </c>
       <c r="S775" s="56" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="X775" s="31" t="s">
         <v>479</v>
@@ -69878,7 +69876,7 @@
         <v>1538</v>
       </c>
       <c r="K776" s="31" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="M776" s="31">
         <v>-31</v>
@@ -69890,16 +69888,16 @@
         <v>0</v>
       </c>
       <c r="P776" s="31" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="Q776" s="31">
         <v>3400</v>
       </c>
       <c r="R776" s="31" t="s">
-        <v>2120</v>
+        <v>2183</v>
       </c>
       <c r="S776" s="56" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="X776" s="31" t="s">
         <v>479</v>
@@ -69946,7 +69944,7 @@
         <v>1545</v>
       </c>
       <c r="K777" s="31" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="M777" s="31">
         <v>-31</v>
@@ -69964,10 +69962,10 @@
         <v>1800</v>
       </c>
       <c r="R777" s="31" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="S777" s="56" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="X777" s="31" t="s">
         <v>479</v>
@@ -70014,7 +70012,7 @@
         <v>1545</v>
       </c>
       <c r="K778" s="31" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="M778" s="31">
         <v>-31</v>
@@ -70026,16 +70024,16 @@
         <v>0</v>
       </c>
       <c r="P778" s="31" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="Q778" s="31">
         <v>3000</v>
       </c>
       <c r="R778" s="31" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="S778" s="56" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="X778" s="31" t="s">
         <v>479</v>
@@ -70082,7 +70080,7 @@
         <v>1545</v>
       </c>
       <c r="K779" s="31" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="M779" s="31">
         <v>-31</v>
@@ -70094,16 +70092,16 @@
         <v>0</v>
       </c>
       <c r="P779" s="31" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="Q779" s="31">
         <v>4800</v>
       </c>
       <c r="R779" s="31" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="S779" s="56" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="X779" s="31" t="s">
         <v>479</v>
@@ -70150,7 +70148,7 @@
         <v>1545</v>
       </c>
       <c r="K780" s="31" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="M780" s="31">
         <v>-31</v>
@@ -70162,16 +70160,16 @@
         <v>0</v>
       </c>
       <c r="P780" s="31" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="Q780" s="31">
         <v>9600</v>
       </c>
       <c r="R780" s="31" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="S780" s="56" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="X780" s="31" t="s">
         <v>479</v>
@@ -70218,7 +70216,7 @@
         <v>1552</v>
       </c>
       <c r="K781" s="31" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="M781" s="31">
         <v>-31</v>
@@ -70230,16 +70228,16 @@
         <v>0</v>
       </c>
       <c r="P781" s="31" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="Q781" s="31">
         <v>4800</v>
       </c>
       <c r="R781" s="31" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="S781" s="56" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="X781" s="31" t="s">
         <v>479</v>
@@ -70286,7 +70284,7 @@
         <v>1552</v>
       </c>
       <c r="K782" s="31" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="M782" s="31">
         <v>-31</v>
@@ -70298,16 +70296,16 @@
         <v>0</v>
       </c>
       <c r="P782" s="31" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="Q782" s="31">
         <v>9800</v>
       </c>
       <c r="R782" s="31" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="S782" s="56" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="X782" s="31" t="s">
         <v>479</v>
@@ -70354,7 +70352,7 @@
         <v>1552</v>
       </c>
       <c r="K783" s="31" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="M783" s="31">
         <v>-31</v>
@@ -70372,10 +70370,10 @@
         <v>19800</v>
       </c>
       <c r="R783" s="31" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="S783" s="56" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="X783" s="31" t="s">
         <v>479</v>
@@ -70422,7 +70420,7 @@
         <v>1552</v>
       </c>
       <c r="K784" s="31" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="M784" s="31">
         <v>-31</v>
@@ -70434,16 +70432,16 @@
         <v>0</v>
       </c>
       <c r="P784" s="31" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="Q784" s="31">
         <v>34400</v>
       </c>
       <c r="R784" s="31" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="S784" s="56" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="X784" s="31" t="s">
         <v>479</v>
@@ -70490,7 +70488,7 @@
         <v>1441</v>
       </c>
       <c r="K785" s="31" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="M785" s="31">
         <v>-31</v>
@@ -70502,16 +70500,16 @@
         <v>0</v>
       </c>
       <c r="P785" s="31" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="Q785" s="31">
         <v>9800</v>
       </c>
       <c r="R785" s="31" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="S785" s="56" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="X785" s="31" t="s">
         <v>479</v>
@@ -70558,7 +70556,7 @@
         <v>1441</v>
       </c>
       <c r="K786" s="31" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="M786" s="31">
         <v>-31</v>
@@ -70570,16 +70568,16 @@
         <v>0</v>
       </c>
       <c r="P786" s="31" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="Q786" s="31">
         <v>19800</v>
       </c>
       <c r="R786" s="31" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="S786" s="56" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="X786" s="31" t="s">
         <v>479</v>
@@ -70626,7 +70624,7 @@
         <v>1441</v>
       </c>
       <c r="K787" s="31" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="M787" s="31">
         <v>-31</v>
@@ -70638,16 +70636,16 @@
         <v>0</v>
       </c>
       <c r="P787" s="31" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="Q787" s="31">
         <v>49800</v>
       </c>
       <c r="R787" s="31" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="S787" s="56" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="X787" s="31" t="s">
         <v>479</v>
@@ -70694,7 +70692,7 @@
         <v>1441</v>
       </c>
       <c r="K788" s="31" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="M788" s="31">
         <v>-31</v>
@@ -70706,16 +70704,16 @@
         <v>0</v>
       </c>
       <c r="P788" s="31" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="Q788" s="31">
         <v>79400</v>
       </c>
       <c r="R788" s="31" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="S788" s="56" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="X788" s="31" t="s">
         <v>479</v>
